--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="676"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="676" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="4" r:id="rId1"/>
@@ -47,6 +47,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="C4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>战力--：
+阵容中强攻系老虎改为辅助系</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -69,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="77">
   <si>
     <t>天数</t>
   </si>
@@ -457,6 +473,27 @@
     <t>1、50卡级结束
 2、全民对决
 3、星斗赏活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：48
+战力：403055
+觉醒券：221
+钻石：5488</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：50
+战力：470499
+觉醒券：84
+钻石：1243</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：49
+战力：335909
+觉醒券：207
+钻石：4553</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -846,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1436,7 +1473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1725,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1769,7 +1806,7 @@
         <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>8</v>
@@ -1788,7 +1825,9 @@
       <c r="C3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="H3" s="7" t="s">
         <v>66</v>
       </c>
@@ -1801,16 +1840,19 @@
         <v>49</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>24</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>52</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -1856,15 +1898,21 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>29</v>
       </c>
+      <c r="B10" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>30</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="D11" s="2"/>
     </row>

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -11,6 +11,7 @@
     <sheet name="1-10" sheetId="1" r:id="rId2"/>
     <sheet name="11-20" sheetId="6" r:id="rId3"/>
     <sheet name="21-30" sheetId="5" r:id="rId4"/>
+    <sheet name="31-40" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -85,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="80">
   <si>
     <t>天数</t>
   </si>
@@ -494,6 +495,27 @@
 战力：335909
 觉醒券：207
 钻石：4553</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：50
+战力：480505
+觉醒券：86
+钻石：1407</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：48
+战力：417790
+觉醒券：242
+钻石：4279</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：49
+战力：364888
+觉醒券：224
+钻石：3508</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1762,8 +1784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1826,7 +1848,7 @@
         <v>68</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>66</v>
@@ -1842,7 +1864,9 @@
       <c r="C4" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
@@ -1852,7 +1876,7 @@
         <v>52</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -1863,6 +1887,9 @@
       <c r="B6" s="6" t="s">
         <v>56</v>
       </c>
+      <c r="C6" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -1912,7 +1939,7 @@
         <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -1989,4 +2016,237 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="4" width="15.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="20" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="A2" s="7">
+        <v>31</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
+        <v>37</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
+        <v>38</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="84">
   <si>
     <t>天数</t>
   </si>
@@ -516,6 +516,32 @@
 战力：364888
 觉醒券：224
 钻石：3508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：49
+战力：431976
+觉醒券：277
+钻石：3069</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：51
+战力：484262
+觉醒券：102
+钻石：1809</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/ 9/9 - 9/17 
+波赛西返厂（中秋节）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：49
+战力：376981
+觉醒券：256
+钻石：2553</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1785,7 +1811,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1865,7 +1891,7 @@
         <v>76</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -1878,7 +1904,12 @@
       <c r="C5" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -1888,7 +1919,7 @@
         <v>56</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -1898,6 +1929,9 @@
       </c>
       <c r="B7" s="6" t="s">
         <v>61</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -2023,7 +2057,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2065,16 +2099,18 @@
         <v>31</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>32</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="676" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="676" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="4" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="88">
   <si>
     <t>天数</t>
   </si>
@@ -542,6 +542,34 @@
 战力：376981
 觉醒券：256
 钻石：2553</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：
+战力：
+觉醒券：
+钻石：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：49
+战力：393599
+觉醒券：2
+钻石：1861</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：49
+战力：486564
+觉醒券：5
+钻石：2988</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：51
+战力：496466
+觉醒券：116
+钻石：1120</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1810,7 +1838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1905,7 +1933,7 @@
         <v>79</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>82</v>
@@ -1921,7 +1949,9 @@
       <c r="C6" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="6" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -1931,7 +1961,7 @@
         <v>61</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -1941,6 +1971,9 @@
       </c>
       <c r="B8" s="6" t="s">
         <v>63</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="D8" s="2"/>
       <c r="H8" s="7" t="s">
@@ -2056,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2109,16 +2142,18 @@
         <v>32</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>33</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -64,6 +64,40 @@
         </r>
       </text>
     </comment>
+    <comment ref="D5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>随机活动：
+2022/ 9/9 - 9/17 
+波赛西返厂（中秋节）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>2022 9/10 - 9/12
+中秋（玉兔寻宝）
+良心活动</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -85,8 +119,35 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>2022 9/10 - 9/12
+中秋（玉兔寻宝）
+良心活动</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="91">
   <si>
     <t>天数</t>
   </si>
@@ -533,11 +594,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2022/ 9/9 - 9/17 
-波赛西返厂（中秋节）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级：49
 战力：376981
 觉醒券：256
@@ -545,13 +601,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级：
-战力：
-觉醒券：
-钻石：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级：49
 战力：393599
 觉醒券：2
@@ -570,6 +619,42 @@
 战力：496466
 觉醒券：116
 钻石：1120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：
+战力：
+觉醒券：
+钻石：
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：49
+战力：531465
+觉醒券：20
+钻石：2207
+区评分排名：143</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：
+战力：
+觉醒券：
+钻石：
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：51
+战力：543227
+觉醒券：141
+钻石：509
+区评分排名：168</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -601,7 +686,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,6 +696,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,7 +718,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -651,6 +742,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -960,7 +1054,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -969,12 +1063,12 @@
     <col min="2" max="4" width="15.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
     <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2"/>
+    <col min="7" max="7" width="16.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="20" style="7" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -991,7 +1085,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>65</v>
@@ -1839,7 +1933,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1933,13 +2027,10 @@
         <v>79</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>25</v>
       </c>
@@ -1947,13 +2038,13 @@
         <v>56</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>26</v>
       </c>
@@ -1961,9 +2052,11 @@
         <v>61</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
@@ -1972,8 +2065,8 @@
       <c r="B8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>55</v>
+      <c r="C8" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="D8" s="2"/>
       <c r="H8" s="7" t="s">
@@ -2086,11 +2179,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2142,31 +2235,30 @@
         <v>32</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>33</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>34</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -2319,5 +2411,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="93">
   <si>
     <t>天数</t>
   </si>
@@ -654,6 +654,21 @@
 战力：543227
 觉醒券：141
 钻石：509
+区评分排名：168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：49
+战力：636715
+觉醒券：2040
+区评分排名：106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：51
+战力：564150
+觉醒券：149
+钻石：423
 区评分排名：168</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1068,7 +1083,7 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1933,7 +1948,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2044,7 +2059,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>26</v>
       </c>
@@ -2055,10 +2070,10 @@
         <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>27</v>
       </c>
@@ -2068,7 +2083,9 @@
       <c r="C8" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="H8" s="7" t="s">
         <v>67</v>
       </c>
@@ -2182,8 +2199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2255,16 +2272,18 @@
         <v>34</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>35</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="95">
   <si>
     <t>天数</t>
   </si>
@@ -658,18 +658,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级：49
-战力：636715
-觉醒券：2040
-区评分排名：106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级：51
 战力：564150
 觉醒券：149
 钻石：423
 区评分排名：168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：49
+战力：682865
+觉醒券：37
+钻石：562
+区评分排名：113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：49
+战力：636715
+觉醒券：
+钻石：2040
+区评分排名：106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：52
+战力：601522
+觉醒券：171
+钻石：483
+区评分排名：170</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1947,8 +1964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2059,7 +2076,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>26</v>
       </c>
@@ -2070,7 +2087,7 @@
         <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -2084,20 +2101,22 @@
         <v>86</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>28</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="H9" s="7" t="s">
         <v>73</v>
       </c>
@@ -2200,7 +2219,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2272,7 +2291,7 @@
         <v>34</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2282,16 +2301,18 @@
         <v>35</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>36</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="97">
   <si>
     <t>天数</t>
   </si>
@@ -687,6 +687,22 @@
 觉醒券：171
 钻石：483
 区评分排名：170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：49
+战力：688301
+觉醒券：8
+钻石：823
+区评分排名：115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：52
+战力：619966
+觉醒券：201
+钻石：624
+区评分排名：163</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1964,8 +1980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2115,20 +2131,22 @@
         <v>72</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>29</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -2218,8 +2236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2311,16 +2329,18 @@
         <v>36</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>37</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="676" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="676" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="4" r:id="rId1"/>
@@ -115,6 +115,22 @@
         </r>
       </text>
     </comment>
+    <comment ref="D11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">战力降低：
+波赛西取消链接主控
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -147,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="101">
   <si>
     <t>天数</t>
   </si>
@@ -705,12 +721,44 @@
 区评分排名：163</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>等级：50
+战力：701042
+觉醒券：10
+钻石：853
+区评分排名：118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：52
+战力：630908
+觉醒券：216
+钻石：192
+区评分排名：162</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：50
+战力：660127
+觉醒券：7
+钻石：587
+区评分排名：140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：52
+战力：644714
+觉醒券：219
+钻石：516
+区评分排名：168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,6 +779,13 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1980,8 +2035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2145,17 +2200,19 @@
         <v>75</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="6" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
@@ -2236,8 +2293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2274,7 +2331,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>31</v>
       </c>
@@ -2282,7 +2339,9 @@
         <v>81</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
@@ -2339,24 +2398,28 @@
         <v>37</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>38</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>39</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="676" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="676" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="4" r:id="rId1"/>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="103">
   <si>
     <t>天数</t>
   </si>
@@ -751,6 +751,22 @@
 觉醒券：219
 钻石：516
 区评分排名：168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：50
+战力：677183
+觉醒券：8
+钻石：31
+区评分排名：137</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：52
+战力：661739
+觉醒券：226
+钻石：174
+区评分排名：163</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2035,7 +2051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -2293,14 +2309,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="4" width="15.5" style="6" customWidth="1"/>
+    <col min="2" max="3" width="15.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
     <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="2"/>
@@ -2340,10 +2357,10 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>32</v>
       </c>
@@ -2351,7 +2368,9 @@
         <v>85</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
@@ -2418,16 +2437,18 @@
         <v>39</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>40</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -12,6 +12,7 @@
     <sheet name="11-20" sheetId="6" r:id="rId3"/>
     <sheet name="21-30" sheetId="5" r:id="rId4"/>
     <sheet name="31-40" sheetId="7" r:id="rId5"/>
+    <sheet name="41-50" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -163,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="105">
   <si>
     <t>天数</t>
   </si>
@@ -766,6 +767,22 @@
 战力：661739
 觉醒券：226
 钻石：174
+区评分排名：163</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：51
+战力：680286
+觉醒券：10
+钻石：523
+区评分排名：143</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：53
+战力：670173
+觉醒券：231
+钻石：1283
 区评分排名：163</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2309,8 +2326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2369,7 +2386,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="6" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -2380,7 +2397,9 @@
         <v>90</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
@@ -2447,7 +2466,7 @@
         <v>40</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2557,4 +2576,208 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="3" width="15.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="7">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
+        <v>42</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>44</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
+        <v>47</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
+        <v>49</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
+        <v>50</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="676" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="676" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="4" r:id="rId1"/>
@@ -163,8 +163,35 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">券++
+极限战境+巅峰演武
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="107">
   <si>
     <t>天数</t>
   </si>
@@ -784,6 +811,22 @@
 觉醒券：231
 钻石：1283
 区评分排名：163</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：51
+战力：705172
+觉醒券：2
+钻石：1174
+区评分排名：135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：53
+战力：697977
+觉醒券：275
+钻石：2775
+区评分排名：154</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2326,8 +2369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2398,7 +2441,7 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="6" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -2409,7 +2452,9 @@
         <v>91</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -2579,11 +2624,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2622,15 +2667,17 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>42</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -2779,5 +2826,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="676" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="676" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="4" r:id="rId1"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="109">
   <si>
     <t>天数</t>
   </si>
@@ -827,6 +827,22 @@
 觉醒券：275
 钻石：2775
 区评分排名：154</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：53
+战力：707493
+觉醒券：293
+钻石：2992
+区评分排名：157</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：51
+战力：731235
+觉醒券：1
+钻石：2530
+区评分排名：131</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2369,8 +2385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2453,7 +2469,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="6" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -2464,7 +2480,9 @@
         <v>94</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -2627,8 +2645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" activeCellId="1" sqref="C4 E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2676,15 +2694,17 @@
         <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>43</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="676" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="676" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="4" r:id="rId1"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="114">
   <si>
     <t>天数</t>
   </si>
@@ -843,6 +843,46 @@
 觉醒券：1
 钻石：2530
 区评分排名：131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：51
+战力：747002
+觉醒券：2
+钻石：2862
+区评分排名：129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：53
+战力：709454
+觉醒券：296
+钻石：3422
+区评分排名：158</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：52
+战力：771945
+觉醒券：8
+钻石：3371
+区评分排名：132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：
+战力：
+觉醒券：
+钻石：
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：53
+战力：739646
+觉醒券：296
+钻石：2225
+区评分排名：154</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2385,8 +2425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2481,7 +2521,7 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="6" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -2492,7 +2532,9 @@
         <v>96</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="6" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
@@ -2502,7 +2544,9 @@
         <v>98</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="6" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
@@ -2645,8 +2689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" activeCellId="1" sqref="C4 E3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2703,25 +2747,29 @@
         <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>44</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="G5" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>45</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="115">
   <si>
     <t>天数</t>
   </si>
@@ -870,19 +870,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级：
-战力：
-觉醒券：
-钻石：
-区评分排名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级：53
 战力：739646
 觉醒券：296
 钻石：2225
 区评分排名：154</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：52
+战力：827004
+觉醒券：3
+钻石：3270
+区评分排名：120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：53
+战力：762583
+觉醒券：296
+钻石：1843
+区评分排名：151</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2425,8 +2433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2545,7 +2553,7 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -2556,7 +2564,9 @@
         <v>100</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -2690,7 +2700,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2756,7 +2766,7 @@
         <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2"/>
       <c r="G5" s="7">
@@ -2768,15 +2778,17 @@
         <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>46</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="117">
   <si>
     <t>天数</t>
   </si>
@@ -891,6 +891,22 @@
 觉醒券：296
 钻石：1843
 区评分排名：151</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：52
+战力：850054
+觉醒券：9
+钻石：3072
+区评分排名：118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：54
+战力：798809
+觉醒券：301
+钻石：2472
+区评分排名：146</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2433,8 +2449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2565,7 +2581,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="6" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -2576,7 +2592,9 @@
         <v>102</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -2699,8 +2717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2787,15 +2805,17 @@
         <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>47</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="676" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="676" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="4" r:id="rId1"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="119">
   <si>
     <t>天数</t>
   </si>
@@ -907,6 +907,22 @@
 觉醒券：301
 钻石：2472
 区评分排名：146</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：54
+战力：804818
+觉醒券：306
+钻石：2073
+区评分排名：148</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：52
+战力：859249
+觉醒券：20
+钻石：1939
+区评分排名：126</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2449,8 +2465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2593,7 +2609,7 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="6" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -2604,7 +2620,9 @@
         <v>104</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
@@ -2717,8 +2735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2814,15 +2832,17 @@
         <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>48</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="676" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="676" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="4" r:id="rId1"/>
@@ -159,6 +159,22 @@
         </r>
       </text>
     </comment>
+    <comment ref="D11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>钻石++
+对决竞技场
+天斗争霸1000</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -191,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="121">
   <si>
     <t>天数</t>
   </si>
@@ -923,6 +939,22 @@
 觉醒券：20
 钻石：1939
 区评分排名：126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：53
+战力：904673
+觉醒券：0
+钻石：4794
+区评分排名：118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：54
+战力：819858
+觉醒券：305
+钻石：1653
+区评分排名：143</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2465,8 +2497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2621,7 +2653,7 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="6" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -2735,8 +2767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2777,7 +2809,9 @@
       <c r="B2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
@@ -2841,15 +2875,17 @@
         <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>49</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="123">
   <si>
     <t>天数</t>
   </si>
@@ -955,6 +955,22 @@
 觉醒券：305
 钻石：1653
 区评分排名：143</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：54
+战力：828329
+觉醒券：309
+钻石：1799
+区评分排名：144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：53
+战力：930710
+觉醒券：6
+钻石：5749
+区评分排名：115</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2767,8 +2783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2810,7 +2826,7 @@
         <v>106</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -2820,7 +2836,9 @@
       <c r="B3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
@@ -2884,15 +2902,17 @@
         <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>50</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -13,6 +13,7 @@
     <sheet name="21-30" sheetId="5" r:id="rId4"/>
     <sheet name="31-40" sheetId="7" r:id="rId5"/>
     <sheet name="41-50" sheetId="8" r:id="rId6"/>
+    <sheet name="51-60" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -207,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="125">
   <si>
     <t>天数</t>
   </si>
@@ -971,6 +972,22 @@
 觉醒券：6
 钻石：5749
 区评分排名：115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：53
+战力：932840
+觉醒券：10
+钻石：6003
+区评分排名：119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：54
+战力：830582
+觉醒券：310
+钻石：2003
+区评分排名：145</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1377,7 +1394,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2783,8 +2800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2837,7 +2854,7 @@
         <v>107</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -2847,7 +2864,9 @@
       <c r="B4" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
@@ -2911,7 +2930,7 @@
         <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -3004,4 +3023,208 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="3" width="15.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="7">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
+        <v>52</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>55</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>56</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
+        <v>57</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
+        <v>58</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
+        <v>59</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
+        <v>60</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="676" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="676" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="4" r:id="rId1"/>
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="127">
   <si>
     <t>天数</t>
   </si>
@@ -988,6 +988,22 @@
 觉醒券：310
 钻石：2003
 区评分排名：145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：53
+战力：952456
+觉醒券：32
+钻石：6264
+区评分排名：124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：54
+战力：860975
+觉醒券：311
+钻石：2147
+区评分排名：138</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2800,8 +2816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2865,7 +2881,7 @@
         <v>110</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -2875,7 +2891,9 @@
       <c r="B5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="G5" s="7">
         <v>1</v>
       </c>
@@ -3029,8 +3047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3069,15 +3087,17 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>52</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="676" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="676" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="4" r:id="rId1"/>
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="129">
   <si>
     <t>天数</t>
   </si>
@@ -1004,6 +1004,22 @@
 觉醒券：311
 钻石：2147
 区评分排名：138</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：53
+战力：963045
+觉醒券：37
+钻石：6351
+区评分排名：119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：54
+战力：874514
+觉醒券：312
+钻石：2196
+区评分排名：139</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2816,8 +2832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2892,7 +2908,7 @@
         <v>112</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="G5" s="7">
         <v>1</v>
@@ -2905,7 +2921,9 @@
       <c r="B6" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -3047,8 +3065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3096,15 +3114,17 @@
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>53</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="676" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="676" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="4" r:id="rId1"/>
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="133">
   <si>
     <t>天数</t>
   </si>
@@ -1020,6 +1020,34 @@
 觉醒券：312
 钻石：2196
 区评分排名：139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：53
+战力：989477
+觉醒券：42
+钻石：6501
+区评分排名：113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：
+战力：
+觉醒券：
+钻石：
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：54
+战力：890807
+觉醒券：327
+钻石：1063
+区评分排名：156</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2832,8 +2860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2910,8 +2938,8 @@
       <c r="C5" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G5" s="7">
-        <v>1</v>
+      <c r="G5" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -2922,7 +2950,7 @@
         <v>114</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -2932,7 +2960,9 @@
       <c r="B7" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
@@ -3065,8 +3095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3123,15 +3153,17 @@
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>54</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="G5" s="7">
         <v>1</v>

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="676" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="676" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="4" r:id="rId1"/>
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="134">
   <si>
     <t>天数</t>
   </si>
@@ -1035,19 +1035,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级：
-战力：
-觉醒券：
-钻石：
-区评分排名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级：54
 战力：890807
 觉醒券：327
 钻石：1063
 区评分排名：156</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：894372
+觉醒券：349
+钻石：1316
+区评分排名：135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：54
+战力：1008101
+觉醒券：70
+钻石：6287
+区评分排名：117</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2860,8 +2868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2961,7 +2969,7 @@
         <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -2971,7 +2979,9 @@
       <c r="B8" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
@@ -3095,8 +3105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3153,7 +3163,7 @@
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -3162,18 +3172,20 @@
         <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="C5" s="2"/>
       <c r="G5" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>55</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="136">
   <si>
     <t>天数</t>
   </si>
@@ -1056,6 +1056,22 @@
 觉醒券：70
 钻石：6287
 区评分排名：117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：921276
+觉醒券：361
+钻石：310
+区评分排名：131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：54
+战力：1020820
+觉醒券：81
+钻石：6237
+区评分排名：115</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2868,8 +2884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2980,7 +2996,7 @@
         <v>117</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -2990,7 +3006,9 @@
       <c r="B9" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -3105,8 +3123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3184,15 +3202,17 @@
         <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>56</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="676" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="4" r:id="rId1"/>
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="138">
   <si>
     <t>天数</t>
   </si>
@@ -1072,6 +1072,22 @@
 觉醒券：81
 钻石：6237
 区评分排名：115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：54
+战力：1097314
+觉醒券：95
+钻石：5633
+区评分排名：104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：938897
+觉醒券：370
+钻石：292
+区评分排名：132</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1478,7 +1494,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2884,8 +2900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3007,7 +3023,7 @@
         <v>120</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3017,7 +3033,9 @@
       <c r="B10" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -3123,8 +3141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3211,15 +3229,17 @@
         <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>57</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="140">
   <si>
     <t>天数</t>
   </si>
@@ -1088,6 +1088,22 @@
 觉醒券：370
 钻石：292
 区评分排名：132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：54
+战力：1121092
+觉醒券：106
+钻石：5840
+区评分排名：102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：949163
+觉醒券：372
+钻石：566
+区评分排名：131</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2900,8 +2916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3034,7 +3050,7 @@
         <v>121</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3044,7 +3060,9 @@
       <c r="B11" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
@@ -3141,8 +3159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3238,15 +3256,17 @@
         <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>58</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="4" r:id="rId1"/>
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="142">
   <si>
     <t>天数</t>
   </si>
@@ -1104,6 +1104,22 @@
 觉醒券：372
 钻石：566
 区评分排名：131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：963897
+觉醒券：378
+钻石：140
+区评分排名：120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：54
+战力：1140878
+觉醒券：113
+钻石：6163
+区评分排名：103</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2916,8 +2932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3061,7 +3077,7 @@
         <v>124</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -3159,8 +3175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3201,7 +3217,9 @@
       <c r="B2" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
@@ -3265,15 +3283,17 @@
         <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>59</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="4" r:id="rId1"/>
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="144">
   <si>
     <t>天数</t>
   </si>
@@ -1120,6 +1120,22 @@
 觉醒券：113
 钻石：6163
 区评分排名：103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：977003
+觉醒券：408
+钻石：748
+区评分排名：121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：54
+战力：1174966
+觉醒券：140
+钻石：5080
+区评分排名：107</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2932,7 +2948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -3175,7 +3191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3218,7 +3234,7 @@
         <v>126</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3228,7 +3244,9 @@
       <c r="B3" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
@@ -3292,15 +3310,17 @@
         <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>60</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -14,6 +14,7 @@
     <sheet name="31-40" sheetId="7" r:id="rId5"/>
     <sheet name="41-50" sheetId="8" r:id="rId6"/>
     <sheet name="51-60" sheetId="11" r:id="rId7"/>
+    <sheet name="61-70" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -208,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="146">
   <si>
     <t>天数</t>
   </si>
@@ -1136,6 +1137,22 @@
 觉醒券：140
 钻石：5080
 区评分排名：107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：1008715
+觉醒券：419
+钻石：303
+区评分排名：121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：54
+战力：1207197
+觉醒券：170
+钻石：982
+区评分排名：94</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3191,8 +3208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3245,7 +3262,7 @@
         <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3255,7 +3272,9 @@
       <c r="B4" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
@@ -3319,8 +3338,212 @@
         <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="3" width="15.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="G1" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="7">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>65</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>66</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
+        <v>67</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
+        <v>68</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
+        <v>69</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
+        <v>70</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="4" r:id="rId1"/>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="148">
   <si>
     <t>天数</t>
   </si>
@@ -1153,6 +1153,22 @@
 觉醒券：170
 钻石：982
 区评分排名：94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：54
+战力：1220222
+觉醒券：181
+钻石：231
+区评分排名：97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：1014586
+觉醒券：424
+钻石：1265
+区评分排名：115</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3208,8 +3224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3273,7 +3289,7 @@
         <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3283,7 +3299,9 @@
       <c r="B5" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="G5" s="7">
         <v>1</v>
       </c>
@@ -3436,7 +3454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3476,15 +3494,17 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>62</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="150">
   <si>
     <t>天数</t>
   </si>
@@ -1169,6 +1169,22 @@
 觉醒券：424
 钻石：1265
 区评分排名：115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：1248000
+觉醒券：192
+钻石：508
+区评分排名：103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：1026071
+觉醒券：433
+钻石：1836
+区评分排名：122</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3224,8 +3240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3300,7 +3316,7 @@
         <v>132</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="G5" s="7">
         <v>1</v>
@@ -3313,7 +3329,9 @@
       <c r="B6" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -3455,7 +3473,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3503,15 +3521,17 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>63</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="4" r:id="rId1"/>
@@ -21,6 +21,32 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">16抽 二龙+猫咪 开局
+购买：3个誓约之证
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -45,7 +71,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -138,7 +164,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -181,7 +207,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -209,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="154">
   <si>
     <t>天数</t>
   </si>
@@ -1187,12 +1213,41 @@
 区评分排名：122</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>(葫芦丿Min）
+区服：718服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：1286547
+觉醒券：196
+钻石：695
+区评分排名：95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：1033803
+觉醒券：444
+钻石：4926
+区评分排名：119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：29
+战力：19911
+觉醒券：13
+钻石：4359
+区评分排名：153</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1220,6 +1275,13 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1591,7 +1653,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1613,10 +1675,10 @@
         <v>12</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>8</v>
@@ -1788,21 +1850,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="4" width="15.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1815,22 +1878,28 @@
       <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="E1" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1840,11 +1909,12 @@
       <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="E3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1854,11 +1924,12 @@
       <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="E4" s="2"/>
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1868,11 +1939,12 @@
       <c r="D5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="E5" s="2"/>
+      <c r="H5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1882,11 +1954,12 @@
       <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="E6" s="2"/>
+      <c r="H6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1896,11 +1969,12 @@
       <c r="D7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="E7" s="2"/>
+      <c r="H7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1910,11 +1984,12 @@
       <c r="D8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="E8" s="2"/>
+      <c r="H8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1924,11 +1999,12 @@
       <c r="D9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="E9" s="2"/>
+      <c r="H9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1941,11 +2017,12 @@
       <c r="D10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="E10" s="2"/>
+      <c r="H10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1958,11 +2035,12 @@
       <c r="D11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="E11" s="2"/>
+      <c r="H11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1975,11 +2053,12 @@
       <c r="D12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="E12" s="2"/>
+      <c r="H12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1992,11 +2071,12 @@
       <c r="D13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="E13" s="2"/>
+      <c r="H13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2009,11 +2089,12 @@
       <c r="D14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="E14" s="2"/>
+      <c r="H14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2026,11 +2107,12 @@
       <c r="D15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="E15" s="2"/>
+      <c r="H15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2043,11 +2125,12 @@
       <c r="D16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="E16" s="2"/>
+      <c r="H16" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2060,11 +2143,12 @@
       <c r="D17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="E17" s="2"/>
+      <c r="H17" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2077,11 +2161,12 @@
       <c r="D18" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="E18" s="2"/>
+      <c r="H18" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2091,11 +2176,12 @@
       <c r="C19" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="E19" s="2"/>
+      <c r="H19" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2105,25 +2191,27 @@
       <c r="C20" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="E20" s="2"/>
+      <c r="H20" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="E21" s="2"/>
+      <c r="H21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2131,48 +2219,55 @@
         <v>43</v>
       </c>
       <c r="D22"/>
-    </row>
-    <row r="23" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
+      <c r="E27" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3330,7 +3425,7 @@
         <v>134</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3340,7 +3435,9 @@
       <c r="B7" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
@@ -3472,8 +3569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3530,15 +3627,17 @@
         <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>64</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="G5" s="7">
         <v>1</v>

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -36,9 +36,24 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">16抽 二龙+猫咪 开局
+          <t>16抽 二龙+猫咪 开局
 购买：3个誓约之证
-</t>
+2022/10/10 16:00开区</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>月关 开局</t>
         </r>
       </text>
     </comment>
@@ -235,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="182">
   <si>
     <t>天数</t>
   </si>
@@ -276,11 +291,6 @@
   </si>
   <si>
     <t>模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：
-战力：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -730,6 +740,519 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>等级：51
+战力：543227
+觉醒券：141
+钻石：509
+区评分排名：168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：51
+战力：564150
+觉醒券：149
+钻石：423
+区评分排名：168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：49
+战力：682865
+觉醒券：37
+钻石：562
+区评分排名：113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：49
+战力：636715
+觉醒券：
+钻石：2040
+区评分排名：106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：52
+战力：601522
+觉醒券：171
+钻石：483
+区评分排名：170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：49
+战力：688301
+觉醒券：8
+钻石：823
+区评分排名：115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：52
+战力：619966
+觉醒券：201
+钻石：624
+区评分排名：163</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：50
+战力：701042
+觉醒券：10
+钻石：853
+区评分排名：118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：52
+战力：630908
+觉醒券：216
+钻石：192
+区评分排名：162</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：50
+战力：660127
+觉醒券：7
+钻石：587
+区评分排名：140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：52
+战力：644714
+觉醒券：219
+钻石：516
+区评分排名：168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：50
+战力：677183
+觉醒券：8
+钻石：31
+区评分排名：137</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：52
+战力：661739
+觉醒券：226
+钻石：174
+区评分排名：163</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：51
+战力：680286
+觉醒券：10
+钻石：523
+区评分排名：143</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：53
+战力：670173
+觉醒券：231
+钻石：1283
+区评分排名：163</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：51
+战力：705172
+觉醒券：2
+钻石：1174
+区评分排名：135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：53
+战力：697977
+觉醒券：275
+钻石：2775
+区评分排名：154</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：53
+战力：707493
+觉醒券：293
+钻石：2992
+区评分排名：157</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：51
+战力：731235
+觉醒券：1
+钻石：2530
+区评分排名：131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：51
+战力：747002
+觉醒券：2
+钻石：2862
+区评分排名：129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：53
+战力：709454
+觉醒券：296
+钻石：3422
+区评分排名：158</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：52
+战力：771945
+觉醒券：8
+钻石：3371
+区评分排名：132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：53
+战力：739646
+觉醒券：296
+钻石：2225
+区评分排名：154</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：52
+战力：827004
+觉醒券：3
+钻石：3270
+区评分排名：120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：53
+战力：762583
+觉醒券：296
+钻石：1843
+区评分排名：151</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：52
+战力：850054
+觉醒券：9
+钻石：3072
+区评分排名：118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：54
+战力：798809
+觉醒券：301
+钻石：2472
+区评分排名：146</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：54
+战力：804818
+觉醒券：306
+钻石：2073
+区评分排名：148</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：52
+战力：859249
+觉醒券：20
+钻石：1939
+区评分排名：126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：53
+战力：904673
+觉醒券：0
+钻石：4794
+区评分排名：118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：54
+战力：819858
+觉醒券：305
+钻石：1653
+区评分排名：143</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：54
+战力：828329
+觉醒券：309
+钻石：1799
+区评分排名：144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：53
+战力：930710
+觉醒券：6
+钻石：5749
+区评分排名：115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：53
+战力：932840
+觉醒券：10
+钻石：6003
+区评分排名：119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：54
+战力：830582
+觉醒券：310
+钻石：2003
+区评分排名：145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：53
+战力：952456
+觉醒券：32
+钻石：6264
+区评分排名：124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：54
+战力：860975
+觉醒券：311
+钻石：2147
+区评分排名：138</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：53
+战力：963045
+觉醒券：37
+钻石：6351
+区评分排名：119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：54
+战力：874514
+觉醒券：312
+钻石：2196
+区评分排名：139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：53
+战力：989477
+觉醒券：42
+钻石：6501
+区评分排名：113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：54
+战力：890807
+觉醒券：327
+钻石：1063
+区评分排名：156</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：894372
+觉醒券：349
+钻石：1316
+区评分排名：135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：54
+战力：1008101
+觉醒券：70
+钻石：6287
+区评分排名：117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：921276
+觉醒券：361
+钻石：310
+区评分排名：131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：54
+战力：1020820
+觉醒券：81
+钻石：6237
+区评分排名：115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：54
+战力：1097314
+觉醒券：95
+钻石：5633
+区评分排名：104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：938897
+觉醒券：370
+钻石：292
+区评分排名：132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：54
+战力：1121092
+觉醒券：106
+钻石：5840
+区评分排名：102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：949163
+觉醒券：372
+钻石：566
+区评分排名：131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：963897
+觉醒券：378
+钻石：140
+区评分排名：120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：54
+战力：1140878
+觉醒券：113
+钻石：6163
+区评分排名：103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：977003
+觉醒券：408
+钻石：748
+区评分排名：121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：54
+战力：1174966
+觉醒券：140
+钻石：5080
+区评分排名：107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：1008715
+觉醒券：419
+钻石：303
+区评分排名：121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：54
+战力：1207197
+觉醒券：170
+钻石：982
+区评分排名：94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：54
+战力：1220222
+觉醒券：181
+钻石：231
+区评分排名：97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：1014586
+觉醒券：424
+钻石：1265
+区评分排名：115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：1248000
+觉醒券：192
+钻石：508
+区评分排名：103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：1026071
+觉醒券：433
+钻石：1836
+区评分排名：122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(葫芦丿Min）
+区服：718服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：1286547
+觉醒券：196
+钻石：695
+区评分排名：95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：1033803
+觉醒券：444
+钻石：4926
+区评分排名：119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：29
+战力：19911
+觉醒券：13
+钻石：4359
+区评分排名：153</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：1056387
+觉醒券：454
+钻石：5623
+区评分排名：118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>等级：
 战力：
 觉醒券：
@@ -738,508 +1261,188 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级：51
-战力：543227
-觉醒券：141
-钻石：509
-区评分排名：168</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：51
-战力：564150
-觉醒券：149
-钻石：423
-区评分排名：168</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：49
-战力：682865
-觉醒券：37
-钻石：562
-区评分排名：113</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：49
-战力：636715
+    <t>等级：55
+战力：1295307
+觉醒券：199
+钻石：538
+区评分排名：96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：29
+战力：20396
 觉醒券：
-钻石：2040
-区评分排名：106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：52
-战力：601522
-觉醒券：171
-钻石：483
-区评分排名：170</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：49
-战力：688301
-觉醒券：8
-钻石：823
-区评分排名：115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：52
-战力：619966
-觉醒券：201
-钻石：624
-区评分排名：163</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：50
-战力：701042
-觉醒券：10
-钻石：853
-区评分排名：118</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：52
-战力：630908
-觉醒券：216
-钻石：192
-区评分排名：162</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：50
-战力：660127
-觉醒券：7
-钻石：587
-区评分排名：140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：52
-战力：644714
-觉醒券：219
-钻石：516
-区评分排名：168</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：50
-战力：677183
-觉醒券：8
-钻石：31
-区评分排名：137</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：52
-战力：661739
-觉醒券：226
-钻石：174
-区评分排名：163</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：51
-战力：680286
-觉醒券：10
-钻石：523
-区评分排名：143</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：53
-战力：670173
-觉醒券：231
-钻石：1283
-区评分排名：163</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：51
-战力：705172
-觉醒券：2
-钻石：1174
-区评分排名：135</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：53
-战力：697977
-觉醒券：275
-钻石：2775
-区评分排名：154</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：53
-战力：707493
-觉醒券：293
-钻石：2992
-区评分排名：157</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：51
-战力：731235
-觉醒券：1
-钻石：2530
-区评分排名：131</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：51
-战力：747002
-觉醒券：2
-钻石：2862
-区评分排名：129</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：53
-战力：709454
-觉醒券：296
-钻石：3422
-区评分排名：158</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：52
-战力：771945
-觉醒券：8
-钻石：3371
-区评分排名：132</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：53
-战力：739646
-觉醒券：296
-钻石：2225
-区评分排名：154</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：52
-战力：827004
-觉醒券：3
-钻石：3270
-区评分排名：120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：53
-战力：762583
-觉醒券：296
-钻石：1843
-区评分排名：151</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：52
-战力：850054
-觉醒券：9
-钻石：3072
-区评分排名：118</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：54
-战力：798809
-觉醒券：301
-钻石：2472
-区评分排名：146</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：54
-战力：804818
-觉醒券：306
-钻石：2073
-区评分排名：148</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：52
-战力：859249
-觉醒券：20
-钻石：1939
-区评分排名：126</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：53
-战力：904673
-觉醒券：0
-钻石：4794
-区评分排名：118</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：54
-战力：819858
-觉醒券：305
-钻石：1653
-区评分排名：143</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：54
-战力：828329
-觉醒券：309
-钻石：1799
-区评分排名：144</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：53
-战力：930710
-觉醒券：6
-钻石：5749
-区评分排名：115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：53
-战力：932840
-觉醒券：10
-钻石：6003
-区评分排名：119</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：54
-战力：830582
-觉醒券：310
-钻石：2003
-区评分排名：145</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：53
-战力：952456
+钻石：5028
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：32
+战力：32741
+觉醒券：
+钻石：7322
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：35
+战力：41574
+觉醒券：50
+钻石：9687
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魂骨开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬赏开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：36
+战力：60640
+觉醒券：57
+钻石：1.1w
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（归海博远）
+区服：
+斗罗豪杰540</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：37
+战力：67064
+觉醒券：64
+钻石：1.2w
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、魂力链接
+2、巨蝎环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：38
+战力：82200
+觉醒券：70
+钻石：1.3w
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：39
+战力：87708
+觉醒券：72
+钻石：1.5w
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：40
+战力：99422
+觉醒券：104
+钻石：1.6w
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：41
+战力：117774
+觉醒券：116
+钻石：1.7w
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：
+战力：
+觉醒券：
+钻石：
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、积分赛拿SSR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：42
+战力：135175
+觉醒券：
+钻石：
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、每周活动和老区同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：42
+战力：152747
+觉醒券：166
+钻石：1.3w
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、昊天峥嵘活动SSR
+2、锤三SSR
+3、小舞巅峰SSR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：43
+战力：173620
+觉醒券：203
+钻石：1.1w
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：44
+战力：226897
+觉醒券：
+钻石：7560
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、昊天扬威begin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、变异兽群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、积分赛end
+2、锤名昊天begin
+前三天钻石礼包拉满
+进前50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、昊天扬威end
+2、锤名昊天end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：32
+战力：32031
 觉醒券：32
-钻石：6264
-区评分排名：124</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：54
-战力：860975
-觉醒券：311
-钻石：2147
-区评分排名：138</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：53
-战力：963045
-觉醒券：37
-钻石：6351
-区评分排名：119</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：54
-战力：874514
-觉醒券：312
-钻石：2196
-区评分排名：139</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：53
-战力：989477
-觉醒券：42
-钻石：6501
-区评分排名：113</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：54
-战力：890807
-觉醒券：327
-钻石：1063
-区评分排名：156</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：55
-战力：894372
-觉醒券：349
-钻石：1316
-区评分排名：135</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：54
-战力：1008101
-觉醒券：70
-钻石：6287
-区评分排名：117</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：55
-战力：921276
-觉醒券：361
-钻石：310
-区评分排名：131</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：54
-战力：1020820
-觉醒券：81
-钻石：6237
-区评分排名：115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：54
-战力：1097314
-觉醒券：95
-钻石：5633
-区评分排名：104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：55
-战力：938897
-觉醒券：370
-钻石：292
-区评分排名：132</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：54
-战力：1121092
-觉醒券：106
-钻石：5840
-区评分排名：102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：55
-战力：949163
-觉醒券：372
-钻石：566
-区评分排名：131</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：55
-战力：963897
-觉醒券：378
-钻石：140
-区评分排名：120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：54
-战力：1140878
-觉醒券：113
-钻石：6163
-区评分排名：103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：55
-战力：977003
-觉醒券：408
-钻石：748
-区评分排名：121</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：54
-战力：1174966
-觉醒券：140
-钻石：5080
-区评分排名：107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：55
-战力：1008715
-觉醒券：419
-钻石：303
-区评分排名：121</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：54
-战力：1207197
-觉醒券：170
-钻石：982
-区评分排名：94</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：54
-战力：1220222
-觉醒券：181
-钻石：231
-区评分排名：97</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：55
-战力：1014586
-觉醒券：424
-钻石：1265
-区评分排名：115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：55
-战力：1248000
-觉醒券：192
-钻石：508
-区评分排名：103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：55
-战力：1026071
-觉醒券：433
-钻石：1836
-区评分排名：122</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(葫芦丿Min）
-区服：718服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：55
-战力：1286547
-觉醒券：196
-钻石：695
-区评分排名：95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：55
-战力：1033803
-觉醒券：444
-钻石：4926
-区评分排名：119</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：29
-战力：19911
-觉醒券：13
-钻石：4359
-区评分排名：153</t>
+钻石：6321
+区评分排名：---</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1247,7 +1450,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1284,6 +1487,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1317,7 +1527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1344,6 +1554,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1653,7 +1866,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1667,33 +1880,33 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" s="2"/>
@@ -1851,7 +2064,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
@@ -1862,27 +2075,38 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="4" width="15.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="18.375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="E1" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1890,16 +2114,19 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1909,12 +2136,18 @@
       <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="E3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1922,14 +2155,20 @@
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1937,74 +2176,91 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="F5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="F6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="F7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="F8" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="H9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="F9" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2012,17 +2268,21 @@
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="H10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="F10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2030,238 +2290,126 @@
         <v>6</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="H11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="F11" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="2"/>
-      <c r="H12" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="F12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="F13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="F14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="2"/>
-      <c r="H15" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="F15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="2"/>
-      <c r="H16" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="F16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="F17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="F18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
       <c r="E19" s="2"/>
-      <c r="H19" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="F19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
       <c r="E20" s="2"/>
-      <c r="H20" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="F20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B21" s="6"/>
       <c r="E21" s="2"/>
-      <c r="H21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="F21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B22" s="6"/>
       <c r="D22"/>
       <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B23" s="6"/>
       <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B24" s="6"/>
       <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B25" s="6"/>
       <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B26" s="6"/>
       <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F28" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2273,284 +2421,330 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="4" width="15.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.375" customWidth="1"/>
-    <col min="8" max="8" width="9" style="7"/>
+    <col min="5" max="5" width="16.125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="16.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="E1" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>16</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>17</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>18</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>19</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="I10" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>20</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28"/>
+      <c r="E28" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2564,7 +2758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -2585,16 +2779,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -2602,19 +2796,19 @@
         <v>21</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -2622,16 +2816,16 @@
         <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -2639,13 +2833,13 @@
         <v>23</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -2653,13 +2847,13 @@
         <v>24</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -2667,13 +2861,13 @@
         <v>25</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -2681,13 +2875,13 @@
         <v>26</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -2695,16 +2889,16 @@
         <v>27</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -2712,13 +2906,13 @@
         <v>28</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -2726,10 +2920,10 @@
         <v>29</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -2737,10 +2931,10 @@
         <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -2843,22 +3037,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -2866,11 +3060,11 @@
         <v>31</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -2878,11 +3072,11 @@
         <v>32</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -2890,11 +3084,11 @@
         <v>33</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -2902,11 +3096,11 @@
         <v>34</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -2914,11 +3108,11 @@
         <v>35</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -2926,11 +3120,11 @@
         <v>36</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -2938,11 +3132,11 @@
         <v>37</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -2950,11 +3144,11 @@
         <v>38</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -2962,11 +3156,11 @@
         <v>39</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -2974,11 +3168,11 @@
         <v>40</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -3112,19 +3306,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3132,10 +3326,10 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3143,10 +3337,10 @@
         <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3154,10 +3348,10 @@
         <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3165,13 +3359,13 @@
         <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3179,10 +3373,10 @@
         <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3190,10 +3384,10 @@
         <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3201,10 +3395,10 @@
         <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3212,10 +3406,10 @@
         <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3223,10 +3417,10 @@
         <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3234,10 +3428,10 @@
         <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -3335,8 +3529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3355,19 +3549,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3375,10 +3569,10 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3386,10 +3580,10 @@
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3397,10 +3591,10 @@
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3408,10 +3602,10 @@
         <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G5" s="7">
         <v>1</v>
@@ -3422,10 +3616,10 @@
         <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3433,10 +3627,10 @@
         <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3444,16 +3638,18 @@
         <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C9" s="2"/>
     </row>
@@ -3462,7 +3658,7 @@
         <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -3471,7 +3667,7 @@
         <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -3569,8 +3765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3589,19 +3785,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3609,7 +3805,7 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -3618,7 +3814,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -3627,7 +3823,7 @@
         <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -3636,18 +3832,20 @@
         <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="C5" s="2"/>
       <c r="G5" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>65</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="4" r:id="rId1"/>
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="185">
   <si>
     <t>天数</t>
   </si>
@@ -1253,6 +1253,100 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>等级：55
+战力：1295307
+觉醒券：199
+钻石：538
+区评分排名：96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：29
+战力：20396
+觉醒券：
+钻石：5028
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：32
+战力：32741
+觉醒券：
+钻石：7322
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：35
+战力：41574
+觉醒券：50
+钻石：9687
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬赏开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：36
+战力：60640
+觉醒券：57
+钻石：1.1w
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（归海博远）
+区服：
+斗罗豪杰540</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：37
+战力：67064
+觉醒券：64
+钻石：1.2w
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：38
+战力：82200
+觉醒券：70
+钻石：1.3w
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：39
+战力：87708
+觉醒券：72
+钻石：1.5w
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：40
+战力：99422
+觉醒券：104
+钻石：1.6w
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：41
+战力：117774
+觉醒券：116
+钻石：1.7w
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>等级：
 战力：
 觉醒券：
@@ -1261,117 +1355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级：55
-战力：1295307
-觉醒券：199
-钻石：538
-区评分排名：96</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：29
-战力：20396
-觉醒券：
-钻石：5028
-区评分排名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：32
-战力：32741
-觉醒券：
-钻石：7322
-区评分排名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：35
-战力：41574
-觉醒券：50
-钻石：9687
-区评分排名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魂骨开启</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悬赏开启</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：36
-战力：60640
-觉醒券：57
-钻石：1.1w
-区评分排名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（归海博远）
-区服：
-斗罗豪杰540</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：37
-战力：67064
-觉醒券：64
-钻石：1.2w
-区评分排名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、魂力链接
-2、巨蝎环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：38
-战力：82200
-觉醒券：70
-钻石：1.3w
-区评分排名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：39
-战力：87708
-觉醒券：72
-钻石：1.5w
-区评分排名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：40
-战力：99422
-觉醒券：104
-钻石：1.6w
-区评分排名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：41
-战力：117774
-觉醒券：116
-钻石：1.7w
-区评分排名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：
-战力：
-觉醒券：
-钻石：
-区评分排名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、积分赛拿SSR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1443,6 +1426,43 @@
 觉醒券：32
 钻石：6321
 区评分排名：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：34
+战力：38694
+觉醒券：41
+钻石：7818
+区评分排名：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：1060561
+觉醒券：459
+钻石：5849
+区评分排名：118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35级魂骨开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、魂力链接
+2、巨蝎环（38级）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：1296104
+觉醒券：201
+钻石：383
+区评分排名：99</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2066,8 +2086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2097,10 +2117,10 @@
         <v>148</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>8</v>
@@ -2117,10 +2137,10 @@
         <v>151</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>86</v>
@@ -2137,13 +2157,13 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -2158,13 +2178,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -2178,12 +2198,14 @@
       <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -2199,7 +2221,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
+      </c>
+      <c r="G6" t="s">
+        <v>183</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -2215,10 +2240,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="I7" s="2"/>
     </row>
@@ -2234,10 +2259,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -2253,10 +2278,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -2275,10 +2300,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -2297,7 +2322,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -2451,7 +2476,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>69</v>
@@ -2474,7 +2499,7 @@
         <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>86</v>
@@ -2494,10 +2519,10 @@
         <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -2514,10 +2539,10 @@
         <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -2534,7 +2559,7 @@
         <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.15">
@@ -3529,8 +3554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3630,7 +3655,7 @@
         <v>135</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3641,7 +3666,7 @@
         <v>137</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3651,7 +3676,9 @@
       <c r="B9" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -3765,8 +3792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3844,15 +3871,17 @@
         <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>66</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="4" r:id="rId1"/>
-    <sheet name="1-10" sheetId="1" r:id="rId2"/>
-    <sheet name="11-20" sheetId="6" r:id="rId3"/>
-    <sheet name="21-30" sheetId="5" r:id="rId4"/>
-    <sheet name="31-40" sheetId="7" r:id="rId5"/>
-    <sheet name="41-50" sheetId="8" r:id="rId6"/>
-    <sheet name="51-60" sheetId="11" r:id="rId7"/>
-    <sheet name="61-70" sheetId="13" r:id="rId8"/>
+    <sheet name="msg" sheetId="14" r:id="rId1"/>
+    <sheet name="0" sheetId="4" r:id="rId2"/>
+    <sheet name="1-10" sheetId="1" r:id="rId3"/>
+    <sheet name="11-20" sheetId="6" r:id="rId4"/>
+    <sheet name="21-30" sheetId="5" r:id="rId5"/>
+    <sheet name="31-40" sheetId="7" r:id="rId6"/>
+    <sheet name="41-50" sheetId="8" r:id="rId7"/>
+    <sheet name="51-60" sheetId="11" r:id="rId8"/>
+    <sheet name="61-70" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -250,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="204">
   <si>
     <t>天数</t>
   </si>
@@ -605,10 +606,6 @@
 战力：340231
 觉醒券：189
 钻石：5312</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教皇降临开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1347,14 +1344,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级：
-战力：
-觉醒券：
-钻石：
-区评分排名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、积分赛拿SSR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1463,6 +1452,123 @@
 觉醒券：201
 钻石：383
 区评分排名：99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星期三</t>
+  </si>
+  <si>
+    <t>星期四</t>
+  </si>
+  <si>
+    <t>星期五</t>
+  </si>
+  <si>
+    <t>星期六</t>
+  </si>
+  <si>
+    <t>星期日</t>
+  </si>
+  <si>
+    <t>BQ666
+武魂券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-3做完解锁
+开局23抽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/10/12
+720服
+23:00
+胖子+摇头哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/10/11
+719服
+16:00
+猫+狐狸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/10/10
+719服
+--:--
+猫+二龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：36
+战力：54591
+觉醒券：51
+钻石：9936
+区评分排名：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：1328836
+觉醒券：205
+钻石：385
+区评分排名：95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：1068643
+觉醒券：463
+钻石：6530
+区评分排名：118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/10/14
+721服
+05:00
+摇头哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比比东卡池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：37
+战力：59950
+觉醒券：56
+钻石：1.1w
+区评分排名：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：1330595
+觉醒券：205
+钻石：402
+区评分排名：93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1078829
+觉醒券：464
+钻石：6905
+区评分排名：121</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1515,7 +1621,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1534,6 +1640,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1547,7 +1665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1578,6 +1696,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1883,10 +2007,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="8" width="13.75" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="B2" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:XFD11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1911,7 +2109,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>64</v>
@@ -1925,7 +2123,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -2082,12 +2280,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2114,13 +2312,13 @@
         <v>13</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>8</v>
@@ -2134,16 +2332,16 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -2157,13 +2355,13 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -2178,13 +2376,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -2199,13 +2397,13 @@
         <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>86</v>
+        <v>196</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -2219,12 +2417,14 @@
       <c r="D6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -2238,12 +2438,14 @@
       <c r="D7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I7" s="2"/>
     </row>
@@ -2259,10 +2461,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -2278,10 +2480,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -2300,10 +2502,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -2322,7 +2524,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -2444,12 +2646,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2462,7 +2664,7 @@
     <col min="9" max="9" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2476,16 +2678,16 @@
         <v>13</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>11</v>
       </c>
@@ -2499,13 +2701,13 @@
         <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>12</v>
       </c>
@@ -2519,13 +2721,13 @@
         <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>13</v>
       </c>
@@ -2539,13 +2741,13 @@
         <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>14</v>
       </c>
@@ -2558,11 +2760,11 @@
       <c r="D5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="E5" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>15</v>
       </c>
@@ -2577,7 +2779,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>16</v>
       </c>
@@ -2592,7 +2794,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>17</v>
       </c>
@@ -2607,7 +2809,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>18</v>
       </c>
@@ -2622,7 +2824,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>19</v>
       </c>
@@ -2636,11 +2838,11 @@
         <v>61</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="I10" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="G10" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>20</v>
       </c>
@@ -2651,39 +2853,39 @@
         <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -2779,12 +2981,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2827,7 +3029,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>8</v>
@@ -2847,7 +3049,7 @@
         <v>67</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>65</v>
@@ -2861,10 +3063,10 @@
         <v>48</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -2875,10 +3077,10 @@
         <v>51</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -2889,10 +3091,10 @@
         <v>55</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -2903,10 +3105,10 @@
         <v>60</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -2917,10 +3119,10 @@
         <v>62</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>66</v>
@@ -2931,13 +3133,13 @@
         <v>28</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -2945,10 +3147,10 @@
         <v>29</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -2956,10 +3158,10 @@
         <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -3037,7 +3239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
@@ -3085,11 +3287,11 @@
         <v>31</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -3097,11 +3299,11 @@
         <v>32</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -3109,11 +3311,11 @@
         <v>33</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -3121,11 +3323,11 @@
         <v>34</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -3133,11 +3335,11 @@
         <v>35</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -3145,11 +3347,11 @@
         <v>36</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -3157,11 +3359,11 @@
         <v>37</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -3169,11 +3371,11 @@
         <v>38</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -3181,11 +3383,11 @@
         <v>39</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -3193,11 +3395,11 @@
         <v>40</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -3307,11 +3509,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -3340,7 +3542,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>64</v>
@@ -3351,10 +3553,10 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3362,10 +3564,10 @@
         <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3373,10 +3575,10 @@
         <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3384,13 +3586,13 @@
         <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3398,10 +3600,10 @@
         <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3409,10 +3611,10 @@
         <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3420,10 +3622,10 @@
         <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3431,10 +3633,10 @@
         <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3442,10 +3644,10 @@
         <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3453,10 +3655,10 @@
         <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -3550,7 +3752,249 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="3" width="15.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="7">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
+        <v>52</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>55</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>56</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
+        <v>57</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
+        <v>58</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
+        <v>59</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
+        <v>60</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -3583,245 +4027,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="7">
-        <v>51</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
-        <v>52</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
-        <v>53</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
-        <v>54</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
-        <v>55</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
-        <v>56</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
-        <v>57</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
-        <v>58</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
-        <v>59</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
-        <v>60</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="3" width="15.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>64</v>
@@ -3832,7 +4038,7 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -3841,7 +4047,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -3850,7 +4056,7 @@
         <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -3859,7 +4065,7 @@
         <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="2"/>
       <c r="G5" s="7">
@@ -3871,7 +4077,7 @@
         <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -3880,22 +4086,26 @@
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>67</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>68</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -251,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="207">
   <si>
     <t>天数</t>
   </si>
@@ -1569,6 +1569,30 @@
 觉醒券：464
 钻石：6905
 区评分排名：121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：38
+战力：69105
+觉醒券：60
+钻石：1.2w
+区评分排名：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1091578
+觉醒券：463
+钻石：7333
+区评分排名：106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：1342136
+觉醒券：213
+钻石：459
+区评分排名：97</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2284,8 +2308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2439,7 +2463,7 @@
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>85</v>
+        <v>204</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>161</v>
@@ -2459,7 +2483,9 @@
       <c r="D8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="F8" s="2" t="s">
         <v>162</v>
       </c>
@@ -3757,7 +3783,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3901,7 +3927,7 @@
         <v>141</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -3998,8 +4024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4040,7 +4066,9 @@
       <c r="B2" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
@@ -4104,15 +4132,17 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>69</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="msg" sheetId="14" r:id="rId1"/>
-    <sheet name="0" sheetId="4" r:id="rId2"/>
-    <sheet name="1-10" sheetId="1" r:id="rId3"/>
-    <sheet name="11-20" sheetId="6" r:id="rId4"/>
-    <sheet name="21-30" sheetId="5" r:id="rId5"/>
-    <sheet name="31-40" sheetId="7" r:id="rId6"/>
-    <sheet name="41-50" sheetId="8" r:id="rId7"/>
-    <sheet name="51-60" sheetId="11" r:id="rId8"/>
-    <sheet name="61-70" sheetId="13" r:id="rId9"/>
+    <sheet name="兽巢探索" sheetId="15" r:id="rId2"/>
+    <sheet name="0" sheetId="4" r:id="rId3"/>
+    <sheet name="1-10" sheetId="1" r:id="rId4"/>
+    <sheet name="11-20" sheetId="6" r:id="rId5"/>
+    <sheet name="21-30" sheetId="5" r:id="rId6"/>
+    <sheet name="31-40" sheetId="7" r:id="rId7"/>
+    <sheet name="41-50" sheetId="8" r:id="rId8"/>
+    <sheet name="51-60" sheetId="11" r:id="rId9"/>
+    <sheet name="61-70" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -251,7 +252,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="217">
   <si>
     <t>天数</t>
   </si>
@@ -1593,6 +1594,58 @@
 觉醒券：213
 钻石：459
 区评分排名：97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽巢探索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费钻石数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：39
+战力：75506
+觉醒券：71
+钻石：1.1w
+区评分排名：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1177140
+觉醒券：467
+钻石：6777
+区评分排名：94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：1412668
+觉醒券：216
+钻石：2773
+区评分排名：88</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2033,8 +2086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2092,6 +2145,9 @@
       <c r="B12" s="7" t="s">
         <v>192</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>207</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2103,7 +2159,293 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="3" width="15.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="7">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>65</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>66</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
+        <v>67</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
+        <v>68</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
+        <v>69</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
+        <v>70</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="7">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
@@ -2304,12 +2646,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2484,7 +2826,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>85</v>
+        <v>214</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>162</v>
@@ -2504,7 +2846,9 @@
       <c r="D9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>163</v>
       </c>
@@ -2672,7 +3016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
@@ -3007,7 +3351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
@@ -3265,7 +3609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
@@ -3535,7 +3879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -3778,7 +4122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -4018,226 +4362,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="3" width="15.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="7">
-        <v>61</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
-        <v>62</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
-        <v>63</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
-        <v>64</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
-        <v>65</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
-        <v>66</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
-        <v>67</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
-        <v>68</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
-        <v>69</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
-        <v>70</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -17,12 +17,38 @@
     <sheet name="41-50" sheetId="8" r:id="rId8"/>
     <sheet name="51-60" sheetId="11" r:id="rId9"/>
     <sheet name="61-70" sheetId="13" r:id="rId10"/>
+    <sheet name="71-80" sheetId="16" r:id="rId11"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="G2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：
+悬赏伤害：</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -59,11 +85,53 @@
         </r>
       </text>
     </comment>
+    <comment ref="E9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：唐昊+二龙+唐三+海马+香香+鬼魅
+悬赏伤害：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>371.1w
+海马90抽</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：唐昊+二龙+唐三+海马+香香+鬼魅
+悬赏伤害：</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -88,7 +156,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -181,7 +249,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -224,7 +292,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -251,8 +319,188 @@
 </comments>
 </file>
 
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：
+悬赏伤害：
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：
+悬赏伤害：
+9</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>0抽=海马</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：
+悬赏伤害：
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暴雨+小舞+狐狸+火舞+绛珠+香香
+悬赏伤害：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>20y</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>101抽：尘心+海马+海魔女（葫芦帮抽）</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暴雨+京灵+海魔女+海龙+绛珠+宁风致
+悬赏伤害：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>29.3y</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：
+悬赏伤害：
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="222">
   <si>
     <t>天数</t>
   </si>
@@ -1646,6 +1894,48 @@
 觉醒券：216
 钻石：2773
 区评分排名：88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：
+战力：
+觉醒券：
+钻石：
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1203976
+觉醒券：382
+钻石：6025
+区评分排名：97
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：
+战力：
+觉醒券：
+钻石：
+区评分排名：
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：40
+战力：100275
+觉醒券：56
+钻石：1.1w
+区评分排名：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：1430922
+觉醒券：132
+钻石：3459
+区评分排名：91</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2160,11 +2450,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2192,7 +2482,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>64</v>
@@ -2217,7 +2507,7 @@
         <v>146</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -2227,7 +2517,9 @@
       <c r="B4" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
@@ -2286,12 +2578,12 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>218</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -2382,6 +2674,212 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="3" width="15.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="A2" s="7">
+        <v>71</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
+        <v>72</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
+        <v>73</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>74</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>75</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>76</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
+        <v>77</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
+        <v>78</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
+        <v>79</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
+        <v>80</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2446,11 +2944,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2489,7 +2987,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -2643,6 +3141,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2650,8 +3149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2847,7 +3346,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>163</v>
@@ -2870,7 +3369,9 @@
       <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="F10" s="2" t="s">
         <v>164</v>
       </c>

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="msg" sheetId="14" r:id="rId1"/>
@@ -39,8 +39,9 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>阵容：
-悬赏伤害：</t>
+          <t xml:space="preserve">阵容：
+悬赏伤害：
+</t>
         </r>
       </text>
     </comment>
@@ -82,6 +83,22 @@
             <charset val="134"/>
           </rPr>
           <t>月关 开局</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：
+悬赏伤害：
+</t>
         </r>
       </text>
     </comment>
@@ -127,6 +144,21 @@
         </r>
       </text>
     </comment>
+    <comment ref="E11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：唐昊+二龙+唐三+海马+香香+鬼魅
+悬赏伤害：</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -137,6 +169,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="H2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：
+悬赏伤害：
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
@@ -162,6 +210,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="G2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：
+悬赏伤害：
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C4" authorId="0" shapeId="0">
       <text>
         <r>
@@ -255,6 +319,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：
+悬赏伤害：
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
@@ -298,6 +378,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：
+悬赏伤害：
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
@@ -320,6 +416,32 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：
+悬赏伤害：
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -369,6 +491,22 @@
       </text>
     </comment>
     <comment ref="C4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：
+悬赏伤害：
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -436,7 +574,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -495,12 +633,49 @@
         </r>
       </text>
     </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暴雨+京灵+海魔女+海龙+绛珠+宁风致
+悬赏伤害：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>29.3y</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="223">
   <si>
     <t>天数</t>
   </si>
@@ -766,13 +941,6 @@
   <si>
     <t>等级：45
 战力：285854</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：
-战力：
-觉醒券：
-钻石：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1842,10 +2010,6 @@
 觉醒券：213
 钻石：459
 区评分排名：97</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兽巢探索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1936,6 +2100,31 @@
 觉醒券：132
 钻石：3459
 区评分排名：91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：41
+战力：119819
+觉醒券：70
+钻石：9966
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1208057
+觉醒券：400
+钻石：5817
+区评分排名：105
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：1425822
+觉醒券：145
+钻石：3964
+区评分排名：92</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2376,8 +2565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2389,54 +2578,51 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="B2" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2453,8 +2639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2482,10 +2668,10 @@
         <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>217</v>
+        <v>84</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -2493,10 +2679,10 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -2504,10 +2690,10 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -2515,10 +2701,10 @@
         <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -2526,9 +2712,11 @@
         <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="G5" s="7">
         <v>1</v>
       </c>
@@ -2538,7 +2726,7 @@
         <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -2547,7 +2735,7 @@
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -2556,7 +2744,7 @@
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -2565,7 +2753,7 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C9" s="2"/>
     </row>
@@ -2574,7 +2762,7 @@
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -2583,7 +2771,7 @@
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -2708,7 +2896,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>8</v>
@@ -2719,18 +2907,20 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>72</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -2898,15 +3088,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B2" s="7">
         <v>30</v>
@@ -2914,7 +3104,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B3" s="7">
         <v>40</v>
@@ -2922,7 +3112,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B4" s="7">
         <v>50</v>
@@ -2930,7 +3120,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B5" s="7">
         <v>60</v>
@@ -2948,7 +3138,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2973,10 +3163,10 @@
         <v>13</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>8</v>
@@ -2987,7 +3177,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>217</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -3149,8 +3339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3177,13 +3367,13 @@
         <v>13</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>8</v>
@@ -3197,16 +3387,16 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -3220,13 +3410,13 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -3241,13 +3431,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -3262,13 +3452,13 @@
         <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -3283,13 +3473,13 @@
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -3304,13 +3494,13 @@
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I7" s="2"/>
     </row>
@@ -3325,13 +3515,13 @@
         <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -3346,13 +3536,13 @@
         <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -3370,13 +3560,13 @@
         <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -3393,9 +3583,11 @@
       <c r="D11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -3521,8 +3713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3549,10 +3741,10 @@
         <v>13</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>8</v>
@@ -3572,10 +3764,10 @@
         <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -3592,10 +3784,10 @@
         <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -3612,10 +3804,10 @@
         <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -3632,7 +3824,7 @@
         <v>46</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
@@ -3676,7 +3868,7 @@
         <v>49</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -3691,7 +3883,7 @@
         <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -3703,14 +3895,14 @@
         <v>36</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2"/>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -3721,10 +3913,10 @@
         <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -3856,8 +4048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3867,7 +4059,7 @@
     <col min="3" max="4" width="15.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
     <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2"/>
+    <col min="7" max="7" width="19.75" style="2" customWidth="1"/>
     <col min="8" max="8" width="19.375" style="7" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
@@ -3886,10 +4078,10 @@
         <v>13</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>21</v>
       </c>
@@ -3897,16 +4089,16 @@
         <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -3917,13 +4109,13 @@
         <v>44</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -3934,10 +4126,10 @@
         <v>48</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -3948,10 +4140,10 @@
         <v>51</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -3959,13 +4151,13 @@
         <v>25</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -3973,13 +4165,13 @@
         <v>26</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -3987,16 +4179,16 @@
         <v>27</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -4004,13 +4196,13 @@
         <v>28</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -4018,10 +4210,10 @@
         <v>29</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -4029,10 +4221,10 @@
         <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -4114,8 +4306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4125,12 +4317,12 @@
     <col min="4" max="4" width="17.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
     <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2"/>
+    <col min="7" max="7" width="19.125" style="2" customWidth="1"/>
     <col min="8" max="8" width="20" style="7" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4147,10 +4339,10 @@
         <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -4158,11 +4350,11 @@
         <v>31</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -4170,11 +4362,11 @@
         <v>32</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -4182,11 +4374,11 @@
         <v>33</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -4194,11 +4386,11 @@
         <v>34</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -4206,11 +4398,11 @@
         <v>35</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -4218,11 +4410,11 @@
         <v>36</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -4230,11 +4422,11 @@
         <v>37</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -4242,11 +4434,11 @@
         <v>38</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -4254,11 +4446,11 @@
         <v>39</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -4266,11 +4458,11 @@
         <v>40</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -4384,8 +4576,251 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="3" width="15.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="7">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
+        <v>42</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>44</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>46</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
+        <v>47</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
+        <v>49</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
+        <v>50</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4413,123 +4848,123 @@
         <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>120</v>
+        <v>124</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>133</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>135</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -4621,246 +5056,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="3" width="15.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="7">
-        <v>51</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
-        <v>52</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
-        <v>53</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
-        <v>54</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
-        <v>55</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
-        <v>56</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
-        <v>57</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
-        <v>58</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
-        <v>59</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
-        <v>60</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="msg" sheetId="14" r:id="rId1"/>
@@ -39,9 +39,12 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">阵容：
+          <t>阵容：
 悬赏伤害：
-</t>
+强攻：
+敏攻：
+控制：
+防辅：</t>
         </r>
       </text>
     </comment>
@@ -96,9 +99,12 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">阵容：
+          <t>阵容：
 悬赏伤害：
-</t>
+强攻：
+敏攻：
+控制：
+防辅：</t>
         </r>
       </text>
     </comment>
@@ -154,7 +160,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>阵容：唐昊+二龙+唐三+海马+香香+鬼魅
+          <t>阵容：唐昊+二龙+唐三+绛珠+香香+鬼魅
 悬赏伤害：</t>
         </r>
       </text>
@@ -169,7 +175,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -179,9 +185,69 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">阵容：
+          <t>阵容：唐昊+二龙+唐三+海马+香香+鬼魅
+悬赏伤害：</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：
 悬赏伤害：
-</t>
+强攻：
+敏攻：
+控制：
+防辅：</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：唐昊+二龙+唐三+海马+香香+鬼魅
+悬赏伤害：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>371.1w
+海马90抽</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：唐昊+二龙+唐三+海马+香香+鬼魅
+悬赏伤害：</t>
         </r>
       </text>
     </comment>
@@ -197,6 +263,21 @@
             <charset val="134"/>
           </rPr>
           <t>1、觉醒券+：鬼魅菊花关转盘活动</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：唐昊+二龙+唐三+海马+香香+鬼魅
+悬赏伤害：</t>
         </r>
       </text>
     </comment>
@@ -220,9 +301,12 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">阵容：
+          <t>阵容：
 悬赏伤害：
-</t>
+强攻：
+敏攻：
+控制：
+防辅：</t>
         </r>
       </text>
     </comment>
@@ -329,9 +413,12 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">阵容：
+          <t>阵容：
 悬赏伤害：
-</t>
+强攻：
+敏攻：
+控制：
+防辅：</t>
         </r>
       </text>
     </comment>
@@ -388,9 +475,12 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">阵容：
+          <t>阵容：
 悬赏伤害：
-</t>
+强攻：
+敏攻：
+控制：
+防辅：</t>
         </r>
       </text>
     </comment>
@@ -431,9 +521,12 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">阵容：
+          <t>阵容：
 悬赏伤害：
-</t>
+强攻：
+敏攻：
+控制：
+防辅：</t>
         </r>
       </text>
     </comment>
@@ -457,9 +550,12 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">阵容：
+          <t>阵容：
 悬赏伤害：
-</t>
+强攻：
+敏攻：
+控制：
+防辅：</t>
         </r>
       </text>
     </comment>
@@ -516,9 +612,31 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">阵容：
+          <t>阵容：暗三+佘龙+海女+波波+小白+宁风致
 悬赏伤害：
-</t>
+强攻：931.2y
+敏攻：
+控制：368.9y
+防辅：</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：
+悬赏伤害：
+强攻：
+敏攻：
+控制：
+防辅：</t>
         </r>
       </text>
     </comment>
@@ -627,13 +745,53 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">阵容：
+          <t>阵容：
 悬赏伤害：
+强攻：
+敏攻：
+控制：
+防辅：</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暴雨+京灵+海魔女+海龙+绛珠+宁风致
+悬赏伤害：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>29.3y</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -675,7 +833,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="225">
   <si>
     <t>天数</t>
   </si>
@@ -2058,14 +2216,6 @@
 觉醒券：216
 钻石：2773
 区评分排名：88</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：
-战力：
-觉醒券：
-钻石：
-区评分排名：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2078,6 +2228,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>等级：40
+战力：100275
+觉醒券：56
+钻石：1.1w
+区评分排名：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：1430922
+觉醒券：132
+钻石：3459
+区评分排名：91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：41
+战力：119819
+觉醒券：70
+钻石：9966
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1208057
+觉醒券：400
+钻石：5817
+区评分排名：105
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：1425822
+觉醒券：145
+钻石：3964
+区评分排名：92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：42
+战力：146211
+觉醒券：120
+钻石：8205
+区评分排名：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>等级：
 战力：
 觉醒券：
@@ -2087,44 +2286,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级：40
-战力：100275
-觉醒券：56
-钻石：1.1w
-区评分排名：---</t>
+    <t>等级：56
+战力：1219315
+觉醒券：419
+钻石：5109
+区评分排名：108
+战区排行：---</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>等级：55
-战力：1430922
-觉醒券：132
-钻石：3459
-区评分排名：91</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：41
-战力：119819
-觉醒券：70
-钻石：9966
-区评分排名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：56
-战力：1208057
-觉醒券：400
-钻石：5817
-区评分排名：105
-战区排行：---</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：55
-战力：1425822
-觉醒券：145
-钻石：3964
-区评分排名：92</t>
+战力：1443192
+觉醒券：150
+钻石：4552
+区评分排名：90</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2639,8 +2814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2693,7 +2868,7 @@
         <v>145</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -2704,7 +2879,7 @@
         <v>148</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -2715,10 +2890,7 @@
         <v>150</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -2728,7 +2900,9 @@
       <c r="B6" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -2771,7 +2945,7 @@
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -2870,8 +3044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2907,11 +3081,11 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>215</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -2919,15 +3093,17 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>73</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -3138,7 +3314,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3339,8 +3515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3536,7 +3712,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>162</v>
@@ -3560,7 +3736,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>163</v>
@@ -3584,7 +3760,7 @@
         <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>84</v>
+        <v>221</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>165</v>
@@ -3711,23 +3887,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="4" width="15.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="9" style="7"/>
+    <col min="5" max="5" width="15.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="16.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3741,16 +3918,19 @@
         <v>13</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>11</v>
       </c>
@@ -3764,13 +3944,16 @@
         <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>12</v>
       </c>
@@ -3783,14 +3966,15 @@
       <c r="D3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>13</v>
       </c>
@@ -3803,14 +3987,15 @@
       <c r="D4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>14</v>
       </c>
@@ -3823,11 +4008,12 @@
       <c r="D5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>15</v>
       </c>
@@ -3841,8 +4027,9 @@
         <v>50</v>
       </c>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>16</v>
       </c>
@@ -3856,8 +4043,9 @@
         <v>53</v>
       </c>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>17</v>
       </c>
@@ -3871,8 +4059,9 @@
         <v>56</v>
       </c>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>18</v>
       </c>
@@ -3886,8 +4075,9 @@
         <v>57</v>
       </c>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>19</v>
       </c>
@@ -3901,11 +4091,12 @@
         <v>60</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="2"/>
+      <c r="H10" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>20</v>
       </c>
@@ -3919,122 +4110,139 @@
         <v>68</v>
       </c>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28"/>
-      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4819,8 +5027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="msg" sheetId="14" r:id="rId1"/>
@@ -185,7 +185,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>阵容：唐昊+二龙+唐三+海马+香香+鬼魅
+          <t>阵容：唐昊+二龙+唐三+绛珠+香香+鬼魅
 悬赏伤害：</t>
         </r>
       </text>
@@ -209,34 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>阵容：唐昊+二龙+唐三+海马+香香+鬼魅
-悬赏伤害：</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>371.1w
-海马90抽</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E10" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -263,21 +236,6 @@
             <charset val="134"/>
           </rPr>
           <t>1、觉醒券+：鬼魅菊花关转盘活动</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>阵容：唐昊+二龙+唐三+海马+香香+鬼魅
-悬赏伤害：</t>
         </r>
       </text>
     </comment>
@@ -640,6 +598,44 @@
         </r>
       </text>
     </comment>
+    <comment ref="C7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：
+悬赏伤害：
+强攻：
+敏攻：
+控制：
+防辅：</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：
+悬赏伤害：
+强攻：
+敏攻：
+控制：
+防辅：</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B11" authorId="0" shapeId="0">
       <text>
         <r>
@@ -828,12 +824,49 @@
         </r>
       </text>
     </comment>
+    <comment ref="B5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暴雨+京灵+海魔女+海龙+绛珠+宁风致
+悬赏伤害：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>29.3y</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="230">
   <si>
     <t>天数</t>
   </si>
@@ -2300,6 +2333,43 @@
 觉醒券：150
 钻石：4552
 区评分排名：90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：1454292
+觉醒券：162
+钻石：4783
+区评分排名：94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：
+战力：
+觉醒券：
+钻石：
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1208411
+觉醒券：431
+钻石：4899
+区评分排名：115
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：43
+战力：156341
+觉醒券：151
+钻石：8094
+区评分排名：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2814,8 +2884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2901,7 +2971,7 @@
         <v>177</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -2911,7 +2981,9 @@
       <c r="B7" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
@@ -3044,8 +3116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3102,15 +3174,17 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>74</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="G5" s="7">
         <v>1</v>
@@ -3516,7 +3590,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3889,8 +3963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3944,7 +4018,7 @@
         <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>84</v>
+        <v>228</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>167</v>
@@ -3966,7 +4040,9 @@
       <c r="D3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="F3" s="2" t="s">
         <v>169</v>
       </c>
@@ -3987,7 +4063,9 @@
       <c r="D4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="F4" s="2" t="s">
         <v>170</v>
       </c>
@@ -4074,7 +4152,7 @@
       <c r="D9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="54" x14ac:dyDescent="0.15">
@@ -4090,7 +4168,7 @@
       <c r="D10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10"/>
       <c r="F10" s="2"/>
       <c r="H10" s="7" t="s">
         <v>199</v>
@@ -4109,7 +4187,7 @@
       <c r="D11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -4256,8 +4334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -219,8 +219,157 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>阵容：唐昊+二龙+唐三+海马+香香+鬼魅
-悬赏伤害：</t>
+          <t>阵容：唐昊+二龙+唐三+鬼魅+海马+风致
+悬赏伤害：
+强攻：1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>128.5w</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+敏攻：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1266.4w</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+控制：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1442.8w</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+防辅：</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：唐昊+二龙+唐三+鬼魅+海马+风致
+悬赏伤害：
+强攻：1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>128.5w</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+敏攻：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1266.4w</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+控制：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1442.8w</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+防辅：</t>
         </r>
       </text>
     </comment>
@@ -608,12 +757,44 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>阵容：
+          <t>阵容：暗三+佘龙+波波+海女+风致+小白
 悬赏伤害：
-强攻：
+强攻：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>976y</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 敏攻：
 控制：
 防辅：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>224.6y</t>
         </r>
       </text>
     </comment>
@@ -627,12 +808,44 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>阵容：
+          <t>阵容：暗三+佘龙+波波+海女+风致+小白
 悬赏伤害：
-强攻：
+强攻：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>976y</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 敏攻：
 控制：
 防辅：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>224.6y</t>
         </r>
       </text>
     </comment>
@@ -834,8 +1047,10 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>阵容：暴雨+京灵+海魔女+海龙+绛珠+宁风致
-悬赏伤害：</t>
+          <t>阵容：暗三+京灵+海女+风致+海马+绛珠
+悬赏伤害：
+强攻：47.8y
+敏攻：</t>
         </r>
         <r>
           <rPr>
@@ -846,7 +1061,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>29.3y</t>
+          <t>28.7y</t>
         </r>
         <r>
           <rPr>
@@ -857,7 +1072,90 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+控制：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>46.5y</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+防辅：</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+京灵+海女+风致+海马+绛珠
+悬赏伤害：
+强攻：47.8y
+敏攻：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>28.7y</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+控制：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>46.5y</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+防辅：</t>
         </r>
       </text>
     </comment>
@@ -866,7 +1164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="231">
   <si>
     <t>天数</t>
   </si>
@@ -2310,6 +2608,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>等级：56
+战力：1219315
+觉醒券：419
+钻石：5109
+区评分排名：108
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：1443192
+觉醒券：150
+钻石：4552
+区评分排名：90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：55
+战力：1454292
+觉醒券：162
+钻石：4783
+区评分排名：94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1208411
+觉醒券：431
+钻石：4899
+区评分排名：115
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：43
+战力：156341
+觉醒券：151
+钻石：8094
+区评分排名：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>等级：
 战力：
 觉醒券：
@@ -2320,56 +2660,27 @@
   </si>
   <si>
     <t>等级：56
-战力：1219315
-觉醒券：419
-钻石：5109
-区评分排名：108
+战力：1221071
+觉醒券：441
+钻石：4374
+区评分排名：114
 战区排行：---</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>等级：55
-战力：1443192
-觉醒券：150
-钻石：4552
-区评分排名：90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：55
-战力：1454292
-觉醒券：162
-钻石：4783
-区评分排名：94</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：
-战力：
-觉醒券：
-钻石：
-区评分排名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：56
-战力：1208411
-觉醒券：431
-钻石：4899
-区评分排名：115
-战区排行：---</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：43
-战力：156341
-觉醒券：151
-钻石：8094
+战力：1460968
+觉醒券：173
+钻石：4643
+区评分排名：91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：44
+战力：171228
+觉醒券：173
+钻石：7458
 区评分排名：---</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2884,8 +3195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2960,7 +3271,7 @@
         <v>150</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -2971,7 +3282,7 @@
         <v>177</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -2982,7 +3293,7 @@
         <v>197</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -2992,7 +3303,9 @@
       <c r="B8" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
@@ -3116,8 +3429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3165,7 +3478,7 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -3174,7 +3487,7 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -3183,18 +3496,20 @@
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C5" s="2"/>
       <c r="G5" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>75</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -3964,7 +4279,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4018,7 +4333,7 @@
         <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>167</v>
@@ -4041,7 +4356,7 @@
         <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>84</v>
+        <v>230</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>169</v>
@@ -4064,7 +4379,7 @@
         <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>229</v>
+        <v>84</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>170</v>

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="msg" sheetId="14" r:id="rId1"/>
@@ -373,6 +373,88 @@
         </r>
       </text>
     </comment>
+    <comment ref="E5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：唐昊+二龙+唐三+鬼魅+海马+风致
+悬赏伤害：
+强攻：1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>128.5w</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+敏攻：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1266.4w</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+控制：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1442.8w</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+防辅：</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
@@ -849,6 +931,57 @@
         </r>
       </text>
     </comment>
+    <comment ref="C9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>976y</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+敏攻：
+控制：
+防辅：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>224.6y</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B11" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1159,12 +1292,73 @@
         </r>
       </text>
     </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+京灵+海女+风致+海马+绛珠
+悬赏伤害：
+强攻：47.8y
+敏攻：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>28.7y</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+控制：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>46.5y</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+防辅：</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="239">
   <si>
     <t>天数</t>
   </si>
@@ -1497,10 +1691,6 @@
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兔子活动开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2681,6 +2871,60 @@
 觉醒券：173
 钻石：7458
 区评分排名：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1485499
+觉醒券：197
+钻石：5029
+区评分排名：93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59级卡级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小雪卡池开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风笑天外传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、兔子活动开始
+2、皇家激励（49卡级）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：44
+战力：184722
+觉醒券：197
+钻石：5939
+区评分排名：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：
+战力：
+觉醒券：
+钻石：
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1242236
+觉醒券：452
+钻石：3591
+区评分排名：113
+战区排行：---</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3134,51 +3378,51 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="B2" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3195,8 +3439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3224,7 +3468,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>63</v>
@@ -3235,10 +3479,10 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3246,10 +3490,10 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3257,10 +3501,10 @@
         <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3268,10 +3512,10 @@
         <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3279,10 +3523,10 @@
         <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3290,10 +3534,10 @@
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3301,10 +3545,10 @@
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3312,16 +3556,18 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -3330,7 +3576,7 @@
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -3429,8 +3675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3438,7 +3684,7 @@
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="3" width="15.5" style="6" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="7" customWidth="1"/>
     <col min="6" max="6" width="16.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="20" style="7" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
@@ -3466,11 +3712,11 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -3478,7 +3724,7 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -3487,7 +3733,7 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -3496,7 +3742,7 @@
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C5" s="2"/>
       <c r="G5" s="7">
@@ -3508,15 +3754,17 @@
         <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>76</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -3546,6 +3794,9 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
+      <c r="E11" s="7" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
@@ -3653,15 +3904,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="7">
         <v>30</v>
@@ -3669,7 +3920,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B3" s="7">
         <v>40</v>
@@ -3677,7 +3928,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B4" s="7">
         <v>50</v>
@@ -3685,7 +3936,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B5" s="7">
         <v>60</v>
@@ -3728,7 +3979,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>63</v>
@@ -3742,7 +3993,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -3932,13 +4183,13 @@
         <v>13</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>8</v>
@@ -3952,16 +4203,16 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -3975,13 +4226,13 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -3996,13 +4247,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -4017,13 +4268,13 @@
         <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -4038,13 +4289,13 @@
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -4059,13 +4310,13 @@
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I7" s="2"/>
     </row>
@@ -4080,13 +4331,13 @@
         <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -4101,13 +4352,13 @@
         <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -4125,13 +4376,13 @@
         <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -4149,10 +4400,10 @@
         <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -4278,14 +4529,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="4" width="15.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="6" customWidth="1"/>
     <col min="6" max="6" width="16.125" style="6" customWidth="1"/>
     <col min="8" max="8" width="16.25" style="1" customWidth="1"/>
@@ -4307,13 +4560,13 @@
         <v>13</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>8</v>
@@ -4333,13 +4586,13 @@
         <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -4356,13 +4609,13 @@
         <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -4379,16 +4632,16 @@
         <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>84</v>
+        <v>236</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>14</v>
       </c>
@@ -4401,9 +4654,11 @@
       <c r="D5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="F5" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.15">
@@ -4485,8 +4740,8 @@
       </c>
       <c r="E10"/>
       <c r="F10" s="2"/>
-      <c r="H10" s="7" t="s">
-        <v>199</v>
+      <c r="H10" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="54" x14ac:dyDescent="0.15">
@@ -4500,10 +4755,13 @@
         <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11"/>
       <c r="F11" s="2"/>
+      <c r="H11" s="7" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12"/>
@@ -4649,8 +4907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4693,13 +4951,13 @@
         <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -4710,13 +4968,13 @@
         <v>44</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>64</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -4727,10 +4985,10 @@
         <v>48</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -4741,10 +4999,10 @@
         <v>51</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -4755,10 +5013,10 @@
         <v>54</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -4769,10 +5027,10 @@
         <v>59</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -4783,13 +5041,13 @@
         <v>61</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -4797,13 +5055,13 @@
         <v>28</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -4811,10 +5069,10 @@
         <v>29</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -4822,10 +5080,13 @@
         <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -4940,7 +5201,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>63</v>
@@ -4951,11 +5212,11 @@
         <v>31</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -4963,11 +5224,11 @@
         <v>32</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -4975,11 +5236,11 @@
         <v>33</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -4987,11 +5248,11 @@
         <v>34</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -4999,11 +5260,11 @@
         <v>35</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -5011,11 +5272,11 @@
         <v>36</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -5023,11 +5284,11 @@
         <v>37</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -5035,11 +5296,11 @@
         <v>38</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -5047,11 +5308,11 @@
         <v>39</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -5059,11 +5320,11 @@
         <v>40</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -5206,7 +5467,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>63</v>
@@ -5217,10 +5478,10 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5228,10 +5489,10 @@
         <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5239,10 +5500,10 @@
         <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5250,13 +5511,13 @@
         <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5264,10 +5525,10 @@
         <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5275,10 +5536,10 @@
         <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5286,10 +5547,10 @@
         <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5297,10 +5558,10 @@
         <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5308,10 +5569,10 @@
         <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5319,10 +5580,10 @@
         <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -5420,8 +5681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5449,7 +5710,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>63</v>
@@ -5460,10 +5721,10 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5471,10 +5732,10 @@
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5482,10 +5743,10 @@
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5493,13 +5754,13 @@
         <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
+        <v>143</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5507,10 +5768,10 @@
         <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5518,10 +5779,10 @@
         <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5529,10 +5790,10 @@
         <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5540,10 +5801,10 @@
         <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5551,10 +5812,10 @@
         <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5562,10 +5823,10 @@
         <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="msg" sheetId="14" r:id="rId1"/>
@@ -383,6 +383,59 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
+          <t>阵容：暴雨+京灵+唐三+鬼魅+海马+香香
+悬赏伤害：
+强攻：1.9y
+敏攻：2.4y
+控制：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1.1y</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+防辅：
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>203抽（保底）：
+邪月、古榕*2、二龙、玉天心、暗三、暴雨</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
           <t>阵容：唐昊+二龙+唐三+鬼魅+海马+风致
 悬赏伤害：
 强攻：1</t>
@@ -825,7 +878,19 @@
 强攻：
 敏攻：
 控制：
-防辅：</t>
+防辅：
+2</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>022/10/21</t>
         </r>
       </text>
     </comment>
@@ -932,6 +997,99 @@
       </text>
     </comment>
     <comment ref="C9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>976y</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+敏攻：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>949.3y</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+控制：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>492.1y</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+防辅：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>550.2y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1288,11 +1446,84 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-防辅：</t>
+防辅：
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>2022/10/23</t>
         </r>
       </text>
     </comment>
     <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+京灵+海女+风致+海马+绛珠
+悬赏伤害：
+强攻：47.8y
+敏攻：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>28.7y</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+控制：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>46.5y</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+防辅：</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1358,7 +1589,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="243">
   <si>
     <t>天数</t>
   </si>
@@ -2498,11 +2729,6 @@
 2、锤名昊天begin
 前三天钻石礼包拉满
 进前50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、昊天扬威end
-2、锤名昊天end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2911,20 +3137,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级：
-战力：
-觉醒券：
-钻石：
-区评分排名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级：56
 战力：1242236
 觉醒券：452
 钻石：3591
 区评分排名：113
 战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：45
+战力：255561
+觉醒券：9
+钻石：8022
+区评分排名：154</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锤名昊天end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、风起唐门
+2、昊天扬威end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1245682
+觉醒券：462
+钻石：3112
+区评分排名：116
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1507712
+觉醒券：207
+钻石：4468
+区评分排名：93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炬火重燃end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3378,51 +3634,51 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="B2" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3440,7 +3696,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3482,7 +3738,7 @@
         <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3493,7 +3749,7 @@
         <v>144</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3504,7 +3760,7 @@
         <v>147</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3515,7 +3771,7 @@
         <v>149</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3523,10 +3779,10 @@
         <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3534,10 +3790,10 @@
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3545,10 +3801,10 @@
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3556,10 +3812,13 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>83</v>
+        <v>241</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3567,16 +3826,18 @@
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -3675,8 +3936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3712,7 +3973,7 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C2" s="2"/>
       <c r="F2" s="2" t="s">
@@ -3724,7 +3985,7 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -3733,7 +3994,7 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -3742,7 +4003,7 @@
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C5" s="2"/>
       <c r="G5" s="7">
@@ -3754,7 +4015,7 @@
         <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -3763,15 +4024,17 @@
         <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>77</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -3795,7 +4058,7 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="E11" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -3904,15 +4167,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2" s="7">
         <v>30</v>
@@ -3920,7 +4183,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B3" s="7">
         <v>40</v>
@@ -3928,7 +4191,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B4" s="7">
         <v>50</v>
@@ -3936,7 +4199,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5" s="7">
         <v>60</v>
@@ -4226,7 +4489,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>152</v>
@@ -4247,13 +4510,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>153</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -4268,7 +4531,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>156</v>
@@ -4289,13 +4552,13 @@
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>158</v>
       </c>
       <c r="G6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -4310,13 +4573,13 @@
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>159</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I7" s="2"/>
     </row>
@@ -4331,7 +4594,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>160</v>
@@ -4352,7 +4615,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>161</v>
@@ -4376,7 +4639,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>162</v>
@@ -4400,7 +4663,7 @@
         <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>164</v>
@@ -4529,8 +4792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4586,7 +4849,7 @@
         <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>166</v>
@@ -4609,7 +4872,7 @@
         <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>168</v>
@@ -4632,13 +4895,13 @@
         <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>169</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>173</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -4660,8 +4923,11 @@
       <c r="F5" s="9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="H5" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>15</v>
       </c>
@@ -4674,7 +4940,9 @@
       <c r="D6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
@@ -4741,7 +5009,7 @@
       <c r="E10"/>
       <c r="F10" s="2"/>
       <c r="H10" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="54" x14ac:dyDescent="0.15">
@@ -4760,7 +5028,7 @@
       <c r="E11"/>
       <c r="F11" s="2"/>
       <c r="H11" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -4974,7 +5242,7 @@
         <v>74</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -5086,7 +5354,7 @@
         <v>94</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -5681,7 +5949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -5760,7 +6028,7 @@
         <v>143</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5793,7 +6061,7 @@
         <v>134</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5804,7 +6072,7 @@
         <v>135</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5815,7 +6083,7 @@
         <v>137</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5826,7 +6094,7 @@
         <v>139</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="msg" sheetId="14" r:id="rId1"/>
@@ -436,74 +436,30 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>阵容：唐昊+二龙+唐三+鬼魅+海马+风致
+          <t>阵容：暴雨+京灵+唐三+鬼魅+海马+香香
 悬赏伤害：
-强攻：1</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>128.5w</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-敏攻：</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1266.4w</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-控制：</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1442.8w</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
+强攻：1.7y
+敏攻：2.2y
+控制：1.1y
+防辅：2y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暴雨+京灵+唐三+鬼魅+海马+阿银
+悬赏伤害：
+强攻：1.9y
+敏攻：2.2y
+控制：1.1y
 防辅：</t>
         </r>
       </text>
@@ -1101,7 +1057,7 @@
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+风致+小白
 悬赏伤害：
-强攻：</t>
+强攻：1530</t>
         </r>
         <r>
           <rPr>
@@ -1112,7 +1068,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>976y</t>
+          <t>y</t>
         </r>
         <r>
           <rPr>
@@ -1124,7 +1080,28 @@
           </rPr>
           <t xml:space="preserve">
 敏攻：
-控制：
+控制：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>550y</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 防辅：</t>
         </r>
         <r>
@@ -1136,7 +1113,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>224.6y</t>
+          <t>300y</t>
         </r>
       </text>
     </comment>
@@ -1185,6 +1162,25 @@
             <charset val="134"/>
           </rPr>
           <t>101抽：尘心+海马+海魔女（葫芦帮抽）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：1530y
+敏攻：
+控制：550y
+防辅：300y</t>
         </r>
       </text>
     </comment>
@@ -1535,8 +1531,8 @@
           </rPr>
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
 悬赏伤害：
-强攻：47.8y
-敏攻：</t>
+强攻：42y difficult
+敏攻：31</t>
         </r>
         <r>
           <rPr>
@@ -1547,7 +1543,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>28.7y</t>
+          <t>y difficult</t>
         </r>
         <r>
           <rPr>
@@ -1581,6 +1577,89 @@
           </rPr>
           <t xml:space="preserve">
 防辅：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>34.2y difficult</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+京灵+海女+风致+海马+绛珠
+悬赏伤害：
+强攻：42y difficult
+敏攻：31</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>y difficult</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+控制：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>46.5y</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+防辅：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>34.2y difficult</t>
         </r>
       </text>
     </comment>
@@ -1589,7 +1668,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="246">
   <si>
     <t>天数</t>
   </si>
@@ -3181,6 +3260,31 @@
   </si>
   <si>
     <t>炬火重燃end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：45
+战力：272559
+觉醒券：14
+钻石：7562
+区评分排名：158</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1518359
+觉醒券：222
+钻石：3666
+区评分排名：91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1250453
+觉醒券：496
+钻石：1604
+区评分排名：116
+战区排行：---</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3695,8 +3799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3829,7 +3933,7 @@
         <v>211</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>83</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -3839,7 +3943,9 @@
       <c r="B11" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
@@ -3936,8 +4042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4033,15 +4139,17 @@
         <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>78</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -4792,8 +4900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4941,11 +5049,11 @@
         <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>83</v>
+        <v>243</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>16</v>
       </c>
@@ -4958,7 +5066,9 @@
       <c r="D7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="54" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="msg" sheetId="14" r:id="rId1"/>
@@ -464,6 +464,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="E8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暴雨+京灵+唐三+鬼魅+海马+阿银
+悬赏伤害：
+强攻：1.9y
+敏攻：2.2y
+控制：1.1y
+防辅：</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1231,6 +1250,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：1530y
+敏攻：
+控制：550y
+防辅：300y</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1592,6 +1630,78 @@
       </text>
     </comment>
     <comment ref="B9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+京灵+海女+风致+海马+绛珠
+悬赏伤害：
+强攻：42y difficult
+敏攻：31</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>y difficult</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+控制：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>46.5y</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+防辅：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>34.2y difficult</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1668,7 +1778,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="251">
   <si>
     <t>天数</t>
   </si>
@@ -2774,12 +2884,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、昊天峥嵘活动SSR
-2、锤三SSR
-3、小舞巅峰SSR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级：43
 战力：173620
 觉醒券：203
@@ -2793,10 +2897,6 @@
 觉醒券：
 钻石：7560
 区评分排名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、昊天扬威begin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3195,10 +3295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>风笑天外传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、兔子活动开始
 2、皇家激励（49卡级）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3237,11 +3333,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、风起唐门
-2、昊天扬威end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级：56
 战力：1245682
 觉醒券：462
@@ -3285,6 +3376,64 @@
 钻石：1604
 区评分排名：116
 战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：46
+战力：294138
+觉醒券：28
+钻石：8328
+区评分排名：155</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1252053
+觉醒券：498
+钻石：1737
+区评分排名：116
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落英转盘（冰碧帝皇蝎环）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：
+战力：
+觉醒券：
+钻石：
+区评分排名：
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1526040
+觉醒券：226
+钻石：3586
+区评分排名：92
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、锤名昊天活动SSR
+2、锤三SSR
+3、小舞巅峰SSR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、风起唐门begin
+2、昊天扬威end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、昊天扬威begin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风笑天外传begin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3738,51 +3887,51 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="B2" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3799,8 +3948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3842,7 +3991,7 @@
         <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3853,7 +4002,7 @@
         <v>144</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3864,7 +4013,7 @@
         <v>147</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3875,7 +4024,7 @@
         <v>149</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3883,10 +4032,10 @@
         <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3894,10 +4043,10 @@
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3905,10 +4054,10 @@
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3916,13 +4065,13 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -3930,10 +4079,10 @@
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -3941,10 +4090,10 @@
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>83</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -4042,8 +4191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4079,9 +4228,11 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="F2" s="2" t="s">
         <v>83</v>
       </c>
@@ -4091,7 +4242,7 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -4100,7 +4251,7 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -4109,7 +4260,7 @@
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C5" s="2"/>
       <c r="G5" s="7">
@@ -4121,7 +4272,7 @@
         <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -4130,7 +4281,7 @@
         <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -4139,7 +4290,7 @@
         <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -4148,15 +4299,20 @@
         <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E9" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>79</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -4166,7 +4322,7 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="E11" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -4275,15 +4431,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B2" s="7">
         <v>30</v>
@@ -4291,7 +4447,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B3" s="7">
         <v>40</v>
@@ -4299,7 +4455,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B4" s="7">
         <v>50</v>
@@ -4307,7 +4463,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B5" s="7">
         <v>60</v>
@@ -4580,7 +4736,7 @@
         <v>151</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>170</v>
+        <v>249</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>83</v>
@@ -4597,13 +4753,13 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>152</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -4618,13 +4774,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>153</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -4639,7 +4795,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>156</v>
@@ -4660,13 +4816,13 @@
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>158</v>
       </c>
       <c r="G6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -4681,13 +4837,13 @@
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>159</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I7" s="2"/>
     </row>
@@ -4702,13 +4858,13 @@
         <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>160</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -4723,7 +4879,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>161</v>
@@ -4747,7 +4903,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>162</v>
@@ -4771,7 +4927,7 @@
         <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>164</v>
@@ -4900,8 +5056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4957,7 +5113,7 @@
         <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>166</v>
@@ -4980,13 +5136,13 @@
         <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>167</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -5003,13 +5159,13 @@
         <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -5026,13 +5182,13 @@
         <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>82</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -5049,7 +5205,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -5067,11 +5223,11 @@
         <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>83</v>
+        <v>242</v>
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>17</v>
       </c>
@@ -5084,7 +5240,9 @@
       <c r="D8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="54" x14ac:dyDescent="0.15">
@@ -5119,7 +5277,7 @@
       <c r="E10"/>
       <c r="F10" s="2"/>
       <c r="H10" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="54" x14ac:dyDescent="0.15">
@@ -5138,7 +5296,7 @@
       <c r="E11"/>
       <c r="F11" s="2"/>
       <c r="H11" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -5285,8 +5443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5352,7 +5510,7 @@
         <v>74</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="54" x14ac:dyDescent="0.15">
@@ -5464,7 +5622,7 @@
         <v>94</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -5546,7 +5704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -5816,7 +5974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -6059,8 +6217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6138,7 +6296,7 @@
         <v>143</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6171,7 +6329,7 @@
         <v>134</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6182,7 +6340,7 @@
         <v>135</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6193,7 +6351,7 @@
         <v>137</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6204,7 +6362,7 @@
         <v>139</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="msg" sheetId="14" r:id="rId1"/>
@@ -476,9 +476,28 @@
           </rPr>
           <t>阵容：暴雨+京灵+唐三+鬼魅+海马+阿银
 悬赏伤害：
-强攻：1.9y
-敏攻：2.2y
-控制：1.1y
+强攻：2.3y
+敏攻：2.4y
+控制：2.2y
+防辅：</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暴雨+京灵+唐三+鬼魅+海马+阿银
+悬赏伤害：
+强攻：2.3y
+敏攻：2.4y
+控制：2.2y
 防辅：</t>
         </r>
       </text>
@@ -1262,10 +1281,10 @@
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+风致+小白
 悬赏伤害：
-强攻：1530y
-敏攻：
-控制：550y
-防辅：300y</t>
+强攻：4489.1y
+敏攻：254.1y
+控制：71.4y
+防辅：</t>
         </r>
       </text>
     </comment>
@@ -1325,6 +1344,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：4489.1y
+敏攻：254.1y
+控制：71.4y
+防辅：</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1714,7 +1752,7 @@
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
 悬赏伤害：
 强攻：42y difficult
-敏攻：31</t>
+敏攻：66.7</t>
         </r>
         <r>
           <rPr>
@@ -1725,7 +1763,79 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>y difficult</t>
+          <t>y</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+控制：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>46.5y</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+防辅：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>34.2y difficult</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+京灵+海女+风致+海马+绛珠
+悬赏伤害：
+强攻：42y difficult
+敏攻：66.7</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>y</t>
         </r>
         <r>
           <rPr>
@@ -1778,7 +1888,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="253">
   <si>
     <t>天数</t>
   </si>
@@ -3400,15 +3510,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级：
-战力：
-觉醒券：
-钻石：
-区评分排名：
-战区排行：---</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级：56
 战力：1526040
 觉醒券：226
@@ -3434,6 +3535,32 @@
   </si>
   <si>
     <t>风笑天外传begin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1263368
+觉醒券：511
+钻石：1770
+区评分排名：116
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1550083
+觉醒券：228
+钻石：3557
+区评分排名：91
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：46
+战力：313168
+觉醒券：32
+钻石：9290
+区评分排名：159</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3948,7 +4075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -4093,7 +4220,7 @@
         <v>211</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -4192,7 +4319,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4231,7 +4358,7 @@
         <v>215</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>83</v>
@@ -4244,7 +4371,9 @@
       <c r="B3" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
@@ -4311,19 +4440,21 @@
         <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E10" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>80</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="C11" s="2"/>
-      <c r="E11" s="7" t="s">
-        <v>228</v>
-      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
@@ -4736,7 +4867,7 @@
         <v>151</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>83</v>
@@ -5056,8 +5187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5142,7 +5273,7 @@
         <v>167</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -5188,7 +5319,7 @@
         <v>82</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -5241,11 +5372,11 @@
         <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>18</v>
       </c>
@@ -5258,7 +5389,9 @@
       <c r="D9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E9"/>
+      <c r="E9" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="54" x14ac:dyDescent="0.15">
@@ -5622,7 +5755,7 @@
         <v>94</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -18,6 +18,7 @@
     <sheet name="51-60" sheetId="11" r:id="rId9"/>
     <sheet name="61-70" sheetId="13" r:id="rId10"/>
     <sheet name="71-80" sheetId="16" r:id="rId11"/>
+    <sheet name="81-90" sheetId="17" r:id="rId12"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -45,6 +46,73 @@
 敏攻：
 控制：
 防辅：</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+京灵+海女+风致+海马+绛珠
+悬赏伤害：
+强攻：58.8y
+敏攻：
+控制：52.1y
+防辅：47.9y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：
+悬赏伤害：
+强攻：
+敏攻：
+控制：
+防辅：</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+京灵+海女+风致+海马+绛珠
+悬赏伤害：
+强攻：58.8y
+敏攻：
+控制：52.1y
+防辅：47.9y</t>
         </r>
       </text>
     </comment>
@@ -502,6 +570,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="E10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
+悬赏伤害：
+强攻：4.4y
+敏攻：4.3y
+控制：
+防辅：4.3y</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
@@ -514,6 +601,25 @@
             <charset val="134"/>
           </rPr>
           <t>1、觉醒券+：鬼魅菊花关转盘活动</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
+悬赏伤害：
+强攻：4.4y
+敏攻：4.3y
+控制：
+防辅：4.3y</t>
         </r>
       </text>
     </comment>
@@ -1400,6 +1506,57 @@
         </r>
       </text>
     </comment>
+    <comment ref="C4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：
+敏攻：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>918y</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+控制：
+防辅：239.9y</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">  178.6y</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1458,6 +1615,57 @@
           </rPr>
           <t xml:space="preserve">
 防辅：</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：
+敏攻：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>918y</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+控制：
+防辅：239.9y</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">  178.6y</t>
         </r>
       </text>
     </comment>
@@ -1888,7 +2096,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="260">
   <si>
     <t>天数</t>
   </si>
@@ -3410,10 +3618,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级：44
 战力：184722
 觉醒券：197
@@ -3561,6 +3765,67 @@
 觉醒券：32
 钻石：9290
 区评分排名：159</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶中愚者（比比东外传）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：46
+战力：321325
+觉醒券：33
+钻石：1w
+区评分排名：160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1565410
+觉醒券：237
+钻石：3980
+区评分排名：90
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1272581
+觉醒券：524
+钻石：1940
+区评分排名：117
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1319008
+觉醒券：527
+钻石：2080
+区评分排名：112
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、皇家激励（49卡级）
+2、托管开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1573624
+觉醒券：253
+钻石：3731
+区评分排名：92
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：47
+战力：336977
+觉醒券：42
+钻石：1.1w
+区评分排名：172</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3657,7 +3922,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3690,6 +3955,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4052,7 +4327,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>186</v>
@@ -4195,10 +4470,10 @@
         <v>200</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -4209,7 +4484,7 @@
         <v>209</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -4220,7 +4495,7 @@
         <v>211</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -4318,8 +4593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4358,7 +4633,7 @@
         <v>215</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>83</v>
@@ -4372,7 +4647,7 @@
         <v>218</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -4382,7 +4657,9 @@
       <c r="B4" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
@@ -4391,7 +4668,9 @@
       <c r="B5" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="G5" s="7">
         <v>1</v>
       </c>
@@ -4401,7 +4680,7 @@
         <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -4410,7 +4689,7 @@
         <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -4419,7 +4698,7 @@
         <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -4428,11 +4707,11 @@
         <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C9" s="2"/>
       <c r="E9" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -4440,7 +4719,7 @@
         <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C10" s="2"/>
       <c r="E10" s="7" t="s">
@@ -4452,7 +4731,7 @@
         <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -4537,6 +4816,243 @@
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="4" width="15.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+      <c r="A2" s="7">
+        <v>81</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
+        <v>82</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
+        <v>83</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>84</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>85</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>86</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
+        <v>87</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
+        <v>88</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
+        <v>89</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
+        <v>90</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
     </row>
   </sheetData>
@@ -4867,7 +5383,7 @@
         <v>151</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>83</v>
@@ -5187,8 +5703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5196,7 +5712,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.375" style="5" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="5" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="13" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="6" customWidth="1"/>
     <col min="6" max="6" width="16.125" style="6" customWidth="1"/>
     <col min="8" max="8" width="16.25" style="1" customWidth="1"/>
@@ -5214,7 +5730,7 @@
       <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="7" t="s">
@@ -5240,7 +5756,7 @@
       <c r="C2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -5263,7 +5779,7 @@
       <c r="C3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="12" t="s">
         <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -5273,7 +5789,7 @@
         <v>167</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -5286,17 +5802,17 @@
       <c r="C4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="12" t="s">
         <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>168</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -5309,17 +5825,17 @@
       <c r="C5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="12" t="s">
         <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>82</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -5332,11 +5848,11 @@
       <c r="C6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -5350,11 +5866,11 @@
       <c r="C7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -5368,11 +5884,11 @@
       <c r="C8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="12" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -5386,15 +5902,18 @@
       <c r="C9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="12" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>83</v>
+        <v>253</v>
       </c>
       <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="H9" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>19</v>
       </c>
@@ -5404,16 +5923,20 @@
       <c r="C10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E10"/>
+      <c r="E10" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="F10" s="2"/>
-      <c r="H10" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="G10" s="14"/>
+      <c r="H10" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>20</v>
       </c>
@@ -5423,10 +5946,12 @@
       <c r="C11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E11"/>
+      <c r="E11" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="H11" s="7" t="s">
         <v>195</v>
@@ -5436,7 +5961,6 @@
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
-      <c r="D12"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
@@ -5444,7 +5968,6 @@
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
-      <c r="D13"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
@@ -5452,7 +5975,6 @@
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
-      <c r="D14"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
@@ -5460,7 +5982,6 @@
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
-      <c r="D15"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
@@ -5468,7 +5989,6 @@
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
-      <c r="D16"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
@@ -5476,7 +5996,6 @@
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
-      <c r="D17"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
@@ -5484,7 +6003,6 @@
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
-      <c r="D18"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
@@ -5492,7 +6010,6 @@
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
-      <c r="D19"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
@@ -5500,7 +6017,6 @@
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
-      <c r="D20"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
@@ -5508,7 +6024,6 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
@@ -5516,7 +6031,6 @@
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
@@ -5524,7 +6038,6 @@
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
@@ -5532,7 +6045,6 @@
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
@@ -5540,7 +6052,6 @@
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
@@ -5548,7 +6059,6 @@
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
@@ -5556,7 +6066,6 @@
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
@@ -5755,7 +6264,7 @@
         <v>94</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="msg" sheetId="14" r:id="rId1"/>
@@ -116,6 +116,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+京灵+海女+风致+海马+绛珠
+悬赏伤害：
+强攻：58.8y
+敏攻：
+控制：52.1y
+防辅：47.9y</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -633,7 +652,26 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
+悬赏伤害：
+强攻：4.4y
+敏攻：4.3y
+控制：
+防辅：4.3y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1742,6 +1780,57 @@
         </r>
       </text>
     </comment>
+    <comment ref="C6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：
+敏攻：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>918y</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+控制：
+防辅：239.9y</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">  178.6y</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -2096,7 +2185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="263">
   <si>
     <t>天数</t>
   </si>
@@ -3826,6 +3915,32 @@
 觉醒券：42
 钻石：1.1w
 区评分排名：172</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：47
+战力：343365
+觉醒券：57
+钻石：1w
+区评分排名：183</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1581509
+觉醒券：253
+钻石：3840
+区评分排名：93
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1332638
+觉醒券：532
+钻石：2152
+区评分排名：112
+战区排行：---</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4593,8 +4708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4669,7 +4784,7 @@
         <v>224</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="G5" s="7">
         <v>1</v>
@@ -4682,7 +4797,9 @@
       <c r="B6" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -4830,8 +4947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4881,16 +4998,18 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>83</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="F4" s="2" t="s">
@@ -5703,8 +5822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5950,7 +6069,7 @@
         <v>67</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>83</v>
+        <v>260</v>
       </c>
       <c r="F11" s="2"/>
       <c r="H11" s="7" t="s">
@@ -6083,25 +6202,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="17.75" style="6" customWidth="1"/>
-    <col min="3" max="4" width="15.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.375" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="3" max="5" width="15.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="13.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.375" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -6114,11 +6233,14 @@
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="E1" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>21</v>
       </c>
@@ -6131,14 +6253,17 @@
       <c r="D2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>22</v>
       </c>
@@ -6151,11 +6276,12 @@
       <c r="D3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="E3"/>
+      <c r="I3" s="7" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>23</v>
       </c>
@@ -6168,8 +6294,9 @@
       <c r="D4" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>24</v>
       </c>
@@ -6182,8 +6309,9 @@
       <c r="D5" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>25</v>
       </c>
@@ -6196,8 +6324,9 @@
       <c r="D6" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>26</v>
       </c>
@@ -6210,8 +6339,9 @@
       <c r="D7" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>27</v>
       </c>
@@ -6224,11 +6354,12 @@
       <c r="D8" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="E8"/>
+      <c r="I8" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>28</v>
       </c>
@@ -6238,11 +6369,12 @@
       <c r="D9" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="E9"/>
+      <c r="I9" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>29</v>
       </c>
@@ -6252,8 +6384,9 @@
       <c r="D10" s="6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>30</v>
       </c>
@@ -6263,75 +6396,92 @@
       <c r="D11" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="E11"/>
+      <c r="I11" s="7" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
     </row>
   </sheetData>

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="msg" sheetId="14" r:id="rId1"/>
@@ -128,10 +128,29 @@
           </rPr>
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
 悬赏伤害：
-强攻：58.8y
+强攻：214.7y
 敏攻：
-控制：52.1y
-防辅：47.9y</t>
+控制：
+防辅：53.2y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+京灵+海女+风致+海马+绛珠
+悬赏伤害：
+强攻：214.7y
+敏攻：
+控制：
+防辅：53.2y</t>
         </r>
       </text>
     </comment>
@@ -664,10 +683,10 @@
           </rPr>
           <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
 悬赏伤害：
-强攻：4.4y
-敏攻：4.3y
-控制：
-防辅：4.3y</t>
+强攻：
+敏攻：4.4y
+控制：4.6y
+防辅：4.4y</t>
         </r>
       </text>
     </comment>
@@ -687,6 +706,25 @@
 敏攻：
 控制：
 防辅：</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
+悬赏伤害：
+强攻：
+敏攻：4.4y
+控制：4.6y
+防辅：4.4y</t>
         </r>
       </text>
     </comment>
@@ -1793,41 +1831,9 @@
           <t>阵容：暗三+佘龙+波波+海女+风致+小白
 悬赏伤害：
 强攻：
-敏攻：</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>918y</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
+敏攻：
 控制：
-防辅：239.9y</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">  178.6y</t>
+防辅：529.9y</t>
         </r>
       </text>
     </comment>
@@ -1889,6 +1895,25 @@
           </rPr>
           <t xml:space="preserve">
 防辅：</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：
+敏攻：
+控制：
+防辅：529.9y</t>
         </r>
       </text>
     </comment>
@@ -2185,7 +2210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="266">
   <si>
     <t>天数</t>
   </si>
@@ -3940,6 +3965,32 @@
 觉醒券：532
 钻石：2152
 区评分排名：112
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1369953
+觉醒券：534
+钻石：2760
+区评分排名：109
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：47
+战力：357373
+觉醒券：71
+钻石：8960
+区评分排名：191</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1607169
+觉醒券：251
+钻石：4820
+区评分排名：94
 战区排行：---</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4708,8 +4759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4798,7 +4849,7 @@
         <v>232</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>223</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -4808,7 +4859,9 @@
       <c r="B7" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
@@ -4947,8 +5000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5008,7 +5061,7 @@
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -5016,11 +5069,13 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>84</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="H5" s="7">
@@ -6204,8 +6259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6254,7 +6309,7 @@
         <v>70</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>83</v>
+        <v>264</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>8</v>
@@ -6263,7 +6318,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>22</v>
       </c>
@@ -6276,7 +6331,9 @@
       <c r="D3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E3"/>
+      <c r="E3" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="I3" s="7" t="s">
         <v>230</v>
       </c>

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -147,10 +147,29 @@
           </rPr>
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
 悬赏伤害：
-强攻：214.7y
+强攻：76.7y/214.7y
 敏攻：
 控制：
-防辅：53.2y</t>
+防辅：40y/53.2y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+京灵+海女+风致+海马+绛珠
+悬赏伤害：
+强攻：76.7y/214.7y
+敏攻：
+控制：
+防辅：40y/53.2y</t>
         </r>
       </text>
     </comment>
@@ -721,10 +740,10 @@
           </rPr>
           <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
 悬赏伤害：
-强攻：
+强攻：5.1y
 敏攻：4.4y
-控制：4.6y
-防辅：4.4y</t>
+控制：4.6y 4.4y
+防辅：5y</t>
         </r>
       </text>
     </comment>
@@ -741,6 +760,25 @@
           </rPr>
           <t>战力--：
 阵容中强攻系老虎改为辅助系</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
+悬赏伤害：
+强攻：5.1y
+敏攻：4.4y
+控制：4.6y 4.4y
+防辅：5y</t>
         </r>
       </text>
     </comment>
@@ -1911,9 +1949,9 @@
           <t>阵容：暗三+佘龙+波波+海女+风致+小白
 悬赏伤害：
 强攻：
-敏攻：
-控制：
-防辅：529.9y</t>
+敏攻：1181.6y/
+控制：569.6y/
+防辅：378y/529.9y</t>
         </r>
       </text>
     </comment>
@@ -1986,6 +2024,25 @@
             <charset val="134"/>
           </rPr>
           <t>34.2y difficult</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：
+敏攻：1181.6y/
+控制：569.6y/
+防辅：378y/529.9y</t>
         </r>
       </text>
     </comment>
@@ -2210,7 +2267,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="269">
   <si>
     <t>天数</t>
   </si>
@@ -2572,12 +2629,6 @@
 战力：465325
 觉醒券：81
 钻石：924</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、50卡级结束
-2、全民对决
-3、星斗赏活动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3727,11 +3778,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、兔子活动开始
-2、皇家激励（49卡级）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级：44
 战力：184722
 觉醒券：197
@@ -3991,6 +4037,41 @@
 觉醒券：251
 钻石：4820
 区评分排名：94
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔子活动开始</t>
+  </si>
+  <si>
+    <t>1、50卡级结束
+2、全民对决
+3、星斗赏活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：48
+战力：373380
+觉醒券：95
+钻石：7650
+区评分排名：185</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1454901
+觉醒券：542
+钻石：3243
+区评分排名：114
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1631940
+觉醒券：277
+钻石：4256
+区评分排名：97
 战区排行：---</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4455,51 +4536,51 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="B2" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4545,7 +4626,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>63</v>
@@ -4556,10 +4637,10 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -4567,10 +4648,10 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -4578,10 +4659,10 @@
         <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -4589,10 +4670,10 @@
         <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -4600,10 +4681,10 @@
         <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -4611,10 +4692,10 @@
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -4622,10 +4703,10 @@
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -4633,13 +4714,13 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -4647,10 +4728,10 @@
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -4658,10 +4739,10 @@
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -4759,8 +4840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4796,13 +4877,13 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -4810,10 +4891,10 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -4821,10 +4902,10 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -4832,10 +4913,10 @@
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G5" s="7">
         <v>1</v>
@@ -4846,10 +4927,10 @@
         <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -4857,10 +4938,10 @@
         <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -4868,20 +4949,22 @@
         <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C9" s="2"/>
       <c r="E9" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -4889,11 +4972,11 @@
         <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C10" s="2"/>
       <c r="E10" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -4901,7 +4984,7 @@
         <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -5000,8 +5083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5038,12 +5121,12 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="81" x14ac:dyDescent="0.15">
@@ -5051,7 +5134,7 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -5061,12 +5144,12 @@
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="81" x14ac:dyDescent="0.15">
@@ -5074,7 +5157,7 @@
         <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -5082,11 +5165,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>85</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
@@ -5252,15 +5337,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B2" s="7">
         <v>30</v>
@@ -5268,7 +5353,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B3" s="7">
         <v>40</v>
@@ -5276,7 +5361,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B4" s="7">
         <v>50</v>
@@ -5284,7 +5369,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B5" s="7">
         <v>60</v>
@@ -5327,7 +5412,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>63</v>
@@ -5341,7 +5426,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -5531,13 +5616,13 @@
         <v>13</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>8</v>
@@ -5551,16 +5636,16 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -5574,13 +5659,13 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -5595,13 +5680,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -5616,13 +5701,13 @@
         <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -5637,13 +5722,13 @@
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -5658,13 +5743,13 @@
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I7" s="2"/>
     </row>
@@ -5679,13 +5764,13 @@
         <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -5700,13 +5785,13 @@
         <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -5724,13 +5809,13 @@
         <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -5748,10 +5833,10 @@
         <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -5878,7 +5963,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5908,10 +5993,10 @@
         <v>13</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>66</v>
@@ -5934,13 +6019,13 @@
         <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -5957,13 +6042,13 @@
         <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -5980,13 +6065,13 @@
         <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -6003,13 +6088,13 @@
         <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -6026,7 +6111,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -6044,7 +6129,7 @@
         <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -6062,7 +6147,7 @@
         <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -6080,11 +6165,11 @@
         <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F9" s="2"/>
       <c r="H9" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -6101,12 +6186,12 @@
         <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I10" s="14"/>
     </row>
@@ -6124,11 +6209,11 @@
         <v>67</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F11" s="2"/>
       <c r="H11" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -6259,8 +6344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6289,7 +6374,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>63</v>
@@ -6305,17 +6390,17 @@
       <c r="C2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>70</v>
+      <c r="D2" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -6329,16 +6414,13 @@
         <v>65</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>23</v>
       </c>
@@ -6346,12 +6428,17 @@
         <v>48</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4"/>
+        <v>75</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
@@ -6361,10 +6448,10 @@
         <v>51</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5"/>
     </row>
@@ -6376,10 +6463,10 @@
         <v>54</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6"/>
     </row>
@@ -6391,10 +6478,10 @@
         <v>59</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7"/>
     </row>
@@ -6406,10 +6493,10 @@
         <v>61</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8"/>
       <c r="I8" s="7" t="s">
@@ -6424,11 +6511,11 @@
         <v>68</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9"/>
       <c r="I9" s="7" t="s">
-        <v>69</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -6436,10 +6523,10 @@
         <v>29</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10"/>
     </row>
@@ -6448,94 +6535,78 @@
         <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11"/>
       <c r="I11" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
-      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
-      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
-      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
-      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
-      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
-      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
-      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
-      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
-      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
-      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
-      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
-      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
-      <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
-      <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
-      <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
-      <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -6586,7 +6657,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>63</v>
@@ -6597,11 +6668,11 @@
         <v>31</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -6609,11 +6680,11 @@
         <v>32</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -6621,11 +6692,11 @@
         <v>33</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -6633,11 +6704,11 @@
         <v>34</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -6645,11 +6716,11 @@
         <v>35</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -6657,11 +6728,11 @@
         <v>36</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -6669,11 +6740,11 @@
         <v>37</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -6681,11 +6752,11 @@
         <v>38</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -6693,11 +6764,11 @@
         <v>39</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -6705,11 +6776,11 @@
         <v>40</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -6852,7 +6923,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>63</v>
@@ -6863,10 +6934,10 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6874,10 +6945,10 @@
         <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6885,10 +6956,10 @@
         <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6896,13 +6967,13 @@
         <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6910,10 +6981,10 @@
         <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6921,10 +6992,10 @@
         <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6932,10 +7003,10 @@
         <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6943,10 +7014,10 @@
         <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6954,10 +7025,10 @@
         <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6965,10 +7036,10 @@
         <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -7095,7 +7166,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>63</v>
@@ -7106,10 +7177,10 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -7117,10 +7188,10 @@
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -7128,10 +7199,10 @@
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -7139,13 +7210,13 @@
         <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -7153,10 +7224,10 @@
         <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -7164,10 +7235,10 @@
         <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -7175,10 +7246,10 @@
         <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -7186,10 +7257,10 @@
         <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -7197,10 +7268,10 @@
         <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -7208,10 +7279,10 @@
         <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="msg" sheetId="14" r:id="rId1"/>
@@ -173,6 +173,56 @@
         </r>
       </text>
     </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+京灵+海女+风致+海马+绛珠
+悬赏伤害：
+强攻：76.7y/503.6y
+敏攻：/
+控制：
+防辅：40y/53.2y
+暗三红</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+京灵+海女+风致+海马+绛珠
+悬赏伤害：
+强攻：76.7y/503.6y
+敏攻：/
+控制：
+防辅：40y/53.2y</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -709,7 +759,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -799,6 +849,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="E5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
+悬赏伤害：
+强攻：5.1y
+敏攻：6.7y
+控制：7.5y
+防辅：6.5y</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D6" authorId="0" shapeId="0">
       <text>
         <r>
@@ -813,6 +882,25 @@
           <t>2022 9/10 - 9/12
 中秋（玉兔寻宝）
 良心活动</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
+悬赏伤害：
+强攻：5.1y
+敏攻：6.7y
+控制：7.5y
+防辅：6.5y</t>
         </r>
       </text>
     </comment>
@@ -2118,6 +2206,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="C9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+佘龙+波波+海女+海马+小白
+悬赏伤害：
+强攻：
+敏攻：1181.6y/204y
+控制：569.6y/104.7y
+防辅：378y/529.9y</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <r>
@@ -2187,6 +2294,25 @@
             <charset val="134"/>
           </rPr>
           <t>34.2y difficult</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+佘龙+波波+海女+海马+小白
+悬赏伤害：
+强攻：
+敏攻：1181.6y/204y
+控制：569.6y/104.7y
+防辅：378y/529.9y</t>
         </r>
       </text>
     </comment>
@@ -2267,7 +2393,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="277">
   <si>
     <t>天数</t>
   </si>
@@ -4073,6 +4199,66 @@
 钻石：4256
 区评分排名：97
 战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战区跨服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炬火重燃（唐昊外传）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1493450
+觉醒券：530
+钻石：3579
+区评分排名：98
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1650550
+觉醒券：278
+钻石：3976
+区评分排名：91
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：48
+战力：388110
+觉醒券：114
+钻石：5643
+区评分排名：188</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1540661
+觉醒券：516
+钻石：4381
+区评分排名：99
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1658570
+觉醒券：278
+钻石：3996
+区评分排名：93
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：48
+战力：406679
+觉醒券：113
+钻石：5625
+区评分排名：188</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4597,8 +4783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4733,6 +4919,9 @@
       <c r="C10" s="2" t="s">
         <v>237</v>
       </c>
+      <c r="G10" s="7" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -4840,8 +5029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4952,7 +5141,7 @@
         <v>238</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -4962,7 +5151,9 @@
       <c r="B9" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>275</v>
+      </c>
       <c r="E9" s="7" t="s">
         <v>241</v>
       </c>
@@ -4974,7 +5165,9 @@
       <c r="B10" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="E10" s="7" t="s">
         <v>227</v>
       </c>
@@ -5083,8 +5276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5098,7 +5291,7 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5116,7 +5309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>81</v>
       </c>
@@ -5129,7 +5322,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>82</v>
       </c>
@@ -5139,7 +5332,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>83</v>
       </c>
@@ -5152,7 +5345,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>84</v>
       </c>
@@ -5161,37 +5354,38 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>86</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>87</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>88</v>
       </c>
@@ -5199,7 +5393,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>89</v>
       </c>
@@ -5207,7 +5401,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>90</v>
       </c>
@@ -5215,31 +5409,31 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -5963,7 +6157,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6342,10 +6536,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6354,10 +6548,10 @@
     <col min="2" max="2" width="17.75" style="6" customWidth="1"/>
     <col min="3" max="5" width="15.5" style="6" customWidth="1"/>
     <col min="6" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="13.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.375" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="19.375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="13.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.75" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
@@ -6376,7 +6570,7 @@
       <c r="E1" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6396,10 +6590,10 @@
       <c r="E2" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6434,13 +6628,13 @@
         <v>75</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>24</v>
       </c>
@@ -6453,7 +6647,9 @@
       <c r="D5" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E5"/>
+      <c r="E5" s="2" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -6468,7 +6664,9 @@
       <c r="D6" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E6"/>
+      <c r="E6" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
@@ -6499,7 +6697,7 @@
         <v>86</v>
       </c>
       <c r="E8"/>
-      <c r="I8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>64</v>
       </c>
     </row>
@@ -6514,7 +6712,7 @@
         <v>89</v>
       </c>
       <c r="E9"/>
-      <c r="I9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>265</v>
       </c>
     </row>
@@ -6541,7 +6739,7 @@
         <v>93</v>
       </c>
       <c r="E11"/>
-      <c r="I11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>246</v>
       </c>
     </row>
@@ -7137,8 +7335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7284,6 +7482,9 @@
       <c r="C11" s="2" t="s">
         <v>200</v>
       </c>
+      <c r="G11" s="7" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="msg" sheetId="14" r:id="rId1"/>
@@ -223,6 +223,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="B9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+京灵+海女+风致+海马+绛珠
+悬赏伤害：
+强攻：76.7y/503.6y
+敏攻：/
+控制：
+防辅：40y/53.2y</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -921,6 +940,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="E7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
+悬赏伤害：
+强攻：5.1y
+敏攻：6.7y
+控制：7.5y
+防辅：6.5y</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D11" authorId="0" shapeId="0">
       <text>
         <r>
@@ -2388,12 +2426,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="C11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+佘龙+波波+海女+海马+小白
+悬赏伤害：
+强攻：
+敏攻：1181.6y/204y
+控制：569.6y/104.7y
+防辅：378y/529.9y</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="280">
   <si>
     <t>天数</t>
   </si>
@@ -4259,6 +4316,32 @@
 觉醒券：113
 钻石：5625
 区评分排名：188</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：48
+战力：414117
+觉醒券：112
+钻石：5908
+区评分排名：195</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：1568526
+觉醒券：522
+钻石：5820
+区评分排名：95
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1663884
+觉醒券：283
+钻石：4093
+区评分排名：97
+战区排行：---</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5029,8 +5112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5166,7 +5249,7 @@
         <v>247</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>222</v>
+        <v>279</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>227</v>
@@ -5179,7 +5262,9 @@
       <c r="B11" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
@@ -5276,8 +5361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5380,16 +5465,18 @@
         <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>88</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
@@ -6538,8 +6625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="B5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6665,7 +6752,7 @@
         <v>83</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>82</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -6681,7 +6768,9 @@
       <c r="D7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E7"/>
+      <c r="E7" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="msg" sheetId="14" r:id="rId1"/>
@@ -78,6 +78,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+佘龙+波波+海女+海马+小白
+悬赏伤害：
+强攻：1629.5y/
+敏攻：1315.5y/204y
+控制：819y/104.7y
+防辅：378y/529.9y</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
@@ -235,9 +254,28 @@
           </rPr>
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
 悬赏伤害：
-强攻：76.7y/503.6y
-敏攻：/
-控制：
+强攻：215.6y/503.6y
+敏攻：55.8y/
+控制：80y/
+防辅：40y/53.2y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+京灵+海女+风致+海马+绛珠
+悬赏伤害：
+强攻：215.6y/503.6y
+敏攻：55.8y/
+控制：80y/
 防辅：40y/53.2y</t>
         </r>
       </text>
@@ -952,10 +990,29 @@
           </rPr>
           <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
 悬赏伤害：
-强攻：5.1y
-敏攻：6.7y
+强攻：9.2y
+敏攻：9.3y
 控制：7.5y
-防辅：6.5y</t>
+防辅：8.7y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
+悬赏伤害：
+强攻：9.2y
+敏攻：9.3y
+控制：7.5y
+防辅：8.7y</t>
         </r>
       </text>
     </comment>
@@ -2438,9 +2495,9 @@
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+海马+小白
 悬赏伤害：
-强攻：
-敏攻：1181.6y/204y
-控制：569.6y/104.7y
+强攻：1629.5y/
+敏攻：1315.5y/204y
+控制：819y/104.7y
 防辅：378y/529.9y</t>
         </r>
       </text>
@@ -2450,7 +2507,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="284">
   <si>
     <t>天数</t>
   </si>
@@ -4342,6 +4399,40 @@
 钻石：4093
 区评分排名：97
 战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：
+战力：
+觉醒券：
+钻石：
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：1577841
+觉醒券：524
+钻石：6566
+区评分排名：96
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1692476
+觉醒券：289
+钻石：4335
+区评分排名：98
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：49
+战力：405605
+觉醒券：115
+钻石：6342
+区评分排名：---</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5112,8 +5203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5263,7 +5354,7 @@
         <v>253</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>222</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -5361,8 +5452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5401,7 +5492,9 @@
       <c r="B2" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="G2" s="2" t="s">
         <v>82</v>
@@ -5475,16 +5568,18 @@
         <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>222</v>
+        <v>281</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>89</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
@@ -6625,8 +6720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6769,7 +6864,7 @@
         <v>87</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>82</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -6785,7 +6880,9 @@
       <c r="D8" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E8"/>
+      <c r="E8" s="2" t="s">
+        <v>280</v>
+      </c>
       <c r="G8" s="7" t="s">
         <v>64</v>
       </c>

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -135,6 +135,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+佘龙+波波+海女+海马+小白
+悬赏伤害：
+强攻：1629.5y/
+敏攻：1315.5y/204y
+控制：819y/104.7y
+防辅：378y/529.9y</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
@@ -262,6 +281,25 @@
       </text>
     </comment>
     <comment ref="B10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+京灵+海女+风致+海马+绛珠
+悬赏伤害：
+强攻：215.6y/503.6y
+敏攻：55.8y/
+控制：80y/
+防辅：40y/53.2y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1016,6 +1054,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="E9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
+悬赏伤害：
+强攻：9.2y
+敏攻：9.3y
+控制：7.5y
+防辅：8.7y</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D11" authorId="0" shapeId="0">
       <text>
         <r>
@@ -2507,7 +2564,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="286">
   <si>
     <t>天数</t>
   </si>
@@ -4168,10 +4225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>晶中愚者（比比东外传）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级：46
 战力：321325
 觉醒券：33
@@ -4402,14 +4455,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级：
-战力：
-觉醒券：
-钻石：
-区评分排名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级：57
 战力：1577841
 觉醒券：524
@@ -4433,6 +4478,36 @@
 觉醒券：115
 钻石：6342
 区评分排名：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶中愚者（比比东外传）开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：1587664
+觉醒券：526
+钻石：7379
+区评分排名：99
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1711661
+觉醒券：301
+钻石：4500
+区评分排名：99
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：49
+战力：442810
+觉醒券：106
+钻石：6455
+区评分排名：196</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5094,7 +5169,7 @@
         <v>237</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -5203,8 +5278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5218,7 +5293,7 @@
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5235,7 +5310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>71</v>
       </c>
@@ -5249,7 +5324,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>72</v>
       </c>
@@ -5257,10 +5332,10 @@
         <v>217</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>73</v>
       </c>
@@ -5268,10 +5343,10 @@
         <v>220</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>74</v>
       </c>
@@ -5279,13 +5354,10 @@
         <v>223</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>75</v>
       </c>
@@ -5293,10 +5365,10 @@
         <v>230</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>76</v>
       </c>
@@ -5304,10 +5376,10 @@
         <v>233</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>77</v>
       </c>
@@ -5315,10 +5387,10 @@
         <v>238</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>78</v>
       </c>
@@ -5326,13 +5398,13 @@
         <v>240</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>79</v>
       </c>
@@ -5340,44 +5412,44 @@
         <v>247</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -5452,8 +5524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5461,7 +5533,7 @@
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="4" width="15.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="7" customWidth="1"/>
     <col min="7" max="7" width="16.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="20" style="7" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
@@ -5490,10 +5562,10 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="D2" s="2"/>
       <c r="G2" s="2" t="s">
@@ -5505,9 +5577,11 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -5515,12 +5589,12 @@
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>250</v>
+      <c r="F4" s="7" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -5528,7 +5602,7 @@
         <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -5538,7 +5612,7 @@
         <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -5548,7 +5622,7 @@
         <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -5558,7 +5632,7 @@
         <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -5568,7 +5642,7 @@
         <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -5578,16 +5652,18 @@
         <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>222</v>
+        <v>283</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>90</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
@@ -6541,7 +6617,7 @@
         <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F9" s="2"/>
       <c r="H9" s="1" t="s">
@@ -6562,12 +6638,12 @@
         <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="14"/>
       <c r="H10" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I10" s="14"/>
     </row>
@@ -6585,7 +6661,7 @@
         <v>67</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F11" s="2"/>
       <c r="H11" s="7" t="s">
@@ -6720,8 +6796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6770,7 +6846,7 @@
         <v>69</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>8</v>
@@ -6793,7 +6869,7 @@
         <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -6810,10 +6886,10 @@
         <v>75</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -6830,7 +6906,7 @@
         <v>79</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -6847,7 +6923,7 @@
         <v>83</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -6864,7 +6940,10 @@
         <v>87</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -6881,10 +6960,7 @@
         <v>86</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>64</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -6897,9 +6973,11 @@
       <c r="D9" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E9"/>
+      <c r="E9" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="G9" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -7669,7 +7747,7 @@
         <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -19,6 +19,7 @@
     <sheet name="61-70" sheetId="13" r:id="rId10"/>
     <sheet name="71-80" sheetId="16" r:id="rId11"/>
     <sheet name="81-90" sheetId="17" r:id="rId12"/>
+    <sheet name="91-100" sheetId="18" r:id="rId13"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -145,12 +146,12 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>阵容：暗三+佘龙+波波+海女+海马+小白
+          <t>阵容：暗三+佘龙+波波+海女+风致+小白
 悬赏伤害：
 强攻：1629.5y/
-敏攻：1315.5y/204y
-控制：819y/104.7y
-防辅：378y/529.9y</t>
+敏攻：1315.5y/522.7y
+控制：819y/171.8y
+防辅：378y/660y</t>
         </r>
       </text>
     </comment>
@@ -170,6 +171,25 @@
 敏攻：
 控制：
 防辅：53.2y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：1629.5y/
+敏攻：1315.5y/522.7y
+控制：819y/171.8y
+防辅：378y/660y</t>
         </r>
       </text>
     </comment>
@@ -312,9 +332,57 @@
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
 悬赏伤害：
 强攻：215.6y/503.6y
-敏攻：55.8y/
-控制：80y/
-防辅：40y/53.2y</t>
+敏攻：55.8y/40.2y
+控制：80y/27.2y
+防辅：40y/69.2y</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+京灵+海女+风致+海马+绛珠
+悬赏伤害：
+强攻：215.6y/503.6y
+敏攻：55.8y/40.2y
+控制：80y/27.2y
+防辅：40y/69.2y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：
+悬赏伤害：
+强攻：
+敏攻：
+控制：
+防辅：</t>
         </r>
       </text>
     </comment>
@@ -1073,6 +1141,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="E10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
+悬赏伤害：
+强攻：9.2y
+敏攻：9.3y
+控制：7.5y
+防辅：8.7y</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D11" authorId="0" shapeId="0">
       <text>
         <r>
@@ -2564,7 +2651,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="289">
   <si>
     <t>天数</t>
   </si>
@@ -4508,6 +4595,32 @@
 觉醒券：106
 钻石：6455
 区评分排名：196</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1757033
+觉醒券：302
+钻石：4721
+区评分排名：96
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：1655532
+觉醒券：527
+钻石：7766
+区评分排名：92
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：49
+战力：475261
+觉醒券：109
+钻石：7721
+区评分排名：183</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5524,8 +5637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5580,7 +5693,7 @@
         <v>259</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>222</v>
+        <v>286</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -5591,7 +5704,9 @@
       <c r="B4" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="F4" s="7" t="s">
         <v>282</v>
@@ -5662,7 +5777,7 @@
         <v>90</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>222</v>
+        <v>287</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -5692,6 +5807,240 @@
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="4" width="15.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+      <c r="A2" s="7">
+        <v>91</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
+        <v>92</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
+        <v>93</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>94</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>95</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>96</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
+        <v>97</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
+        <v>98</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
+        <v>99</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
+        <v>100</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -6796,8 +7145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6974,7 +7323,7 @@
         <v>89</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>82</v>
+        <v>288</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>264</v>
@@ -6990,7 +7339,9 @@
       <c r="D10" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E10"/>
+      <c r="E10" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="7">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="msg" sheetId="14" r:id="rId1"/>
@@ -188,8 +188,8 @@
 悬赏伤害：
 强攻：1629.5y/
 敏攻：1315.5y/522.7y
-控制：819y/171.8y
-防辅：378y/660y</t>
+控制：1545.8y/171.8y
+防辅：824.6y/660y</t>
         </r>
       </text>
     </comment>
@@ -209,6 +209,25 @@
 敏攻：
 控制：
 防辅：40y/53.2y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：1629.5y/
+敏攻：1315.5y/522.7y
+控制：1545.8y/171.8y
+防辅：824.6y/660y</t>
         </r>
       </text>
     </comment>
@@ -361,9 +380,9 @@
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
 悬赏伤害：
 强攻：215.6y/503.6y
-敏攻：55.8y/40.2y
-控制：80y/27.2y
-防辅：40y/69.2y</t>
+敏攻：80y/40.2y
+控制：155.3y/27.2y
+防辅：98.9y/69.2y</t>
         </r>
       </text>
     </comment>
@@ -383,6 +402,25 @@
 敏攻：
 控制：
 防辅：</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+京灵+海女+风致+海马+绛珠
+悬赏伤害：
+强攻：215.6y/503.6y
+敏攻：80y/40.2y
+控制：155.3y/27.2y
+防辅：98.9y/69.2y</t>
         </r>
       </text>
     </comment>
@@ -1155,7 +1193,7 @@
 悬赏伤害：
 强攻：9.2y
 敏攻：9.3y
-控制：7.5y
+控制：9.1y
 防辅：8.7y</t>
         </r>
       </text>
@@ -1173,6 +1211,25 @@
           <t xml:space="preserve">战力降低：
 波赛西取消链接主控
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
+悬赏伤害：
+强攻：9.2y
+敏攻：9.3y
+控制：9.1y
+防辅：8.7y</t>
         </r>
       </text>
     </comment>
@@ -1222,7 +1279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2651,7 +2708,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="294">
   <si>
     <t>天数</t>
   </si>
@@ -4621,6 +4678,49 @@
 觉醒券：109
 钻石：7721
 区评分排名：183</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：1661602
+觉醒券：531
+钻石：7933
+区评分排名：91
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1862461
+觉醒券：308
+钻石：5126
+区评分排名：95
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：
+战力：
+觉醒券：
+钻石：
+区评分排名：
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：
+战力：
+觉醒券：
+钻石：
+区评分排名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：50
+战力：515270
+觉醒券：146
+钻石：9326
+区评分排名：169</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5637,8 +5737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5705,7 +5805,7 @@
         <v>260</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>222</v>
+        <v>290</v>
       </c>
       <c r="D4" s="2"/>
       <c r="F4" s="7" t="s">
@@ -5719,7 +5819,9 @@
       <c r="B5" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -5894,7 +5996,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5933,7 +6035,7 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -5941,11 +6043,13 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>92</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
@@ -7145,7 +7249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -7340,7 +7444,7 @@
         <v>91</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>82</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -7353,7 +7457,9 @@
       <c r="D11" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E11"/>
+      <c r="E11" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="G11" s="7" t="s">
         <v>246</v>
       </c>
@@ -7437,15 +7543,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="3" width="15.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="6" customWidth="1"/>
+    <col min="3" max="4" width="17.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
     <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="19.125" style="2" customWidth="1"/>
@@ -7461,11 +7567,9 @@
         <v>11</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="D1" s="7"/>
       <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
@@ -7483,8 +7587,7 @@
       <c r="B2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>95</v>
       </c>
     </row>
@@ -7495,8 +7598,7 @@
       <c r="B3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -7507,8 +7609,7 @@
       <c r="B4" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>99</v>
       </c>
     </row>
@@ -7519,8 +7620,7 @@
       <c r="B5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>102</v>
       </c>
     </row>
@@ -7531,8 +7631,7 @@
       <c r="B6" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -7543,8 +7642,7 @@
       <c r="B7" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>105</v>
       </c>
     </row>
@@ -7555,8 +7653,7 @@
       <c r="B8" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>107</v>
       </c>
     </row>
@@ -7567,8 +7664,7 @@
       <c r="B9" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -7579,8 +7675,7 @@
       <c r="B10" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>112</v>
       </c>
     </row>
@@ -7591,8 +7686,7 @@
       <c r="B11" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>113</v>
       </c>
     </row>

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -250,6 +250,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="C6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：1629.5y/
+敏攻：1315.5y/522.7y
+控制：1545.8y/171.8y
+防辅：824.6y/660y</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -278,6 +297,25 @@
             <charset val="134"/>
           </rPr>
           <t>5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：1629.5y/
+敏攻：1315.5y/522.7y
+控制：1545.8y/171.8y
+防辅：824.6y/660y</t>
         </r>
       </text>
     </comment>
@@ -424,6 +462,44 @@
         </r>
       </text>
     </comment>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+京灵+海女+风致+海马+绛珠
+悬赏伤害：
+强攻：215.6y/503.6y
+敏攻：80y/40.2y
+控制：155.3y/27.2y
+防辅：98.9y/69.2y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+京灵+海女+风致+海马+绛珠
+悬赏伤害：
+强攻：215.6y/503.6y
+敏攻：80y/40.2y
+控制：155.3y/27.2y
+防辅：98.9y/69.2y</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -960,7 +1036,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1243,7 +1319,26 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
+悬赏伤害：
+强攻：10.4y
+敏攻：9.3y
+控制：9.4y
+防辅：10y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1259,6 +1354,25 @@
 敏攻：
 控制：
 防辅：</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
+悬赏伤害：
+强攻：10.4y
+敏攻：9.3y
+控制：9.4y
+防辅：10y</t>
         </r>
       </text>
     </comment>
@@ -2708,7 +2822,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="298">
   <si>
     <t>天数</t>
   </si>
@@ -4699,28 +4813,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级：
-战力：
-觉醒券：
-钻石：
-区评分排名：
-战区排行：---</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：
-战力：
-觉醒券：
-钻石：
-区评分排名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级：50
 战力：515270
 觉醒券：146
 钻石：9326
 区评分排名：169</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：1665538
+觉醒券：536
+钻石：8074
+区评分排名：91
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1863869
+觉醒券：311
+钻石：5504
+区评分排名：98
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：50
+战力：532441
+觉醒券：149
+钻石：9608
+区评分排名：169</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1869342
+觉醒券：316
+钻石：5837
+区评分排名：94
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：1665861
+觉醒券：537
+钻石：8375
+区评分排名：95
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：51
+战力：517838
+觉醒券：152
+钻石：1w
+区评分排名：187</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5737,8 +5886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5808,9 +5957,6 @@
         <v>290</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" s="7" t="s">
-        <v>282</v>
-      </c>
     </row>
     <row r="5" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
@@ -5820,9 +5966,12 @@
         <v>266</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D5" s="2"/>
+      <c r="F5" s="7" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -5831,7 +5980,9 @@
       <c r="B6" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>295</v>
+      </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -5841,7 +5992,9 @@
       <c r="B7" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -5995,8 +6148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6048,24 +6201,28 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>93</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>94</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="H5" s="7">
@@ -7250,7 +7407,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7284,6 +7441,9 @@
       <c r="G1" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="H1" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
@@ -7301,12 +7461,10 @@
       <c r="E2" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="I2"/>
     </row>
     <row r="3" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
@@ -7444,7 +7602,7 @@
         <v>91</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
@@ -7458,10 +7616,7 @@
         <v>93</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -7541,25 +7696,25 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="15.5" style="6" customWidth="1"/>
-    <col min="3" max="4" width="17.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20" style="7" customWidth="1"/>
     <col min="7" max="7" width="19.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -7569,152 +7724,171 @@
       <c r="C1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="F1" s="8" t="s">
+      <c r="D1" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>31</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="12" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="D2" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>32</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="12" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="D3" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>33</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="12" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="D4" s="13"/>
+      <c r="F4" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>34</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="12" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>35</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="12" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>36</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="12" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>37</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="12" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>38</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="12" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>39</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="12" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>40</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="12" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -7801,8 +7975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -338,6 +338,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="C8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：1629.5y/
+敏攻：1315.5y/522.7y
+控制：1545.8y/171.8y
+防辅：824.6y/660y</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <r>
@@ -500,6 +519,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+京灵+海女+风致+海马+绛珠
+悬赏伤害：
+强攻：215.6y/503.6y
+敏攻：80y/40.2y
+控制：155.3y/27.2y
+防辅：98.9y/69.2y</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -1393,6 +1431,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="D4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
+悬赏伤害：
+强攻：10.4y
+敏攻：9.3y
+控制：9.4y
+防辅：10y</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
@@ -2822,7 +2879,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="301">
   <si>
     <t>天数</t>
   </si>
@@ -4870,6 +4927,32 @@
 觉醒券：152
 钻石：1w
 区评分排名：187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：1656433
+觉醒券：538
+钻石：8352
+区评分排名：95
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1870356
+觉醒券：317
+钻石：6388
+区评分排名：98
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：51
+战力：531117
+觉醒券：153
+钻石：1w
+区评分排名：188</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5886,8 +5969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5993,7 +6076,7 @@
         <v>273</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>222</v>
+        <v>299</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -6004,7 +6087,9 @@
       <c r="B8" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -6148,8 +6233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6221,7 +6306,7 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>222</v>
+        <v>298</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -6229,11 +6314,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>95</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
@@ -7699,7 +7786,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7762,7 +7849,7 @@
         <v>97</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>82</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -7775,7 +7862,9 @@
       <c r="C4" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="F4" s="7" t="s">
         <v>246</v>
       </c>

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -376,6 +376,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="C9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：1629.5y/
+敏攻：1315.5y/522.7y
+控制：1545.8y/171.8y
+防辅：824.6y/660y</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <r>
@@ -538,6 +557,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+京灵+海女+风致+海马+绛珠
+悬赏伤害：
+强攻：215.6y/503.6y
+敏攻：80y/40.2y
+控制：155.3y/27.2y
+防辅：98.9y/69.2y</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -1445,8 +1483,27 @@
 悬赏伤害：
 强攻：10.4y
 敏攻：9.3y
-控制：9.4y
-防辅：10y</t>
+控制：11.1y
+防辅：11.1y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
+悬赏伤害：
+强攻：10.4y
+敏攻：9.3y
+控制：11.1y
+防辅：11.1y</t>
         </r>
       </text>
     </comment>
@@ -2879,7 +2936,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="304">
   <si>
     <t>天数</t>
   </si>
@@ -4953,6 +5010,32 @@
 觉醒券：153
 钻石：1w
 区评分排名：188</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：1658971
+觉醒券：541
+钻石：8032
+区评分排名：97
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1901065
+觉醒券：324
+钻石：5724
+区评分排名：100
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：51
+战力：542249
+觉醒券：176
+钻石：9533
+区评分排名：192</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5969,8 +6052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6088,7 +6171,7 @@
         <v>277</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>222</v>
+        <v>302</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -6099,7 +6182,9 @@
       <c r="B9" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -6233,8 +6318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6319,16 +6404,18 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>222</v>
+        <v>301</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>96</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
@@ -7785,8 +7872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7863,7 +7950,7 @@
         <v>99</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>82</v>
+        <v>303</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>246</v>
@@ -7879,7 +7966,9 @@
       <c r="C5" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="12" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6" s="7">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="msg" sheetId="14" r:id="rId1"/>
@@ -414,6 +414,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="C10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：1629.5y/
+敏攻：1315.5y/522.7y
+控制：1545.8y/171.8y
+防辅：824.6y/660y</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B11" authorId="0" shapeId="0">
       <text>
         <r>
@@ -576,6 +595,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="B8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+京灵+海女+风致+海马+绛珠
+悬赏伤害：
+强攻：215.6y/503.6y
+敏攻：80y/40.2y
+控制：155.3y/27.2y
+防辅：98.9y/69.2y</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -586,7 +624,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -602,22 +640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>月关 开局</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -636,7 +659,60 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：
+悬赏伤害：
+强攻：
+敏攻：
+控制：
+防辅：</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>月关 开局</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：
+悬赏伤害：
+强攻：
+敏攻：
+控制：
+防辅：</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -663,7 +739,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0">
+    <comment ref="D10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -678,7 +754,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="D11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1093,7 +1169,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1112,7 +1188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1131,7 +1207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1150,23 +1226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>战力--：
-阵容中强攻系老虎改为辅助系</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1185,7 +1245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1202,7 +1262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1221,7 +1281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1238,7 +1298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0">
+    <comment ref="D6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1274,7 +1334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1293,7 +1353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0">
+    <comment ref="D8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1312,7 +1372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0">
+    <comment ref="D9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1331,7 +1391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0">
+    <comment ref="D10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1350,7 +1410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1366,7 +1426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="D11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1488,25 +1548,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
-悬赏伤害：
-强攻：10.4y
-敏攻：9.3y
-控制：11.1y
-防辅：11.1y</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
@@ -2936,24 +2977,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="297">
   <si>
     <t>天数</t>
-  </si>
-  <si>
-    <t>等级：36
-战力：67840</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：35
-战力：58373</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：32
-战力：31126</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>等级：30
@@ -3005,16 +3031,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级：38
-战力：80425</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：39
-战力：89459</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级：43
 战力：173017</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3030,11 +3046,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级：40
-战力：104128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级：43
 战力：186448</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3045,11 +3056,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级：40
-战力：115957</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级：38
 战力：70271</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3060,11 +3066,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级：41
-战力：127272</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级：39
 战力：76465</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3072,11 +3073,6 @@
   <si>
     <t>等级：45
 战力：263928</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：41
-战力：133316</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3261,25 +3257,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级：48
-战力：326812
-觉醒券：162
-钻石：6875</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>活动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>兔子活动结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：48
-战力：340231
-觉醒券：189
-钻石：5312</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3315,13 +3297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级：49
-战力：335909
-觉醒券：207
-钻石：4553</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级：50
 战力：480505
 觉醒券：86
@@ -3337,13 +3312,6 @@
   </si>
   <si>
     <t>等级：49
-战力：364888
-觉醒券：224
-钻石：3508</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：49
 战力：431976
 觉醒券：277
 钻石：3069</t>
@@ -3354,20 +3322,6 @@
 战力：484262
 觉醒券：102
 钻石：1809</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：49
-战力：376981
-觉醒券：256
-钻石：2553</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级：49
-战力：393599
-觉醒券：2
-钻石：1861</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4049,10 +4003,6 @@
 觉醒券：
 钻石：7560
 区评分排名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、变异兽群</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5036,6 +4986,59 @@
 觉醒券：176
 钻石：9533
 区评分排名：192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：1665025
+觉醒券：544
+钻石：7623
+区评分排名：98
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：56
+战力：1910306
+觉醒券：332
+钻石：5790
+区评分排名：101
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、变异兽群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他参考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（葫芦丿炒饭）
+区服：744服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/11/13
+744服
+胖子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：28
+战力：16777
+觉醒券：0
+钻石：4008
+区评分排名：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结尾日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结尾日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5088,7 +5091,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5119,6 +5122,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -5132,7 +5141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5179,6 +5188,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5487,7 +5502,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5499,51 +5514,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="B2" s="11" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>193</v>
+        <v>177</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -5560,7 +5578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -5580,19 +5598,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5600,10 +5618,10 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5611,10 +5629,10 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5622,10 +5640,10 @@
         <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5633,10 +5651,10 @@
         <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5644,10 +5662,10 @@
         <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5655,10 +5673,10 @@
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5666,10 +5684,10 @@
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5677,13 +5695,13 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5691,13 +5709,13 @@
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -5705,10 +5723,10 @@
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -5806,7 +5824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -5826,16 +5844,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -5843,13 +5861,13 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -5857,10 +5875,10 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -5868,10 +5886,10 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -5879,10 +5897,10 @@
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -5890,10 +5908,10 @@
         <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -5901,10 +5919,10 @@
         <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -5912,10 +5930,10 @@
         <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -5923,13 +5941,13 @@
         <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -5937,13 +5955,13 @@
         <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -5951,10 +5969,10 @@
         <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -6052,8 +6070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6072,17 +6090,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D1" s="7"/>
       <c r="F1" s="7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -6090,14 +6108,14 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="D2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -6105,10 +6123,10 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -6117,10 +6135,10 @@
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -6129,14 +6147,14 @@
         <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="D5" s="2"/>
       <c r="F5" s="7" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -6144,10 +6162,10 @@
         <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -6156,10 +6174,10 @@
         <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -6168,10 +6186,10 @@
         <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -6180,10 +6198,10 @@
         <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -6192,9 +6210,11 @@
         <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -6202,16 +6222,21 @@
         <v>90</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+    <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B12" s="18">
+        <v>44871</v>
+      </c>
+      <c r="C12" s="18">
+        <v>44879</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
@@ -6318,8 +6343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6338,19 +6363,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="81" x14ac:dyDescent="0.15">
@@ -6358,12 +6383,12 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="81" x14ac:dyDescent="0.15">
@@ -6371,7 +6396,7 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -6381,7 +6406,7 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -6391,7 +6416,7 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -6404,7 +6429,7 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -6414,16 +6439,18 @@
         <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>222</v>
+        <v>288</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>97</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
@@ -6451,11 +6478,13 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B12" s="18">
+        <v>44881</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
@@ -6573,15 +6602,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="B2" s="7">
         <v>30</v>
@@ -6589,7 +6618,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B3" s="7">
         <v>40</v>
@@ -6597,7 +6626,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="B4" s="7">
         <v>50</v>
@@ -6605,7 +6634,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="B5" s="7">
         <v>60</v>
@@ -6642,19 +6671,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -6662,7 +6691,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -6822,369 +6851,367 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="4" width="15.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="18.375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="2" max="3" width="15.5" style="5" customWidth="1"/>
+    <col min="4" max="5" width="15.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="12" max="12" width="9.875" customWidth="1"/>
+    <col min="13" max="13" width="16.125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>292</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>294</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="G4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="G5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G6" t="s">
-        <v>175</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="G7" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="H7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="G8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="M8" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="G9" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="M9" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="G10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="M11" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="H16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="H17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="H18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="H19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="H20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B21" s="6"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B22" s="6"/>
-      <c r="D22"/>
+      <c r="C22"/>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B23" s="6"/>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B24" s="6"/>
+      <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B25" s="6"/>
+      <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B26" s="6"/>
+      <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="F28" s="2"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="M28" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7196,10 +7223,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7209,364 +7236,365 @@
     <col min="3" max="3" width="15.5" style="5" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="13" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="6" customWidth="1"/>
     <col min="8" max="8" width="16.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" customWidth="1"/>
     <col min="10" max="10" width="9" style="7"/>
+    <col min="14" max="14" width="16.125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>13</v>
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>227</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>216</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>220</v>
+      </c>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>16</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>223</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>17</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>233</v>
+      </c>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>18</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>234</v>
+      </c>
       <c r="H9" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>19</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>240</v>
+      </c>
       <c r="G10" s="14"/>
       <c r="H10" s="15" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>20</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>241</v>
+      </c>
       <c r="H11" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28"/>
-      <c r="F28" s="2"/>
+      <c r="N28" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7578,286 +7606,262 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="17.75" style="6" customWidth="1"/>
-    <col min="3" max="5" width="15.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="19.375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.75" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="3" max="4" width="15.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="19.375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.75" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>21</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2"/>
-    </row>
-    <row r="3" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>23</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>24</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>25</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>26</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>27</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>28</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>29</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
     </row>
   </sheetData>
@@ -7872,8 +7876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7893,19 +7897,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -7913,16 +7917,16 @@
         <v>31</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -7930,13 +7934,13 @@
         <v>32</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -7944,16 +7948,16 @@
         <v>33</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>99</v>
-      </c>
       <c r="D4" s="12" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -7961,13 +7965,13 @@
         <v>34</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>82</v>
+        <v>87</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -7975,10 +7979,10 @@
         <v>35</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>88</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>103</v>
       </c>
       <c r="D6" s="13"/>
     </row>
@@ -7987,10 +7991,10 @@
         <v>36</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>90</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>105</v>
       </c>
       <c r="D7" s="13"/>
     </row>
@@ -7999,10 +8003,10 @@
         <v>37</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>107</v>
       </c>
       <c r="D8" s="13"/>
     </row>
@@ -8011,10 +8015,10 @@
         <v>38</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>109</v>
       </c>
       <c r="D9" s="13"/>
     </row>
@@ -8023,10 +8027,10 @@
         <v>39</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D10" s="13"/>
     </row>
@@ -8035,10 +8039,10 @@
         <v>40</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="D11" s="13"/>
     </row>
@@ -8154,7 +8158,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8173,19 +8177,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -8193,10 +8197,10 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -8204,10 +8208,13 @@
         <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -8215,10 +8222,10 @@
         <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -8226,13 +8233,13 @@
         <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>121</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -8240,10 +8247,10 @@
         <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -8251,10 +8258,10 @@
         <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -8262,10 +8269,10 @@
         <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -8273,10 +8280,10 @@
         <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -8284,10 +8291,10 @@
         <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -8295,10 +8302,10 @@
         <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -8396,8 +8403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8416,19 +8423,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -8436,10 +8443,10 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -8447,10 +8454,10 @@
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -8458,10 +8465,10 @@
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -8469,13 +8476,13 @@
         <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -8483,10 +8490,10 @@
         <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -8494,10 +8501,10 @@
         <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -8505,10 +8512,10 @@
         <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -8516,10 +8523,10 @@
         <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -8527,10 +8534,10 @@
         <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -8538,13 +8545,13 @@
         <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="msg" sheetId="14" r:id="rId1"/>
@@ -427,9 +427,9 @@
           <t>阵容：暗三+佘龙+波波+海女+风致+小白
 悬赏伤害：
 强攻：1629.5y/
-敏攻：1315.5y/522.7y
+敏攻：1315.5y/572.8y
 控制：1545.8y/171.8y
-防辅：824.6y/660y</t>
+防辅：824.6y/666.4y</t>
         </r>
       </text>
     </comment>
@@ -449,6 +449,25 @@
 敏攻：55.8y/40.2y
 控制：80y/27.2y
 防辅：40y/69.2y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：1629.5y/
+敏攻：1315.5y/572.8y
+控制：1545.8y/171.8y
+防辅：824.6y/666.4y</t>
         </r>
       </text>
     </comment>
@@ -614,6 +633,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="B9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+京灵+海女+风致+海马+绛珠
+悬赏伤害：
+强攻：215.6y/503.6y
+敏攻：80y/40.2y
+控制：155.3y/27.2y
+防辅：98.9y/69.2y</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -2977,7 +3015,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="302">
   <si>
     <t>天数</t>
   </si>
@@ -5040,6 +5078,46 @@
   <si>
     <t>结尾日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：2030752
+觉醒券：353
+钻石：6064
+区评分排名：92
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：1745054
+觉醒券：565
+钻石：6466
+区评分排名：92
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：31
+战力：30070
+觉醒券：22
+钻石：6343
+区评分排名：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：31
+战力：30070
+觉醒券：32
+钻石：6343
+区评分排名：---</t>
+  </si>
+  <si>
+    <t>等级：31
+战力：30070
+觉醒券：42
+钻石：6343
+区评分排名：---</t>
   </si>
 </sst>
 </file>
@@ -5186,14 +5264,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5555,7 +5633,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>169</v>
@@ -6070,8 +6148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6213,7 +6291,7 @@
         <v>267</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>206</v>
+        <v>297</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -6224,17 +6302,19 @@
       <c r="B11" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <v>44871</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <v>44879</v>
       </c>
     </row>
@@ -6344,7 +6424,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6449,16 +6529,18 @@
         <v>97</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="81" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>98</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
@@ -6482,7 +6564,7 @@
       <c r="A12" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <v>44881</v>
       </c>
     </row>
@@ -6853,8 +6935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6931,7 +7013,7 @@
         <v>154</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>67</v>
+        <v>299</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>290</v>
@@ -7970,7 +8052,7 @@
       <c r="C5" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>66</v>
       </c>
     </row>

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="msg" sheetId="14" r:id="rId1"/>
@@ -464,10 +464,52 @@
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+风致+小白
 悬赏伤害：
-强攻：1629.5y/
+强攻：1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>629.5</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>y/
 敏攻：1315.5y/572.8y
 控制：1545.8y/171.8y
-防辅：824.6y/666.4y</t>
+防辅：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>824.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>6y/666.4y</t>
         </r>
       </text>
     </comment>
@@ -500,7 +542,68 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>629.5</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>y/
+敏攻：1315.5y/572.8y
+控制：1545.8y/171.8y
+防辅：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>824.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>6y/666.4y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -646,9 +749,28 @@
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
 悬赏伤害：
 强攻：215.6y/503.6y
-敏攻：80y/40.2y
-控制：155.3y/27.2y
-防辅：98.9y/69.2y</t>
+敏攻：156.6y/40.2y
+控制：206.6y/27.2y
+防辅：148.1y/69.2y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+京灵+海女+风致+海马+绛珠
+悬赏伤害：
+强攻：215.6y/503.6y
+敏攻：156.6y/40.2y
+控制：206.6y/27.2y
+防辅：148.1y/69.2y</t>
         </r>
       </text>
     </comment>
@@ -750,6 +872,44 @@
         </r>
       </text>
     </comment>
+    <comment ref="E4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：
+悬赏伤害：
+强攻：
+敏攻：
+控制：
+防辅：</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：
+悬赏伤害：
+强攻：
+敏攻：
+控制：
+防辅：</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D9" authorId="0" shapeId="0">
       <text>
         <r>
@@ -3015,7 +3175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="302">
   <si>
     <t>天数</t>
   </si>
@@ -3946,10 +4106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>悬赏开启</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级：36
 战力：60640
 觉醒券：57
@@ -4072,10 +4228,6 @@
 觉醒券：459
 钻石：5849
 区评分排名：118</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35级魂骨开启</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5106,18 +5258,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级：31
-战力：30070
+    <t>等级：57
+战力：1864355
+觉醒券：573
+钻石：6401
+区评分排名：83
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、悬赏开启
+2、35级魂骨开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：34
+战力：40573
 觉醒券：32
-钻石：6343
+钻石：7161
 区评分排名：---</t>
-  </si>
-  <si>
-    <t>等级：31
-战力：30070
-觉醒券：42
-钻石：6343
-区评分排名：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：2273016
+觉醒券：373
+钻石：7416
+区评分排名：72
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5592,54 +5761,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="B2" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -5699,7 +5868,7 @@
         <v>126</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5710,7 +5879,7 @@
         <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5721,7 +5890,7 @@
         <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5732,7 +5901,7 @@
         <v>133</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5740,10 +5909,10 @@
         <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5751,10 +5920,10 @@
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5762,10 +5931,10 @@
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5773,13 +5942,13 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -5787,13 +5956,13 @@
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -5801,10 +5970,10 @@
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -5939,10 +6108,10 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>67</v>
@@ -5953,10 +6122,10 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -5964,10 +6133,10 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -5975,10 +6144,10 @@
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -5986,10 +6155,10 @@
         <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -5997,10 +6166,10 @@
         <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -6008,10 +6177,10 @@
         <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -6019,13 +6188,13 @@
         <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -6033,13 +6202,13 @@
         <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -6047,10 +6216,10 @@
         <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -6148,8 +6317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6186,10 +6355,10 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2"/>
       <c r="G2" s="2" t="s">
@@ -6201,10 +6370,10 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -6213,10 +6382,10 @@
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -6225,14 +6394,14 @@
         <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D5" s="2"/>
       <c r="F5" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -6240,10 +6409,10 @@
         <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -6252,10 +6421,10 @@
         <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -6264,10 +6433,10 @@
         <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -6276,10 +6445,10 @@
         <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -6288,10 +6457,10 @@
         <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -6300,16 +6469,16 @@
         <v>90</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>206</v>
+        <v>301</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B12" s="17">
         <v>44871</v>
@@ -6421,24 +6590,24 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="4" width="15.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="2" max="3" width="15.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -6448,217 +6617,193 @@
       <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="G2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="H5" s="7">
+      <c r="G5" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>97</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>98</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>99</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>100</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B12" s="17">
         <v>44881</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
     </row>
   </sheetData>
@@ -6684,15 +6829,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B2" s="7">
         <v>30</v>
@@ -6700,7 +6845,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B3" s="7">
         <v>40</v>
@@ -6708,7 +6853,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B4" s="7">
         <v>50</v>
@@ -6716,7 +6861,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B5" s="7">
         <v>60</v>
@@ -6935,8 +7080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6964,7 +7109,7 @@
         <v>129</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>138</v>
@@ -6973,10 +7118,10 @@
         <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
@@ -6990,10 +7135,10 @@
         <v>132</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>67</v>
@@ -7010,13 +7155,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H3" s="2"/>
       <c r="M3" s="2" t="s">
@@ -7031,11 +7176,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="G4" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="H4" s="2"/>
       <c r="M4" s="2" t="s">
@@ -7050,15 +7194,17 @@
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="G5" s="7" t="s">
-        <v>139</v>
+        <v>299</v>
       </c>
       <c r="H5" s="2"/>
       <c r="M5" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
@@ -7069,15 +7215,15 @@
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
@@ -7088,15 +7234,15 @@
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E7" s="2"/>
       <c r="G7" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H7" s="2"/>
       <c r="M7" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
@@ -7107,15 +7253,15 @@
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E8" s="2"/>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H8" s="2"/>
       <c r="M8" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
@@ -7126,15 +7272,15 @@
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E9" s="2"/>
       <c r="G9" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H9" s="2"/>
       <c r="M9" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
@@ -7148,15 +7294,15 @@
         <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E10" s="2"/>
       <c r="G10" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H10" s="2"/>
       <c r="M10" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
@@ -7170,12 +7316,12 @@
         <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E11" s="2"/>
       <c r="H11" s="2"/>
       <c r="M11" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
@@ -7348,7 +7494,7 @@
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
@@ -7365,13 +7511,13 @@
         <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>67</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
@@ -7388,13 +7534,13 @@
         <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
@@ -7411,13 +7557,13 @@
         <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
@@ -7434,10 +7580,10 @@
         <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>66</v>
@@ -7457,7 +7603,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="N6" s="2"/>
     </row>
@@ -7475,7 +7621,7 @@
         <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N7" s="2"/>
     </row>
@@ -7493,7 +7639,7 @@
         <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="N8" s="2"/>
     </row>
@@ -7511,7 +7657,7 @@
         <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>108</v>
@@ -7532,11 +7678,11 @@
         <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I10" s="14"/>
       <c r="N10" s="2"/>
@@ -7555,10 +7701,10 @@
         <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N11" s="2"/>
     </row>
@@ -7737,7 +7883,7 @@
         <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>67</v>
@@ -7755,7 +7901,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -7769,10 +7915,10 @@
         <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -7786,7 +7932,7 @@
         <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -7800,7 +7946,7 @@
         <v>68</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -7814,7 +7960,7 @@
         <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>54</v>
@@ -7831,7 +7977,7 @@
         <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -7845,10 +7991,10 @@
         <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -7862,7 +8008,7 @@
         <v>76</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -7876,7 +8022,7 @@
         <v>78</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -8005,7 +8151,7 @@
         <v>80</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>67</v>
@@ -8022,7 +8168,7 @@
         <v>82</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -8036,10 +8182,10 @@
         <v>84</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -8564,7 +8710,7 @@
         <v>127</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -8597,7 +8743,7 @@
         <v>118</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -8608,7 +8754,7 @@
         <v>119</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -8619,7 +8765,7 @@
         <v>121</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -8630,10 +8776,10 @@
         <v>123</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="msg" sheetId="14" r:id="rId1"/>
@@ -641,6 +641,67 @@
         </r>
       </text>
     </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>629.5</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>y/
+敏攻：1315.5y/572.8y
+控制：1545.8y/171.8y
+防辅：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>824.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>6y/666.4y</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
@@ -756,6 +817,25 @@
       </text>
     </comment>
     <comment ref="B10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+京灵+海女+风致+海马+绛珠
+悬赏伤害：
+强攻：215.6y/503.6y
+敏攻：156.6y/40.2y
+控制：206.6y/27.2y
+防辅：148.1y/69.2y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -901,12 +981,31 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>阵容：
+          <t>阵容：胖子+小舞+唐三+风致+绛珠+香香
 悬赏伤害：
 强攻：
 敏攻：
-控制：
-防辅：</t>
+控制：162.2w
+防辅：104.5w</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：胖子+小舞+唐三+风致+绛珠+香香
+悬赏伤害：
+强攻：
+敏攻：
+控制：162.2w
+防辅：104.5w</t>
         </r>
       </text>
     </comment>
@@ -3175,7 +3274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="306">
   <si>
     <t>天数</t>
   </si>
@@ -5286,6 +5385,41 @@
 钻石：7416
 区评分排名：72
 战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：36
+战力：57412
+觉醒券：53
+钻石：9773
+区评分排名：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：
+战力：
+觉醒券：
+钻石：
+区评分排名：
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：1961416
+觉醒券：495
+钻石：7170
+区评分排名：52
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：2304365
+觉醒券：388
+钻石：8210
+区评分排名：53
+战区排行：198</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6317,7 +6451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -6592,8 +6726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6632,9 +6766,9 @@
         <v>271</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F2" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -6645,7 +6779,9 @@
       <c r="B3" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
@@ -6709,15 +6845,17 @@
         <v>99</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>204</v>
+        <v>304</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>100</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -6879,7 +7017,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7080,8 +7218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7197,7 +7335,7 @@
         <v>172</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>67</v>
+        <v>302</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>299</v>
@@ -7217,7 +7355,9 @@
       <c r="D6" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="F6" t="s">
         <v>157</v>
       </c>

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="msg" sheetId="14" r:id="rId1"/>
@@ -698,7 +698,20 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>6y/666.4y</t>
+          <t>6y/666.4y
+sp幽冥白虎</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>100抽，2金：海魔女、比比东
+出的都是需要的卡，没那么醉</t>
         </r>
       </text>
     </comment>
@@ -721,6 +734,67 @@
         </r>
       </text>
     </comment>
+    <comment ref="C4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>629.5</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>y/
+敏攻：1315.5y/572.8y
+控制：1545.8y/171.8y
+防辅：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>824.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>6y/666.4y</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
@@ -848,9 +922,72 @@
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
 悬赏伤害：
 强攻：215.6y/503.6y
-敏攻：156.6y/40.2y
-控制：206.6y/27.2y
-防辅：148.1y/69.2y</t>
+敏攻：156.6y/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>106.2</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>y
+控制：206.6y/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>44</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>y
+防辅：148.1y/</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>93.2</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>y</t>
         </r>
       </text>
     </comment>
@@ -1005,6 +1142,38 @@
 强攻：
 敏攻：
 控制：162.2w
+防辅：104.5w
+sp幽冥白虎</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>90抽，1sp，2金（鬼魅、古榕）
+20抽出sp</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：胖子+小舞+唐三+风致+绛珠+香香
+悬赏伤害：
+强攻：
+敏攻：
+控制：162.2w
 防辅：104.5w</t>
         </r>
       </text>
@@ -3274,7 +3443,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="308">
   <si>
     <t>天数</t>
   </si>
@@ -5420,6 +5589,23 @@
 钻石：8210
 区评分排名：53
 战区排行：198</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：2352547
+觉醒券：301
+钻石：7546
+区评分排名：63
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：37
+战力：68699
+觉醒券：10
+钻石：8275
+区评分排名：---</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5883,7 +6069,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6451,7 +6637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -6726,8 +6912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6780,7 +6966,7 @@
         <v>274</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>204</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -6790,7 +6976,9 @@
       <c r="B4" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
@@ -7017,7 +7205,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7218,8 +7406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7356,7 +7544,7 @@
         <v>177</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>67</v>
+        <v>307</v>
       </c>
       <c r="F6" t="s">
         <v>157</v>
@@ -7376,7 +7564,9 @@
       <c r="D7" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="G7" s="7" t="s">
         <v>156</v>
       </c>
@@ -7593,8 +7783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -814,6 +814,67 @@
         </r>
       </text>
     </comment>
+    <comment ref="C5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>629.5</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>y/
+敏攻：1315.5y/572.8y
+控制：1545.8y/171.8y
+防辅：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>824.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>6y/666.4y</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1169,12 +1230,31 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>阵容：胖子+小舞+唐三+风致+绛珠+香香
-悬赏伤害：
-强攻：
+          <t>阵容：胖子+sp猫+唐三+风致+鬼魅+香香
+悬赏伤害：
+强攻：870.9w
 敏攻：
-控制：162.2w
-防辅：104.5w</t>
+控制：641.8w
+防辅：586.3w</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：胖子+sp猫+火舞+风致+鬼魅+绛珠
+悬赏伤害：
+强攻：870.9w
+敏攻：
+控制：641.8w
+防辅：586.3w</t>
         </r>
       </text>
     </comment>
@@ -3443,7 +3523,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="310">
   <si>
     <t>天数</t>
   </si>
@@ -4496,11 +4576,6 @@
 觉醒券：459
 钻石：5849
 区评分排名：118</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、魂力链接
-2、巨蝎环（38级）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5605,6 +5680,28 @@
 战力：68699
 觉醒券：10
 钻石：8275
+区评分排名：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：2392427
+觉醒券：313
+钻石：6656
+区评分排名：65
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、魂力链接6个
+2、巨蝎环（38级）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：38
+战力：85250
+觉醒券：43
+钻石：7777
 区评分排名：---</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6081,54 +6178,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="B2" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -6188,7 +6285,7 @@
         <v>126</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6199,7 +6296,7 @@
         <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6210,7 +6307,7 @@
         <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6221,7 +6318,7 @@
         <v>133</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6232,7 +6329,7 @@
         <v>155</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6240,10 +6337,10 @@
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6251,10 +6348,10 @@
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6262,13 +6359,13 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6276,13 +6373,13 @@
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -6290,10 +6387,10 @@
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -6428,10 +6525,10 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>67</v>
@@ -6442,10 +6539,10 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -6453,10 +6550,10 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -6464,10 +6561,10 @@
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -6475,10 +6572,10 @@
         <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -6486,10 +6583,10 @@
         <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -6497,10 +6594,10 @@
         <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -6508,13 +6605,13 @@
         <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -6522,13 +6619,13 @@
         <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -6536,10 +6633,10 @@
         <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -6675,10 +6772,10 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2"/>
       <c r="G2" s="2" t="s">
@@ -6690,10 +6787,10 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -6702,10 +6799,10 @@
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -6714,14 +6811,14 @@
         <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D5" s="2"/>
       <c r="F5" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -6729,10 +6826,10 @@
         <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -6741,10 +6838,10 @@
         <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -6753,10 +6850,10 @@
         <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -6765,10 +6862,10 @@
         <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -6777,10 +6874,10 @@
         <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -6789,16 +6886,16 @@
         <v>90</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B12" s="17">
         <v>44871</v>
@@ -6912,8 +7009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6949,10 +7046,10 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>67</v>
@@ -6963,10 +7060,10 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -6974,10 +7071,10 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>204</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -6985,9 +7082,11 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="G5" s="7">
         <v>1</v>
       </c>
@@ -6997,7 +7096,7 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -7006,7 +7105,7 @@
         <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -7015,7 +7114,7 @@
         <v>97</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -7024,7 +7123,7 @@
         <v>98</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C9" s="2"/>
     </row>
@@ -7033,7 +7132,7 @@
         <v>99</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -7042,13 +7141,13 @@
         <v>100</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B12" s="17">
         <v>44881</v>
@@ -7155,15 +7254,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B2" s="7">
         <v>30</v>
@@ -7171,7 +7270,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="7">
         <v>40</v>
@@ -7179,7 +7278,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="7">
         <v>50</v>
@@ -7187,7 +7286,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="7">
         <v>60</v>
@@ -7406,8 +7505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7435,7 +7534,7 @@
         <v>129</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>138</v>
@@ -7444,7 +7543,7 @@
         <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>140</v>
@@ -7461,10 +7560,10 @@
         <v>132</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>67</v>
@@ -7484,10 +7583,10 @@
         <v>153</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H3" s="2"/>
       <c r="M3" s="2" t="s">
@@ -7505,7 +7604,7 @@
         <v>154</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H4" s="2"/>
       <c r="M4" s="2" t="s">
@@ -7520,13 +7619,13 @@
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H5" s="2"/>
       <c r="M5" s="2" t="s">
@@ -7541,13 +7640,13 @@
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H6" s="2"/>
       <c r="M6" s="2" t="s">
@@ -7562,13 +7661,13 @@
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>67</v>
+        <v>309</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>156</v>
+        <v>308</v>
       </c>
       <c r="H7" s="2"/>
       <c r="M7" s="2" t="s">
@@ -7583,9 +7682,11 @@
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="G8" s="7" t="s">
         <v>152</v>
       </c>
@@ -7602,7 +7703,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E9" s="2"/>
       <c r="G9" s="7" t="s">
@@ -7624,7 +7725,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E10" s="2"/>
       <c r="G10" s="7" t="s">
@@ -7646,7 +7747,7 @@
         <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E11" s="2"/>
       <c r="H11" s="2"/>
@@ -7841,7 +7942,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>67</v>
@@ -7864,10 +7965,10 @@
         <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>150</v>
@@ -7887,10 +7988,10 @@
         <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>151</v>
@@ -7910,10 +8011,10 @@
         <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>66</v>
@@ -7933,7 +8034,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N6" s="2"/>
     </row>
@@ -7951,7 +8052,7 @@
         <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N7" s="2"/>
     </row>
@@ -7969,7 +8070,7 @@
         <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N8" s="2"/>
     </row>
@@ -7987,7 +8088,7 @@
         <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>108</v>
@@ -8008,11 +8109,11 @@
         <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I10" s="14"/>
       <c r="N10" s="2"/>
@@ -8031,10 +8132,10 @@
         <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N11" s="2"/>
     </row>
@@ -8213,7 +8314,7 @@
         <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>67</v>
@@ -8231,7 +8332,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -8245,10 +8346,10 @@
         <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -8262,7 +8363,7 @@
         <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -8276,7 +8377,7 @@
         <v>68</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -8290,7 +8391,7 @@
         <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>54</v>
@@ -8307,7 +8408,7 @@
         <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -8321,10 +8422,10 @@
         <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -8338,7 +8439,7 @@
         <v>76</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -8352,7 +8453,7 @@
         <v>78</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -8481,7 +8582,7 @@
         <v>80</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>67</v>
@@ -8498,7 +8599,7 @@
         <v>82</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -8512,10 +8613,10 @@
         <v>84</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -9040,7 +9141,7 @@
         <v>127</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -9073,7 +9174,7 @@
         <v>118</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -9084,7 +9185,7 @@
         <v>119</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -9095,7 +9196,7 @@
         <v>121</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -9106,10 +9207,10 @@
         <v>123</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -894,6 +894,67 @@
         </r>
       </text>
     </comment>
+    <comment ref="C6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>629.5</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>y/
+敏攻：1315.5y/572.8y
+控制：1545.8y/171.8y
+防辅：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>824.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>6y/666.4y</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -913,6 +974,68 @@
         </r>
       </text>
     </comment>
+    <comment ref="C7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>629.5</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>y/
+敏攻：1315.5y/572.8y
+控制：1545.8y/348.1y
+防辅：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>824.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">6y/680.8y
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <r>
@@ -929,6 +1052,68 @@
 敏攻：80y/40.2y
 控制：155.3y/27.2y
 防辅：98.9y/69.2y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>629.5</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>y/
+敏攻：1315.5y/572.8y
+控制：1545.8y/348.1y
+防辅：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>824.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">6y/680.8y
+</t>
         </r>
       </text>
     </comment>
@@ -1062,7 +1247,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1078,7 +1263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1097,7 +1282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1301,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1131,7 +1316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1150,7 +1335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="C4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1169,7 +1354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1188,7 +1373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1220,7 +1405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1239,7 +1424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1258,7 +1443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="0" shapeId="0">
+    <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1285,7 +1470,26 @@
         </r>
       </text>
     </comment>
-    <comment ref="D10" authorId="0" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：胖子+sp猫+火舞+风致+鬼魅+绛珠
+悬赏伤害：
+强攻：870.9w
+敏攻：
+控制：641.8w
+防辅：586.3w</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1300,7 +1504,26 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" shapeId="0">
+    <comment ref="C10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：胖子+sp猫+火舞+风致+鬼魅+绛珠
+悬赏伤害：
+强攻：870.9w
+敏攻：
+控制：641.8w
+防辅：1121.9w</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1312,6 +1535,25 @@
           </rPr>
           <t>阵容：唐昊+二龙+唐三+绛珠+香香+鬼魅
 悬赏伤害：</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>阵容：胖子+sp猫+火舞+风致+鬼魅+绛珠
+悬赏伤害：
+强攻：870.9w
+敏攻：
+控制：641.8w
+防辅：586.3w</t>
         </r>
       </text>
     </comment>
@@ -3523,7 +3765,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="316">
   <si>
     <t>天数</t>
   </si>
@@ -4517,10 +4759,6 @@
 觉醒券：
 钻石：
 区评分排名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、每周活动和老区同步</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5035,12 +5273,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、锤名昊天活动SSR
-2、锤三SSR
-3、小舞巅峰SSR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、风起唐门begin
 2、昊天扬威end</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5703,6 +5935,63 @@
 觉醒券：43
 钻石：7777
 区评分排名：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：39
+战力：96537
+觉醒券：78
+钻石：4870
+区评分排名：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：2401370
+觉醒券：325
+钻石：6108
+区评分排名：66
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、每周活动和老区同步
+2、SSR锤三到手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、锤名昊天活动SSR
+2、小舞巅峰SSR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：2417205
+觉醒券：347
+钻石：5263
+区评分排名：67
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：40
+战力：109760
+觉醒券：108
+钻石：3436
+区评分排名：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：2486132
+觉醒券：360
+钻石：3575
+区评分排名：67
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>END</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6178,54 +6467,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="B2" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -6285,7 +6574,7 @@
         <v>126</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6296,7 +6585,7 @@
         <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6307,7 +6596,7 @@
         <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6318,7 +6607,7 @@
         <v>133</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6326,10 +6615,10 @@
         <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6337,10 +6626,10 @@
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6348,10 +6637,10 @@
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6359,13 +6648,13 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6373,13 +6662,13 @@
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -6387,10 +6676,10 @@
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -6525,10 +6814,10 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>67</v>
@@ -6539,10 +6828,10 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -6550,10 +6839,10 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -6561,10 +6850,10 @@
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -6572,10 +6861,10 @@
         <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -6583,10 +6872,10 @@
         <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -6594,10 +6883,10 @@
         <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -6605,13 +6894,13 @@
         <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -6619,13 +6908,13 @@
         <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -6633,10 +6922,10 @@
         <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -6772,10 +7061,10 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2"/>
       <c r="G2" s="2" t="s">
@@ -6787,10 +7076,10 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -6799,10 +7088,10 @@
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -6811,14 +7100,14 @@
         <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D5" s="2"/>
       <c r="F5" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -6826,10 +7115,10 @@
         <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -6838,10 +7127,10 @@
         <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -6850,10 +7139,10 @@
         <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -6862,10 +7151,10 @@
         <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -6874,10 +7163,10 @@
         <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -6886,16 +7175,16 @@
         <v>90</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B12" s="17">
         <v>44871</v>
@@ -7009,8 +7298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7046,10 +7335,10 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>67</v>
@@ -7060,10 +7349,10 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -7071,10 +7360,10 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -7082,10 +7371,10 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>203</v>
+        <v>309</v>
       </c>
       <c r="G5" s="7">
         <v>1</v>
@@ -7096,34 +7385,40 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>97</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>98</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C9" s="2"/>
     </row>
@@ -7132,7 +7427,7 @@
         <v>99</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -7141,13 +7436,13 @@
         <v>100</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B12" s="17">
         <v>44881</v>
@@ -7254,15 +7549,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" s="7">
         <v>30</v>
@@ -7270,7 +7565,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" s="7">
         <v>40</v>
@@ -7278,7 +7573,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" s="7">
         <v>50</v>
@@ -7286,7 +7581,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B5" s="7">
         <v>60</v>
@@ -7505,19 +7800,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="3" width="15.5" style="5" customWidth="1"/>
-    <col min="4" max="5" width="15.5" style="6" customWidth="1"/>
-    <col min="7" max="7" width="18.375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="12" max="12" width="9.875" customWidth="1"/>
-    <col min="13" max="13" width="16.125" style="6" customWidth="1"/>
+    <col min="2" max="3" width="15.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="10" max="10" width="9.875" customWidth="1"/>
+    <col min="11" max="11" width="16.125" style="6" customWidth="1"/>
+    <col min="12" max="13" width="15.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -7525,352 +7820,356 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="M3" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="M4" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="M5" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F6" t="s">
-        <v>156</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="M6" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="M7" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="M8" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="M9" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="K10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="M10" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="G10" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="M10" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="M11" s="2" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="M12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="M14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="M15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="M16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="M17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="M18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B19" s="6"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="6"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B20" s="6"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="6"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B21" s="6"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="6"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B22" s="6"/>
-      <c r="C22"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="M22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="6"/>
+      <c r="M22"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B23" s="6"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="M23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="6"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B24" s="6"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="M24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="6"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B25" s="6"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="M25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="6"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B26" s="6"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="M26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="6"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="M27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="K27" s="2"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="M28" s="2"/>
+      <c r="K28" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7885,7 +8184,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7942,13 +8241,13 @@
         <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>67</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
@@ -7965,13 +8264,13 @@
         <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>224</v>
+        <v>311</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
@@ -7988,13 +8287,13 @@
         <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
@@ -8011,10 +8310,10 @@
         <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>66</v>
@@ -8034,7 +8333,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N6" s="2"/>
     </row>
@@ -8052,7 +8351,7 @@
         <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N7" s="2"/>
     </row>
@@ -8070,7 +8369,7 @@
         <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N8" s="2"/>
     </row>
@@ -8088,7 +8387,7 @@
         <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>108</v>
@@ -8109,11 +8408,11 @@
         <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I10" s="14"/>
       <c r="N10" s="2"/>
@@ -8132,10 +8431,10 @@
         <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N11" s="2"/>
     </row>
@@ -8314,7 +8613,7 @@
         <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>67</v>
@@ -8332,7 +8631,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -8346,10 +8645,10 @@
         <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -8363,7 +8662,7 @@
         <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -8377,7 +8676,7 @@
         <v>68</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -8391,7 +8690,7 @@
         <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>54</v>
@@ -8408,7 +8707,7 @@
         <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -8422,10 +8721,10 @@
         <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -8439,7 +8738,7 @@
         <v>76</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -8453,7 +8752,7 @@
         <v>78</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -8582,7 +8881,7 @@
         <v>80</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>67</v>
@@ -8599,7 +8898,7 @@
         <v>82</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -8613,10 +8912,10 @@
         <v>84</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -9141,7 +9440,7 @@
         <v>127</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -9174,7 +9473,7 @@
         <v>118</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -9185,7 +9484,7 @@
         <v>119</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -9196,7 +9495,7 @@
         <v>121</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -9207,10 +9506,10 @@
         <v>123</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="715" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="msg" sheetId="14" r:id="rId1"/>
@@ -1065,54 +1065,12 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>阵容：暗三+佘龙+波波+海女+风致+小白
-悬赏伤害：
-强攻：1</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>629.5</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>y/
-敏攻：1315.5y/572.8y
+          <t xml:space="preserve">阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：4057.3y/
+敏攻：1397.1y/572.8y
 控制：1545.8y/348.1y
-防辅：</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>824.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">6y/680.8y
+防辅：903.7y/680.8y
 </t>
         </r>
       </text>
@@ -1133,6 +1091,26 @@
 敏攻：156.6y/40.2y
 控制：206.6y/27.2y
 防辅：148.1y/69.2y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：4057.3y/
+敏攻：1397.1y/572.8y
+控制：1545.8y/348.1y
+防辅：903.7y/680.8y
+</t>
         </r>
       </text>
     </comment>
@@ -3765,7 +3743,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="317">
   <si>
     <t>天数</t>
   </si>
@@ -5992,6 +5970,15 @@
   </si>
   <si>
     <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：2532073
+觉醒券：376
+钻石：2670
+区评分排名：68
+战区排行：---</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7298,8 +7285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7410,7 +7397,7 @@
         <v>293</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>202</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -7420,7 +7407,9 @@
       <c r="B9" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
@@ -7800,7 +7789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -39,6 +39,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：
@@ -68,6 +69,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
@@ -87,6 +89,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+海马+小白
@@ -106,6 +109,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：
@@ -125,6 +129,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
@@ -144,6 +149,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+风致+小白
@@ -163,6 +169,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
@@ -182,6 +189,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+风致+小白
@@ -201,6 +209,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
@@ -220,6 +229,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+风致+小白
@@ -239,6 +249,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
@@ -258,6 +269,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+风致+小白
@@ -277,6 +289,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
@@ -308,6 +321,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+风致+小白
@@ -327,6 +341,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
@@ -346,6 +361,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+风致+小白
@@ -365,6 +381,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
@@ -384,6 +401,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+风致+小白
@@ -403,6 +421,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
@@ -422,6 +441,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+风致+小白
@@ -441,6 +461,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
@@ -460,6 +481,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+风致+小白
@@ -483,6 +505,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>y/
@@ -507,6 +530,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>6y/666.4y</t>
@@ -531,6 +555,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
@@ -550,6 +575,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+风致+小白
@@ -573,6 +599,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>y/
@@ -597,6 +624,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>6y/666.4y</t>
@@ -611,6 +639,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：
@@ -630,6 +659,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
@@ -649,6 +679,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+风致+小白
@@ -672,6 +703,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>y/
@@ -696,6 +728,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>6y/666.4y
@@ -723,6 +756,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
@@ -742,6 +776,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+风致+小白
@@ -765,6 +800,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>y/
@@ -789,6 +825,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>6y/666.4y</t>
@@ -803,6 +840,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
@@ -822,6 +860,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+风致+小白
@@ -845,6 +884,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>y/
@@ -869,6 +909,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>6y/666.4y</t>
@@ -883,6 +924,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
@@ -902,6 +944,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+风致+小白
@@ -925,6 +968,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>y/
@@ -949,6 +993,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>6y/666.4y</t>
@@ -963,6 +1008,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
@@ -982,6 +1028,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+风致+小白
@@ -1005,6 +1052,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>y/
@@ -1029,6 +1077,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">6y/680.8y
@@ -1044,6 +1093,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
@@ -1063,6 +1113,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">阵容：暗三+佘龙+波波+海女+风致+小白
@@ -1083,6 +1134,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
@@ -1102,6 +1154,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">阵容：暗三+佘龙+波波+海女+风致+小白
@@ -1122,6 +1175,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
@@ -1133,6 +1187,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="C10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：4057.3y/
+敏攻：1397.1y/572.8y
+控制：1545.8y/348.1y
+防辅：903.7y/680.8y
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B11" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1141,6 +1216,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
@@ -1165,6 +1241,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>y
@@ -1187,6 +1264,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>y
@@ -1209,9 +1287,31 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">阵容：暗三+佘龙+波波+海女+风致+小白
+悬赏伤害：
+强攻：4057.3y/
+敏攻：1397.1y/572.8y
+控制：1545.8y/348.1y
+防辅：903.7y/680.8y
+</t>
         </r>
       </text>
     </comment>
@@ -1249,6 +1349,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：
@@ -1268,6 +1369,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：
@@ -1302,6 +1404,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：
@@ -1321,6 +1424,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：
@@ -1340,6 +1444,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：胖子+小舞+唐三+风致+绛珠+香香
@@ -1359,6 +1464,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：胖子+小舞+唐三+风致+绛珠+香香
@@ -1391,6 +1497,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：胖子+sp猫+唐三+风致+鬼魅+香香
@@ -1410,6 +1517,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：胖子+sp猫+火舞+风致+鬼魅+绛珠
@@ -1429,6 +1537,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：唐昊+二龙+唐三+海马+香香+鬼魅
@@ -1456,6 +1565,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：胖子+sp猫+火舞+风致+鬼魅+绛珠
@@ -1475,6 +1585,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：唐昊+二龙+唐三+海马+香香+鬼魅
@@ -1490,6 +1601,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：胖子+sp猫+火舞+风致+鬼魅+绛珠
@@ -1509,6 +1621,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：唐昊+二龙+唐三+绛珠+香香+鬼魅
@@ -1524,6 +1637,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：胖子+sp猫+火舞+风致+鬼魅+绛珠
@@ -1553,6 +1667,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：唐昊+二龙+唐三+绛珠+香香+鬼魅
@@ -1568,6 +1683,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：
@@ -1587,6 +1703,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：唐昊+二龙+唐三+鬼魅+海马+风致
@@ -1610,6 +1727,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1632,6 +1750,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1654,6 +1773,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1669,6 +1789,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：唐昊+二龙+唐三+鬼魅+海马+风致
@@ -1692,6 +1813,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1714,6 +1836,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1736,6 +1859,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1751,6 +1875,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暴雨+京灵+唐三+鬼魅+海马+香香
@@ -1776,6 +1901,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -1804,6 +1930,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暴雨+京灵+唐三+鬼魅+海马+香香
@@ -1823,6 +1950,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暴雨+京灵+唐三+鬼魅+海马+阿银
@@ -1842,6 +1970,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暴雨+京灵+唐三+鬼魅+海马+阿银
@@ -1861,6 +1990,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暴雨+京灵+唐三+鬼魅+海马+阿银
@@ -1880,6 +2010,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
@@ -1914,6 +2045,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
@@ -1943,6 +2075,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
@@ -1962,6 +2095,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：
@@ -1981,6 +2115,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
@@ -2000,6 +2135,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
@@ -2036,6 +2172,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
@@ -2072,6 +2209,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
@@ -2108,6 +2246,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
@@ -2127,6 +2266,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
@@ -2146,6 +2286,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
@@ -2165,6 +2306,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
@@ -2184,6 +2326,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">战力降低：
@@ -2200,6 +2343,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
@@ -2229,6 +2373,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
@@ -2248,6 +2393,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：
@@ -2267,6 +2413,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
@@ -2303,6 +2450,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暴雨+京灵+唐三+鬼魅+海马+绛珠
@@ -2322,6 +2470,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>钻石++
@@ -2348,6 +2497,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：
@@ -2394,6 +2544,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：
@@ -2423,6 +2574,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：
@@ -2442,6 +2594,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：
@@ -2469,6 +2622,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">阵容：
@@ -2485,6 +2639,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+佘龙+海女+波波+小白+宁风致
@@ -2504,6 +2659,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：
@@ -2535,6 +2691,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+风致+小白
@@ -2558,6 +2715,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -2586,6 +2744,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+风致+小白
@@ -2609,6 +2768,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -2637,6 +2797,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+风致+小白
@@ -2660,6 +2821,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -2682,6 +2844,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -2704,6 +2867,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -2730,6 +2894,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+风致+小白
@@ -2753,6 +2918,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -2776,6 +2942,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -2802,6 +2969,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暴雨+小舞+狐狸+火舞+绛珠+香香
@@ -2824,6 +2992,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -2850,6 +3019,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+风致+小白
@@ -2879,6 +3049,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暴雨+京灵+海魔女+海龙+绛珠+宁风致
@@ -2901,6 +3072,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -2916,6 +3088,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+风致+小白
@@ -2935,6 +3108,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：
@@ -2954,6 +3128,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暴雨+京灵+海魔女+海龙+绛珠+宁风致
@@ -2976,6 +3151,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -2991,6 +3167,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+风致+小白
@@ -3010,6 +3187,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暴雨+京灵+海魔女+海龙+绛珠+宁风致
@@ -3032,6 +3210,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -3047,6 +3226,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+风致+小白
@@ -3071,6 +3251,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -3098,6 +3279,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
@@ -3122,6 +3304,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -3144,6 +3327,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -3159,6 +3343,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+风致+小白
@@ -3183,6 +3368,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -3210,6 +3396,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
@@ -3234,6 +3421,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -3256,6 +3444,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -3283,6 +3472,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+风致+小白
@@ -3302,6 +3492,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
@@ -3326,6 +3517,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -3348,6 +3540,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -3363,6 +3556,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+风致+小白
@@ -3382,6 +3576,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
@@ -3406,6 +3601,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -3428,6 +3624,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -3454,6 +3651,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+风致+小白
@@ -3473,6 +3671,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
@@ -3497,6 +3696,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -3519,6 +3719,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -3545,6 +3746,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+海马+小白
@@ -3564,6 +3766,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
@@ -3588,6 +3791,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -3610,6 +3814,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -3636,6 +3841,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+海马+小白
@@ -3655,6 +3861,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+京灵+海女+风致+海马+绛珠
@@ -3679,6 +3886,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -3701,6 +3909,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -3727,6 +3936,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>阵容：暗三+佘龙+波波+海女+海马+小白
@@ -3743,7 +3953,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="319">
   <si>
     <t>天数</t>
   </si>
@@ -5981,12 +6191,30 @@
 战区排行：---</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>等级：57
+战力：2553912
+觉醒券：390
+钻石：2027
+区评分排名：69
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：2558427
+觉醒券：408
+钻石：1224
+区评分排名：71
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6007,13 +6235,6 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6110,7 +6331,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -7285,8 +7506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7408,7 +7629,7 @@
         <v>295</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>202</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -7418,7 +7639,9 @@
       <c r="B10" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -7427,7 +7650,9 @@
       <c r="B11" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">

--- a/魂师对决日常记录.xlsx
+++ b/魂师对决日常记录.xlsx
@@ -1219,78 +1219,14 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>阵容：暗三+京灵+海女+风致+海马+绛珠
+          <t xml:space="preserve">阵容：暗三+京灵+海女+风致+海马+绛珠
 悬赏伤害：
 强攻：215.6y/503.6y
-敏攻：156.6y/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>106.2</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>y
-控制：206.6y/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>44</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>y
-防辅：148.1y/</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>93.2</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>y</t>
+敏攻：156.6y/106.2y
+控制：206.6y/44y
+防辅：148.1y/93.2y
+sp幽冥白虎400抽保底：1sp、14金
+</t>
         </r>
       </text>
     </comment>
@@ -5306,15 +5242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级：
-战力：
-觉醒券：
-钻石：
-区评分排名：
-战区排行：---</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级：56
 战力：1221071
 觉醒券：441
@@ -6060,15 +5987,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>等级：
-战力：
-觉醒券：
-钻石：
-区评分排名：
-战区排行：---</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级：57
 战力：1961416
 觉醒券：495
@@ -6206,6 +6124,24 @@
 觉醒券：408
 钻石：1224
 区评分排名：71
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：2060632
+觉醒券：111
+钻石：6813
+区评分排名：57
+战区排行：---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：57
+战力：2562280
+觉醒券：425
+钻石：424
+区评分排名：58
 战区排行：---</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6713,7 +6649,7 @@
         <v>173</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -6837,7 +6773,7 @@
         <v>172</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6848,7 +6784,7 @@
         <v>177</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6859,10 +6795,10 @@
         <v>179</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -6873,10 +6809,10 @@
         <v>188</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -6887,7 +6823,7 @@
         <v>190</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -7025,7 +6961,7 @@
         <v>194</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>67</v>
@@ -7039,7 +6975,7 @@
         <v>197</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -7050,7 +6986,7 @@
         <v>200</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -7058,10 +6994,10 @@
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -7069,10 +7005,10 @@
         <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -7080,10 +7016,10 @@
         <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -7091,10 +7027,10 @@
         <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -7102,13 +7038,13 @@
         <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -7116,13 +7052,13 @@
         <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -7130,10 +7066,10 @@
         <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -7269,10 +7205,10 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2"/>
       <c r="G2" s="2" t="s">
@@ -7284,10 +7220,10 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -7296,10 +7232,10 @@
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -7308,14 +7244,14 @@
         <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D5" s="2"/>
       <c r="F5" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -7323,10 +7259,10 @@
         <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -7335,10 +7271,10 @@
         <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -7347,10 +7283,10 @@
         <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -7359,10 +7295,10 @@
         <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -7371,10 +7307,10 @@
         <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -7383,16 +7319,16 @@
         <v>90</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B12" s="17">
         <v>44871</v>
@@ -7506,8 +7442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7543,10 +7479,10 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>67</v>
@@ -7557,10 +7493,10 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -7568,10 +7504,10 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -7579,10 +7515,10 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G5" s="7">
         <v>1</v>
@@ -7593,10 +7529,10 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -7604,10 +7540,10 @@
         <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -7615,10 +7551,10 @@
         <v>97</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -7626,10 +7562,10 @@
         <v>98</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -7637,10 +7573,10 @@
         <v>99</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="81" x14ac:dyDescent="0.15">
@@ -7648,18 +7584,21 @@
         <v>100</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>202</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B12" s="17">
         <v>44881</v>
+      </c>
+      <c r="C12" s="17">
+        <v>44889</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -8037,7 +7976,7 @@
         <v>129</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>138</v>
@@ -8046,7 +7985,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>140</v>
@@ -8066,10 +8005,10 @@
         <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>67</v>
@@ -8089,10 +8028,10 @@
         <v>152</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F3" s="2"/>
       <c r="K3" s="2" t="s">
@@ -8110,7 +8049,7 @@
         <v>153</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F4" s="2"/>
       <c r="K4" s="2" t="s">
@@ -8128,10 +8067,10 @@
         <v>170</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F5" s="2"/>
       <c r="K5" s="2" t="s">
@@ -8149,7 +8088,7 @@
         <v>175</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D6" t="s">
         <v>155</v>
@@ -8170,10 +8109,10 @@
         <v>178</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F7" s="2"/>
       <c r="K7" s="2" t="s">
@@ -8191,7 +8130,7 @@
         <v>187</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>151</v>
@@ -8212,10 +8151,10 @@
         <v>191</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F9" s="2"/>
       <c r="K9" s="2" t="s">
@@ -8233,7 +8172,7 @@
         <v>193</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>146</v>
@@ -8478,10 +8417,10 @@
         <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>149</v>
@@ -8501,10 +8440,10 @@
         <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>150</v>
@@ -8524,10 +8463,10 @@
         <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>66</v>
@@ -8547,7 +8486,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N6" s="2"/>
     </row>
@@ -8565,7 +8504,7 @@
         <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N7" s="2"/>
     </row>
@@ -8583,7 +8522,7 @@
         <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N8" s="2"/>
     </row>
@@ -8601,7 +8540,7 @@
         <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>108</v>
@@ -8622,11 +8561,11 @@
         <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I10" s="14"/>
       <c r="N10" s="2"/>
@@ -8645,7 +8584,7 @@
         <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>174</v>
@@ -8827,7 +8766,7 @@
         <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>67</v>
@@ -8845,7 +8784,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -8859,10 +8798,10 @@
         <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -8876,7 +8815,7 @@
         <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -8890,7 +8829,7 @@
         <v>68</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -8904,7 +8843,7 @@
         <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>54</v>
@@ -8921,7 +8860,7 @@
         <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -8935,10 +8874,10 @@
         <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -8952,7 +8891,7 @@
         <v>76</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
@@ -8966,7 +8905,7 @@
         <v>78</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -9095,7 +9034,7 @@
         <v>80</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>67</v>
@@ -9112,7 +9051,7 @@
         <v>82</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -9126,10 +9065,10 @@
         <v>84</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -9654,7 +9593,7 @@
         <v>127</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
@@ -9723,7 +9662,7 @@
         <v>180</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
